--- a/South Sudan resilience/data/South Sudan panel survey codebook.xlsx
+++ b/South Sudan resilience/data/South Sudan panel survey codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JACK.PAYNE\Documents\PMES\SouthSudan_panels\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan.killian\Documents\South Sudan panels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D37CCB-FD6F-4C4F-970F-750698673980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D443416A-5FFB-4E3B-96A9-27153FAF88E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28850" yWindow="-3810" windowWidth="14970" windowHeight="15490" xr2:uid="{3672C4AD-8C80-43DB-9BF6-4EF82E7197B0}"/>
+    <workbookView xWindow="38715" yWindow="150" windowWidth="18840" windowHeight="15330" xr2:uid="{3672C4AD-8C80-43DB-9BF6-4EF82E7197B0}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="2" r:id="rId1"/>
@@ -3879,27 +3879,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303B3E48-FC4F-4630-B212-B5EF23827098}">
   <dimension ref="A1:M630"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C180" sqref="C180"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B265" sqref="B265"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" style="3" customWidth="1"/>
     <col min="2" max="2" width="33" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.90625" style="1"/>
-    <col min="10" max="10" width="58.54296875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.90625" style="1"/>
+    <col min="5" max="5" width="17.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="58.5546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1031</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>86</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1.1000000000000001</v>
       </c>
@@ -3990,7 +3990,7 @@
       </c>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>97</v>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>83</v>
       </c>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>2.6</v>
       </c>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>2.7</v>
       </c>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>2.8</v>
       </c>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>1</v>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>2.1</v>
       </c>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>1062</v>
       </c>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>2.9</v>
       </c>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>2.12</v>
       </c>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>115</v>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="1">
         <v>301</v>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="1">
         <v>302</v>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="1">
         <v>303</v>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="1">
         <v>304</v>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="1">
         <v>305</v>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="1">
         <v>306</v>
@@ -4318,7 +4318,7 @@
       </c>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="1">
         <v>307</v>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="1">
         <v>308</v>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
         <v>133</v>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="1">
         <v>309</v>
@@ -4403,7 +4403,7 @@
       </c>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="1" t="s">
         <v>138</v>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="1">
         <v>310</v>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="1">
         <v>311</v>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="1">
         <v>312</v>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="1">
         <v>313</v>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="1">
         <v>314</v>
@@ -4520,7 +4520,7 @@
       </c>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
         <v>150</v>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="1">
         <v>315</v>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>3</v>
       </c>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>3.1</v>
       </c>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>1063</v>
       </c>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>1066</v>
       </c>
@@ -4642,7 +4642,7 @@
       </c>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>1067</v>
       </c>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>1068</v>
       </c>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="K39" s="7"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>1069</v>
       </c>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="K40" s="7"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>1070</v>
       </c>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="K41" s="7"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>1071</v>
       </c>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="K42" s="7"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>1072</v>
       </c>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>1073</v>
       </c>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>1074</v>
       </c>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>1075</v>
       </c>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>1076</v>
       </c>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>1077</v>
       </c>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>1078</v>
       </c>
@@ -4894,7 +4894,7 @@
       </c>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>1065</v>
       </c>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K50" s="7"/>
     </row>
-    <row r="51" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>1079</v>
       </c>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="K51" s="7"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>1080</v>
       </c>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="K52" s="7"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>1081</v>
       </c>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="K53" s="7"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>1082</v>
       </c>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="K54" s="7"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>1064</v>
       </c>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="K55" s="7"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>1083</v>
       </c>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="K56" s="7"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>1084</v>
       </c>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="K57" s="7"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="1" t="s">
         <v>1036</v>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="K58" s="7"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>3.2</v>
       </c>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>1085</v>
       </c>
@@ -5120,7 +5120,7 @@
       </c>
       <c r="K60" s="7"/>
     </row>
-    <row r="61" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>1089</v>
       </c>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="K61" s="7"/>
     </row>
-    <row r="62" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>1092</v>
       </c>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="K62" s="7"/>
     </row>
-    <row r="63" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>1093</v>
       </c>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="K63" s="7"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>1094</v>
       </c>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="K64" s="7"/>
     </row>
-    <row r="65" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>1095</v>
       </c>
@@ -5240,7 +5240,7 @@
       </c>
       <c r="K65" s="7"/>
     </row>
-    <row r="66" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>1088</v>
       </c>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="K66" s="7"/>
     </row>
-    <row r="67" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>1090</v>
       </c>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="K67" s="7"/>
     </row>
-    <row r="68" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>1096</v>
       </c>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="K68" s="7"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>1097</v>
       </c>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="K69" s="7"/>
     </row>
-    <row r="70" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>1098</v>
       </c>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="K70" s="7"/>
     </row>
-    <row r="71" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>1099</v>
       </c>
@@ -5384,7 +5384,7 @@
       </c>
       <c r="K71" s="7"/>
     </row>
-    <row r="72" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>1091</v>
       </c>
@@ -5408,7 +5408,7 @@
       </c>
       <c r="K72" s="7"/>
     </row>
-    <row r="73" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>1100</v>
       </c>
@@ -5432,7 +5432,7 @@
       </c>
       <c r="K73" s="7"/>
     </row>
-    <row r="74" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>1087</v>
       </c>
@@ -5456,7 +5456,7 @@
       </c>
       <c r="K74" s="7"/>
     </row>
-    <row r="75" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>1101</v>
       </c>
@@ -5480,7 +5480,7 @@
       </c>
       <c r="K75" s="7"/>
     </row>
-    <row r="76" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>1102</v>
       </c>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="K76" s="7"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>1103</v>
       </c>
@@ -5528,7 +5528,7 @@
       </c>
       <c r="K77" s="7"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>1104</v>
       </c>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="K78" s="7"/>
     </row>
-    <row r="79" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>1086</v>
       </c>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="K79" s="7"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>1105</v>
       </c>
@@ -5600,7 +5600,7 @@
       </c>
       <c r="K80" s="7"/>
     </row>
-    <row r="81" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
       <c r="B81" s="1" t="s">
         <v>204</v>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="K81" s="7"/>
     </row>
-    <row r="82" spans="1:11" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
       <c r="B82" s="1" t="s">
         <v>206</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="K82" s="7"/>
     </row>
-    <row r="83" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
       <c r="B83" s="1">
         <v>422</v>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="K83" s="7"/>
     </row>
-    <row r="84" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
       <c r="B84" s="1">
         <v>423</v>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="K84" s="7"/>
     </row>
-    <row r="85" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
       <c r="B85" s="1">
         <v>424</v>
@@ -5692,7 +5692,7 @@
       </c>
       <c r="K85" s="7"/>
     </row>
-    <row r="86" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
       <c r="B86" s="1">
         <v>425</v>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="K86" s="7"/>
     </row>
-    <row r="87" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
       <c r="B87" s="1">
         <v>426</v>
@@ -5730,7 +5730,7 @@
       </c>
       <c r="K87" s="7"/>
     </row>
-    <row r="88" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
       <c r="B88" s="1">
         <v>427</v>
@@ -5749,7 +5749,7 @@
       </c>
       <c r="K88" s="7"/>
     </row>
-    <row r="89" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
       <c r="B89" s="1">
         <v>428</v>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="K89" s="7"/>
     </row>
-    <row r="90" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="1">
         <v>429</v>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="K90" s="7"/>
     </row>
-    <row r="91" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="6"/>
       <c r="B91" s="1" t="s">
         <v>216</v>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="K91" s="7"/>
     </row>
-    <row r="92" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>1107</v>
       </c>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="K92" s="7"/>
     </row>
-    <row r="93" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>1107</v>
       </c>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="K93" s="7"/>
     </row>
-    <row r="94" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>1107</v>
       </c>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="K94" s="7"/>
     </row>
-    <row r="95" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>1107</v>
       </c>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="K95" s="7"/>
     </row>
-    <row r="96" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>1107</v>
       </c>
@@ -5914,7 +5914,7 @@
       </c>
       <c r="K96" s="7"/>
     </row>
-    <row r="97" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>1107</v>
       </c>
@@ -5938,7 +5938,7 @@
       </c>
       <c r="K97" s="7"/>
     </row>
-    <row r="98" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>1107</v>
       </c>
@@ -5956,7 +5956,7 @@
       </c>
       <c r="K98" s="7"/>
     </row>
-    <row r="99" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>1107</v>
       </c>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="K99" s="7"/>
     </row>
-    <row r="100" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="K100" s="7"/>
     </row>
-    <row r="101" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="K101" s="7"/>
     </row>
-    <row r="102" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="K102" s="7"/>
     </row>
-    <row r="103" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="K103" s="7"/>
     </row>
-    <row r="104" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6094,7 +6094,7 @@
       </c>
       <c r="K104" s="7"/>
     </row>
-    <row r="105" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="K105" s="7"/>
     </row>
-    <row r="106" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="K106" s="7"/>
     </row>
-    <row r="107" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="K107" s="7"/>
     </row>
-    <row r="108" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6184,7 +6184,7 @@
       </c>
       <c r="K108" s="7"/>
     </row>
-    <row r="109" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6208,7 +6208,7 @@
       </c>
       <c r="K109" s="7"/>
     </row>
-    <row r="110" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="K110" s="7"/>
     </row>
-    <row r="111" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6253,7 +6253,7 @@
       </c>
       <c r="K111" s="7"/>
     </row>
-    <row r="112" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="K112" s="7"/>
     </row>
-    <row r="113" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="K113" s="7"/>
     </row>
-    <row r="114" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="K114" s="7"/>
     </row>
-    <row r="115" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6346,7 +6346,7 @@
       </c>
       <c r="K115" s="7"/>
     </row>
-    <row r="116" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6370,7 +6370,7 @@
       </c>
       <c r="K116" s="7"/>
     </row>
-    <row r="117" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="6"/>
       <c r="B117" s="1" t="s">
         <v>253</v>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="K117" s="7"/>
     </row>
-    <row r="118" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="6"/>
       <c r="B118" s="1">
         <v>455</v>
@@ -6408,7 +6408,7 @@
       </c>
       <c r="K118" s="7"/>
     </row>
-    <row r="119" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A119" s="6"/>
       <c r="B119" s="1">
         <v>456</v>
@@ -6430,7 +6430,7 @@
       </c>
       <c r="K119" s="7"/>
     </row>
-    <row r="120" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A120" s="6"/>
       <c r="B120" s="1">
         <v>457</v>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="K120" s="7"/>
     </row>
-    <row r="121" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" s="6"/>
       <c r="B121" s="1">
         <v>458</v>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="K121" s="7"/>
     </row>
-    <row r="122" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A122" s="6"/>
       <c r="B122" s="1">
         <v>459</v>
@@ -6493,7 +6493,7 @@
       </c>
       <c r="K122" s="7"/>
     </row>
-    <row r="123" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A123" s="6"/>
       <c r="B123" s="1">
         <v>460</v>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="K123" s="7"/>
     </row>
-    <row r="124" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="6"/>
       <c r="B124" s="1">
         <v>461</v>
@@ -6534,7 +6534,7 @@
       </c>
       <c r="K124" s="7"/>
     </row>
-    <row r="125" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A125" s="6"/>
       <c r="B125" s="1">
         <v>462</v>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="K125" s="7"/>
     </row>
-    <row r="126" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A126" s="6"/>
       <c r="B126" s="1">
         <v>463</v>
@@ -6578,7 +6578,7 @@
       </c>
       <c r="K126" s="7"/>
     </row>
-    <row r="127" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A127" s="6"/>
       <c r="B127" s="1">
         <v>464</v>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="K127" s="7"/>
     </row>
-    <row r="128" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="6"/>
       <c r="B128" s="1">
         <v>465</v>
@@ -6619,7 +6619,7 @@
       </c>
       <c r="K128" s="7"/>
     </row>
-    <row r="129" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A129" s="6"/>
       <c r="B129" s="1">
         <v>466</v>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="K129" s="7"/>
     </row>
-    <row r="130" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A130" s="6"/>
       <c r="B130" s="1" t="s">
         <v>271</v>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="K130" s="7"/>
     </row>
-    <row r="131" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A131" s="6"/>
       <c r="B131" s="1">
         <v>468</v>
@@ -6682,7 +6682,7 @@
       </c>
       <c r="K131" s="7"/>
     </row>
-    <row r="132" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A132" s="6"/>
       <c r="B132" s="1">
         <v>469</v>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="K132" s="7"/>
     </row>
-    <row r="133" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A133" s="6"/>
       <c r="B133" s="1">
         <v>470</v>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="K133" s="7"/>
     </row>
-    <row r="134" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A134" s="6"/>
       <c r="B134" s="1">
         <v>471</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="K134" s="7"/>
     </row>
-    <row r="135" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A135" s="6"/>
       <c r="B135" s="1">
         <v>472</v>
@@ -6767,7 +6767,7 @@
       </c>
       <c r="K135" s="7"/>
     </row>
-    <row r="136" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A136" s="6"/>
       <c r="B136" s="1">
         <v>473</v>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="K136" s="7"/>
     </row>
-    <row r="137" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A137" s="6"/>
       <c r="B137" s="1">
         <v>474</v>
@@ -6808,7 +6808,7 @@
       </c>
       <c r="K137" s="7"/>
     </row>
-    <row r="138" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A138" s="6"/>
       <c r="B138" s="1">
         <v>475</v>
@@ -6830,7 +6830,7 @@
       </c>
       <c r="K138" s="7"/>
     </row>
-    <row r="139" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="6"/>
       <c r="B139" s="1">
         <v>476</v>
@@ -6852,7 +6852,7 @@
       </c>
       <c r="K139" s="7"/>
     </row>
-    <row r="140" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A140" s="6"/>
       <c r="B140" s="1">
         <v>477</v>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="K140" s="7"/>
     </row>
-    <row r="141" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A141" s="6"/>
       <c r="B141" s="1">
         <v>478</v>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="K141" s="7"/>
     </row>
-    <row r="142" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A142" s="6"/>
       <c r="B142" s="1">
         <v>479</v>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="K142" s="7"/>
     </row>
-    <row r="143" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="6"/>
       <c r="B143" s="1">
         <v>480</v>
@@ -6934,7 +6934,7 @@
       </c>
       <c r="K143" s="7"/>
     </row>
-    <row r="144" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="6"/>
       <c r="B144" s="1">
         <v>481</v>
@@ -6956,7 +6956,7 @@
       </c>
       <c r="K144" s="7"/>
     </row>
-    <row r="145" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="6"/>
       <c r="B145" s="1">
         <v>482</v>
@@ -6975,7 +6975,7 @@
       </c>
       <c r="K145" s="7"/>
     </row>
-    <row r="146" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A146" s="6"/>
       <c r="B146" s="1">
         <v>483</v>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="K146" s="7"/>
     </row>
-    <row r="147" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="6"/>
       <c r="B147" s="1">
         <v>484</v>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="K147" s="7"/>
     </row>
-    <row r="148" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" s="6"/>
       <c r="B148" s="1">
         <v>485</v>
@@ -7038,7 +7038,7 @@
       </c>
       <c r="K148" s="7"/>
     </row>
-    <row r="149" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="6"/>
       <c r="B149" s="1">
         <v>486</v>
@@ -7060,7 +7060,7 @@
       </c>
       <c r="K149" s="7"/>
     </row>
-    <row r="150" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A150" s="6"/>
       <c r="B150" s="1" t="s">
         <v>299</v>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="K150" s="7"/>
     </row>
-    <row r="151" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A151" s="6"/>
       <c r="B151" s="1" t="s">
         <v>302</v>
@@ -7095,7 +7095,7 @@
       </c>
       <c r="K151" s="7"/>
     </row>
-    <row r="152" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>1042</v>
       </c>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="K152" s="7"/>
     </row>
-    <row r="153" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>1043</v>
       </c>
@@ -7137,7 +7137,7 @@
       </c>
       <c r="K153" s="7"/>
     </row>
-    <row r="154" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>1044</v>
       </c>
@@ -7158,7 +7158,7 @@
       </c>
       <c r="K154" s="7"/>
     </row>
-    <row r="155" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>1045</v>
       </c>
@@ -7179,7 +7179,7 @@
       </c>
       <c r="K155" s="7"/>
     </row>
-    <row r="156" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>1046</v>
       </c>
@@ -7200,7 +7200,7 @@
       </c>
       <c r="K156" s="7"/>
     </row>
-    <row r="157" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>1047</v>
       </c>
@@ -7221,7 +7221,7 @@
       </c>
       <c r="K157" s="7"/>
     </row>
-    <row r="158" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>1048</v>
       </c>
@@ -7242,7 +7242,7 @@
       </c>
       <c r="K158" s="7"/>
     </row>
-    <row r="159" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>1049</v>
       </c>
@@ -7263,7 +7263,7 @@
       </c>
       <c r="K159" s="7"/>
     </row>
-    <row r="160" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="6"/>
       <c r="B160" s="1" t="s">
         <v>314</v>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="K160" s="7"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="6"/>
       <c r="B161" s="1" t="s">
         <v>316</v>
@@ -7298,7 +7298,7 @@
       </c>
       <c r="K161" s="7"/>
     </row>
-    <row r="162" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A162" s="6"/>
       <c r="B162" s="1" t="s">
         <v>318</v>
@@ -7314,7 +7314,7 @@
       </c>
       <c r="K162" s="7"/>
     </row>
-    <row r="163" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A163" s="6"/>
       <c r="B163" s="1" t="s">
         <v>320</v>
@@ -7330,7 +7330,7 @@
       </c>
       <c r="K163" s="7"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="6"/>
       <c r="B164" s="1" t="s">
         <v>323</v>
@@ -7349,7 +7349,7 @@
       </c>
       <c r="K164" s="7"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="6"/>
       <c r="B165" s="1" t="s">
         <v>326</v>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="K165" s="7"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="6"/>
       <c r="B166" s="1" t="s">
         <v>328</v>
@@ -7387,7 +7387,7 @@
       </c>
       <c r="K166" s="7"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="6"/>
       <c r="B167" s="1" t="s">
         <v>330</v>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="K167" s="7"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="6"/>
       <c r="B168" s="1" t="s">
         <v>332</v>
@@ -7425,7 +7425,7 @@
       </c>
       <c r="K168" s="7"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="6"/>
       <c r="B169" s="1" t="s">
         <v>334</v>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="K169" s="7"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="6"/>
       <c r="B170" s="1" t="s">
         <v>336</v>
@@ -7463,7 +7463,7 @@
       </c>
       <c r="K170" s="7"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="6"/>
       <c r="B171" s="1" t="s">
         <v>338</v>
@@ -7482,7 +7482,7 @@
       </c>
       <c r="K171" s="7"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="6"/>
       <c r="B172" s="1" t="s">
         <v>340</v>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="K172" s="7"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="6"/>
       <c r="B173" s="1" t="s">
         <v>342</v>
@@ -7520,7 +7520,7 @@
       </c>
       <c r="K173" s="7"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="6"/>
       <c r="B174" s="1" t="s">
         <v>344</v>
@@ -7539,7 +7539,7 @@
       </c>
       <c r="K174" s="7"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="6"/>
       <c r="B175" s="1" t="s">
         <v>346</v>
@@ -7558,7 +7558,7 @@
       </c>
       <c r="K175" s="7"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="6"/>
       <c r="B176" s="1" t="s">
         <v>348</v>
@@ -7577,7 +7577,7 @@
       </c>
       <c r="K176" s="7"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="6"/>
       <c r="B177" s="1" t="s">
         <v>350</v>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="K177" s="7"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="6"/>
       <c r="B178" s="1" t="s">
         <v>352</v>
@@ -7615,7 +7615,7 @@
       </c>
       <c r="K178" s="7"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="6"/>
       <c r="B179" s="1" t="s">
         <v>354</v>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="K179" s="7"/>
     </row>
-    <row r="180" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A180" s="6"/>
       <c r="B180" s="1" t="s">
         <v>356</v>
@@ -7650,7 +7650,7 @@
       </c>
       <c r="K180" s="7"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="6"/>
       <c r="B181" s="1" t="s">
         <v>358</v>
@@ -7672,7 +7672,7 @@
       </c>
       <c r="K181" s="7"/>
     </row>
-    <row r="182" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="6"/>
       <c r="B182" s="1" t="s">
         <v>360</v>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="K182" s="7"/>
     </row>
-    <row r="183" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="6"/>
       <c r="B183" s="1" t="s">
         <v>362</v>
@@ -7716,7 +7716,7 @@
       </c>
       <c r="K183" s="7"/>
     </row>
-    <row r="184" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="6"/>
       <c r="B184" s="1" t="s">
         <v>364</v>
@@ -7738,7 +7738,7 @@
       </c>
       <c r="K184" s="7"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="6"/>
       <c r="B185" s="1" t="s">
         <v>366</v>
@@ -7760,7 +7760,7 @@
       </c>
       <c r="K185" s="7"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="6"/>
       <c r="B186" s="1" t="s">
         <v>368</v>
@@ -7782,7 +7782,7 @@
       </c>
       <c r="K186" s="7"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="6"/>
       <c r="B187" s="1" t="s">
         <v>370</v>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="K187" s="7"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="6"/>
       <c r="B188" s="1" t="s">
         <v>372</v>
@@ -7826,7 +7826,7 @@
       </c>
       <c r="K188" s="7"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="6"/>
       <c r="B189" s="1" t="s">
         <v>374</v>
@@ -7848,7 +7848,7 @@
       </c>
       <c r="K189" s="7"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="6"/>
       <c r="B190" s="1" t="s">
         <v>376</v>
@@ -7870,7 +7870,7 @@
       </c>
       <c r="K190" s="7"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="6"/>
       <c r="B191" s="1" t="s">
         <v>378</v>
@@ -7892,7 +7892,7 @@
       </c>
       <c r="K191" s="7"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="6"/>
       <c r="B192" s="1" t="s">
         <v>380</v>
@@ -7914,7 +7914,7 @@
       </c>
       <c r="K192" s="7"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="6"/>
       <c r="B193" s="1" t="s">
         <v>382</v>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="K193" s="7"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="6"/>
       <c r="B194" s="1" t="s">
         <v>384</v>
@@ -7958,7 +7958,7 @@
       </c>
       <c r="K194" s="7"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="6"/>
       <c r="B195" s="1" t="s">
         <v>386</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="K195" s="7"/>
     </row>
-    <row r="196" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
       <c r="B196" s="1" t="s">
         <v>388</v>
@@ -8002,7 +8002,7 @@
       </c>
       <c r="K196" s="7"/>
     </row>
-    <row r="197" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A197" s="6"/>
       <c r="B197" s="1" t="s">
         <v>391</v>
@@ -8018,7 +8018,7 @@
       </c>
       <c r="K197" s="7"/>
     </row>
-    <row r="198" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="6"/>
       <c r="B198" s="1" t="s">
         <v>393</v>
@@ -8040,7 +8040,7 @@
       </c>
       <c r="K198" s="7"/>
     </row>
-    <row r="199" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="6"/>
       <c r="B199" s="1" t="s">
         <v>394</v>
@@ -8062,7 +8062,7 @@
       </c>
       <c r="K199" s="7"/>
     </row>
-    <row r="200" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
       <c r="B200" s="1" t="s">
         <v>395</v>
@@ -8084,7 +8084,7 @@
       </c>
       <c r="K200" s="7"/>
     </row>
-    <row r="201" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="6"/>
       <c r="B201" s="1" t="s">
         <v>396</v>
@@ -8106,7 +8106,7 @@
       </c>
       <c r="K201" s="7"/>
     </row>
-    <row r="202" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="6"/>
       <c r="B202" s="1" t="s">
         <v>397</v>
@@ -8128,7 +8128,7 @@
       </c>
       <c r="K202" s="7"/>
     </row>
-    <row r="203" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="6"/>
       <c r="B203" s="1" t="s">
         <v>398</v>
@@ -8150,7 +8150,7 @@
       </c>
       <c r="K203" s="7"/>
     </row>
-    <row r="204" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="6"/>
       <c r="B204" s="1" t="s">
         <v>399</v>
@@ -8172,7 +8172,7 @@
       </c>
       <c r="K204" s="7"/>
     </row>
-    <row r="205" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="6"/>
       <c r="B205" s="1" t="s">
         <v>400</v>
@@ -8194,7 +8194,7 @@
       </c>
       <c r="K205" s="7"/>
     </row>
-    <row r="206" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="6"/>
       <c r="B206" s="1" t="s">
         <v>401</v>
@@ -8216,7 +8216,7 @@
       </c>
       <c r="K206" s="7"/>
     </row>
-    <row r="207" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="6"/>
       <c r="B207" s="1" t="s">
         <v>402</v>
@@ -8238,7 +8238,7 @@
       </c>
       <c r="K207" s="7"/>
     </row>
-    <row r="208" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="6"/>
       <c r="B208" s="1" t="s">
         <v>403</v>
@@ -8260,7 +8260,7 @@
       </c>
       <c r="K208" s="7"/>
     </row>
-    <row r="209" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="6"/>
       <c r="B209" s="1" t="s">
         <v>404</v>
@@ -8282,7 +8282,7 @@
       </c>
       <c r="K209" s="7"/>
     </row>
-    <row r="210" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="6"/>
       <c r="B210" s="1" t="s">
         <v>405</v>
@@ -8304,7 +8304,7 @@
       </c>
       <c r="K210" s="7"/>
     </row>
-    <row r="211" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" s="6"/>
       <c r="B211" s="1" t="s">
         <v>406</v>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="K211" s="7"/>
     </row>
-    <row r="212" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="6"/>
       <c r="B212" s="1" t="s">
         <v>407</v>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="K212" s="7"/>
     </row>
-    <row r="213" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="6"/>
       <c r="B213" s="1" t="s">
         <v>408</v>
@@ -8370,7 +8370,7 @@
       </c>
       <c r="K213" s="7"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="6"/>
       <c r="B214" s="1" t="s">
         <v>410</v>
@@ -8386,7 +8386,7 @@
       </c>
       <c r="K214" s="7"/>
     </row>
-    <row r="215" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A215" s="6">
         <v>5</v>
       </c>
@@ -8404,7 +8404,7 @@
       </c>
       <c r="K215" s="7"/>
     </row>
-    <row r="216" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A216" s="6">
         <v>5.3</v>
       </c>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="K216" s="7"/>
     </row>
-    <row r="217" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A217" s="6">
         <v>5.5</v>
       </c>
@@ -8446,7 +8446,7 @@
       </c>
       <c r="K217" s="7"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="6"/>
       <c r="B218" s="1" t="s">
         <v>417</v>
@@ -8465,7 +8465,7 @@
       </c>
       <c r="K218" s="7"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="6"/>
       <c r="B219" s="1" t="s">
         <v>419</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="K219" s="7"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="6"/>
       <c r="B220" s="1" t="s">
         <v>421</v>
@@ -8503,7 +8503,7 @@
       </c>
       <c r="K220" s="7"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="6"/>
       <c r="B221" s="1" t="s">
         <v>423</v>
@@ -8522,7 +8522,7 @@
       </c>
       <c r="K221" s="7"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="6"/>
       <c r="B222" s="1" t="s">
         <v>425</v>
@@ -8541,7 +8541,7 @@
       </c>
       <c r="K222" s="7"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="6"/>
       <c r="B223" s="1" t="s">
         <v>427</v>
@@ -8560,7 +8560,7 @@
       </c>
       <c r="K223" s="7"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="6"/>
       <c r="B224" s="1" t="s">
         <v>429</v>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="K224" s="7"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="6"/>
       <c r="B225" s="1" t="s">
         <v>431</v>
@@ -8598,7 +8598,7 @@
       </c>
       <c r="K225" s="7"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="6"/>
       <c r="B226" s="1" t="s">
         <v>433</v>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="K226" s="7"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="6"/>
       <c r="B227" s="1" t="s">
         <v>435</v>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="K227" s="7"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="6"/>
       <c r="B228" s="1" t="s">
         <v>437</v>
@@ -8655,7 +8655,7 @@
       </c>
       <c r="K228" s="7"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="6"/>
       <c r="B229" s="1" t="s">
         <v>439</v>
@@ -8674,7 +8674,7 @@
       </c>
       <c r="K229" s="7"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="6"/>
       <c r="B230" s="1" t="s">
         <v>441</v>
@@ -8693,7 +8693,7 @@
       </c>
       <c r="K230" s="7"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="6"/>
       <c r="B231" s="1" t="s">
         <v>443</v>
@@ -8712,7 +8712,7 @@
       </c>
       <c r="K231" s="7"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="6"/>
       <c r="B232" s="1" t="s">
         <v>445</v>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="K232" s="7"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="6"/>
       <c r="B233" s="1" t="s">
         <v>447</v>
@@ -8750,7 +8750,7 @@
       </c>
       <c r="K233" s="7"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="6"/>
       <c r="B234" s="1" t="s">
         <v>449</v>
@@ -8769,7 +8769,7 @@
       </c>
       <c r="K234" s="7"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="6"/>
       <c r="B235" s="1" t="s">
         <v>451</v>
@@ -8788,7 +8788,7 @@
       </c>
       <c r="K235" s="7"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="6"/>
       <c r="B236" s="1" t="s">
         <v>453</v>
@@ -8807,7 +8807,7 @@
       </c>
       <c r="K236" s="7"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="6"/>
       <c r="B237" s="1" t="s">
         <v>455</v>
@@ -8826,7 +8826,7 @@
       </c>
       <c r="K237" s="7"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="6"/>
       <c r="B238" s="1" t="s">
         <v>457</v>
@@ -8845,7 +8845,7 @@
       </c>
       <c r="K238" s="7"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="6"/>
       <c r="B239" s="1" t="s">
         <v>459</v>
@@ -8864,7 +8864,7 @@
       </c>
       <c r="K239" s="7"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="6"/>
       <c r="B240" s="1" t="s">
         <v>460</v>
@@ -8883,7 +8883,7 @@
       </c>
       <c r="K240" s="7"/>
     </row>
-    <row r="241" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A241" s="6"/>
       <c r="B241" s="1">
         <v>506</v>
@@ -8902,7 +8902,7 @@
       </c>
       <c r="K241" s="7"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="6"/>
       <c r="B242" s="1" t="s">
         <v>464</v>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="K242" s="7"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="6"/>
       <c r="B243" s="1" t="s">
         <v>466</v>
@@ -8940,7 +8940,7 @@
       </c>
       <c r="K243" s="7"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="6"/>
       <c r="B244" s="1" t="s">
         <v>468</v>
@@ -8959,7 +8959,7 @@
       </c>
       <c r="K244" s="7"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="6"/>
       <c r="B245" s="1" t="s">
         <v>470</v>
@@ -8978,7 +8978,7 @@
       </c>
       <c r="K245" s="7"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="6"/>
       <c r="B246" s="1" t="s">
         <v>472</v>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="K246" s="7"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="6"/>
       <c r="B247" s="1" t="s">
         <v>474</v>
@@ -9016,7 +9016,7 @@
       </c>
       <c r="K247" s="7"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="6"/>
       <c r="B248" s="1" t="s">
         <v>476</v>
@@ -9035,7 +9035,7 @@
       </c>
       <c r="K248" s="7"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="6"/>
       <c r="B249" s="1" t="s">
         <v>478</v>
@@ -9054,7 +9054,7 @@
       </c>
       <c r="K249" s="7"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="6"/>
       <c r="B250" s="1" t="s">
         <v>480</v>
@@ -9073,7 +9073,7 @@
       </c>
       <c r="K250" s="7"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="6"/>
       <c r="B251" s="1" t="s">
         <v>481</v>
@@ -9092,7 +9092,7 @@
       </c>
       <c r="K251" s="7"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="6"/>
       <c r="B252" s="1" t="s">
         <v>482</v>
@@ -9111,7 +9111,7 @@
       </c>
       <c r="K252" s="7"/>
     </row>
-    <row r="253" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A253" s="6"/>
       <c r="B253" s="1">
         <v>507</v>
@@ -9130,7 +9130,7 @@
       </c>
       <c r="K253" s="7"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="6"/>
       <c r="B254" s="1" t="s">
         <v>485</v>
@@ -9149,7 +9149,7 @@
       </c>
       <c r="K254" s="7"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="6"/>
       <c r="B255" s="1" t="s">
         <v>487</v>
@@ -9168,7 +9168,7 @@
       </c>
       <c r="K255" s="7"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="6"/>
       <c r="B256" s="1" t="s">
         <v>489</v>
@@ -9187,7 +9187,7 @@
       </c>
       <c r="K256" s="7"/>
     </row>
-    <row r="257" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="6"/>
       <c r="B257" s="1" t="s">
         <v>491</v>
@@ -9206,7 +9206,7 @@
       </c>
       <c r="K257" s="7"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="6"/>
       <c r="B258" s="1" t="s">
         <v>493</v>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="K258" s="7"/>
     </row>
-    <row r="259" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" s="6"/>
       <c r="B259" s="1" t="s">
         <v>495</v>
@@ -9244,8 +9244,10 @@
       </c>
       <c r="K259" s="7"/>
     </row>
-    <row r="260" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A260" s="6"/>
+    <row r="260" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A260" s="6">
+        <v>5.4</v>
+      </c>
       <c r="B260" s="1">
         <v>508</v>
       </c>
@@ -9263,7 +9265,7 @@
       </c>
       <c r="K260" s="7"/>
     </row>
-    <row r="261" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A261" s="6">
         <v>5.5</v>
       </c>
@@ -9287,7 +9289,7 @@
       </c>
       <c r="K261" s="7"/>
     </row>
-    <row r="262" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
         <v>1050</v>
       </c>
@@ -9308,7 +9310,7 @@
       </c>
       <c r="K262" s="7"/>
     </row>
-    <row r="263" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A263" s="6">
         <v>5.6</v>
       </c>
@@ -9332,7 +9334,7 @@
       </c>
       <c r="K263" s="7"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="6"/>
       <c r="B264" s="1" t="s">
         <v>505</v>
@@ -9348,7 +9350,7 @@
       </c>
       <c r="K264" s="7"/>
     </row>
-    <row r="265" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A265" s="6">
         <v>6</v>
       </c>
@@ -9366,7 +9368,7 @@
       </c>
       <c r="K265" s="7"/>
     </row>
-    <row r="266" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A266" s="6">
         <v>6.1</v>
       </c>
@@ -9387,7 +9389,7 @@
       </c>
       <c r="K266" s="7"/>
     </row>
-    <row r="267" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A267" s="6">
         <v>6.2</v>
       </c>
@@ -9408,7 +9410,7 @@
       </c>
       <c r="K267" s="7"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>1051</v>
       </c>
@@ -9429,7 +9431,7 @@
       </c>
       <c r="K268" s="7"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>1052</v>
       </c>
@@ -9450,7 +9452,7 @@
       </c>
       <c r="K269" s="7"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>1053</v>
       </c>
@@ -9471,7 +9473,7 @@
       </c>
       <c r="K270" s="7"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
         <v>1054</v>
       </c>
@@ -9492,7 +9494,7 @@
       </c>
       <c r="K271" s="7"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>1055</v>
       </c>
@@ -9513,7 +9515,7 @@
       </c>
       <c r="K272" s="7"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
         <v>1056</v>
       </c>
@@ -9534,7 +9536,7 @@
       </c>
       <c r="K273" s="7"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
         <v>1057</v>
       </c>
@@ -9555,7 +9557,7 @@
       </c>
       <c r="K274" s="7"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
         <v>1058</v>
       </c>
@@ -9576,7 +9578,7 @@
       </c>
       <c r="K275" s="7"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
         <v>1059</v>
       </c>
@@ -9597,7 +9599,7 @@
       </c>
       <c r="K276" s="7"/>
     </row>
-    <row r="277" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A277" s="6">
         <v>6.3</v>
       </c>
@@ -9621,7 +9623,7 @@
       </c>
       <c r="K277" s="7"/>
     </row>
-    <row r="278" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A278" s="6"/>
       <c r="B278" s="1">
         <v>514</v>
@@ -9643,7 +9645,7 @@
       </c>
       <c r="K278" s="7"/>
     </row>
-    <row r="279" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A279" s="6"/>
       <c r="B279" s="1">
         <v>515</v>
@@ -9665,7 +9667,7 @@
       </c>
       <c r="K279" s="7"/>
     </row>
-    <row r="280" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A280" s="6"/>
       <c r="B280" s="1">
         <v>516</v>
@@ -9687,7 +9689,7 @@
       </c>
       <c r="K280" s="7"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="6"/>
       <c r="B281" s="1" t="s">
         <v>525</v>
@@ -9703,7 +9705,7 @@
       </c>
       <c r="K281" s="7"/>
     </row>
-    <row r="282" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A282" s="6"/>
       <c r="B282" s="1" t="s">
         <v>527</v>
@@ -9719,7 +9721,7 @@
       </c>
       <c r="K282" s="7"/>
     </row>
-    <row r="283" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" s="6"/>
       <c r="B283" s="1">
         <v>517</v>
@@ -9738,7 +9740,7 @@
       </c>
       <c r="K283" s="7"/>
     </row>
-    <row r="284" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A284" s="6"/>
       <c r="B284" s="1" t="s">
         <v>530</v>
@@ -9757,7 +9759,7 @@
       </c>
       <c r="K284" s="7"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="6"/>
       <c r="B285" s="1" t="s">
         <v>533</v>
@@ -9776,7 +9778,7 @@
       </c>
       <c r="K285" s="7"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="6"/>
       <c r="B286" s="1" t="s">
         <v>534</v>
@@ -9795,7 +9797,7 @@
       </c>
       <c r="K286" s="7"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="6"/>
       <c r="B287" s="1" t="s">
         <v>536</v>
@@ -9814,7 +9816,7 @@
       </c>
       <c r="K287" s="7"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="6"/>
       <c r="B288" s="1" t="s">
         <v>538</v>
@@ -9833,7 +9835,7 @@
       </c>
       <c r="K288" s="7"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="6"/>
       <c r="B289" s="1" t="s">
         <v>540</v>
@@ -9852,7 +9854,7 @@
       </c>
       <c r="K289" s="7"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="6"/>
       <c r="B290" s="1" t="s">
         <v>542</v>
@@ -9871,7 +9873,7 @@
       </c>
       <c r="K290" s="7"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="6"/>
       <c r="B291" s="1" t="s">
         <v>544</v>
@@ -9890,7 +9892,7 @@
       </c>
       <c r="K291" s="7"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="6"/>
       <c r="B292" s="1" t="s">
         <v>546</v>
@@ -9909,7 +9911,7 @@
       </c>
       <c r="K292" s="7"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="6"/>
       <c r="B293" s="1" t="s">
         <v>547</v>
@@ -9928,7 +9930,7 @@
       </c>
       <c r="K293" s="7"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="6"/>
       <c r="B294" s="1" t="s">
         <v>548</v>
@@ -9947,7 +9949,7 @@
       </c>
       <c r="K294" s="7"/>
     </row>
-    <row r="295" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A295" s="6"/>
       <c r="B295" s="1">
         <v>519</v>
@@ -9969,7 +9971,7 @@
       </c>
       <c r="K295" s="7"/>
     </row>
-    <row r="296" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A296" s="6"/>
       <c r="B296" s="1">
         <v>520</v>
@@ -9991,7 +9993,7 @@
       </c>
       <c r="K296" s="7"/>
     </row>
-    <row r="297" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="6"/>
       <c r="B297" s="1" t="s">
         <v>554</v>
@@ -10010,7 +10012,7 @@
       </c>
       <c r="K297" s="7"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="6"/>
       <c r="B298" s="1" t="s">
         <v>556</v>
@@ -10026,7 +10028,7 @@
       </c>
       <c r="K298" s="7"/>
     </row>
-    <row r="299" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A299" s="6"/>
       <c r="B299" s="1" t="s">
         <v>558</v>
@@ -10042,7 +10044,7 @@
       </c>
       <c r="K299" s="7"/>
     </row>
-    <row r="300" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" s="6"/>
       <c r="B300" s="1">
         <v>601</v>
@@ -10061,7 +10063,7 @@
       </c>
       <c r="K300" s="7"/>
     </row>
-    <row r="301" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A301" s="6"/>
       <c r="B301" s="1">
         <v>602</v>
@@ -10080,7 +10082,7 @@
       </c>
       <c r="K301" s="7"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="6"/>
       <c r="B302" s="1" t="s">
         <v>58</v>
@@ -10099,7 +10101,7 @@
       </c>
       <c r="K302" s="7"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="6"/>
       <c r="B303" s="1" t="s">
         <v>59</v>
@@ -10118,7 +10120,7 @@
       </c>
       <c r="K303" s="7"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="6"/>
       <c r="B304" s="1" t="s">
         <v>60</v>
@@ -10137,7 +10139,7 @@
       </c>
       <c r="K304" s="7"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="6"/>
       <c r="B305" s="1" t="s">
         <v>61</v>
@@ -10156,7 +10158,7 @@
       </c>
       <c r="K305" s="7"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="6"/>
       <c r="B306" s="1" t="s">
         <v>62</v>
@@ -10175,7 +10177,7 @@
       </c>
       <c r="K306" s="7"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="6"/>
       <c r="B307" s="1" t="s">
         <v>63</v>
@@ -10194,7 +10196,7 @@
       </c>
       <c r="K307" s="7"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="6"/>
       <c r="B308" s="1" t="s">
         <v>64</v>
@@ -10213,7 +10215,7 @@
       </c>
       <c r="K308" s="7"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="6"/>
       <c r="B309" s="1" t="s">
         <v>65</v>
@@ -10232,7 +10234,7 @@
       </c>
       <c r="K309" s="7"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="6"/>
       <c r="B310" s="1" t="s">
         <v>66</v>
@@ -10251,7 +10253,7 @@
       </c>
       <c r="K310" s="7"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="6"/>
       <c r="B311" s="1" t="s">
         <v>67</v>
@@ -10270,7 +10272,7 @@
       </c>
       <c r="K311" s="7"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="6"/>
       <c r="B312" s="1" t="s">
         <v>68</v>
@@ -10289,7 +10291,7 @@
       </c>
       <c r="K312" s="7"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="6"/>
       <c r="B313" s="1" t="s">
         <v>69</v>
@@ -10308,7 +10310,7 @@
       </c>
       <c r="K313" s="7"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="6"/>
       <c r="B314" s="1" t="s">
         <v>70</v>
@@ -10327,7 +10329,7 @@
       </c>
       <c r="K314" s="7"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="6"/>
       <c r="B315" s="1" t="s">
         <v>71</v>
@@ -10346,7 +10348,7 @@
       </c>
       <c r="K315" s="7"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="6"/>
       <c r="B316" s="1" t="s">
         <v>72</v>
@@ -10365,7 +10367,7 @@
       </c>
       <c r="K316" s="7"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="6"/>
       <c r="B317" s="1" t="s">
         <v>73</v>
@@ -10384,7 +10386,7 @@
       </c>
       <c r="K317" s="7"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="6"/>
       <c r="B318" s="1" t="s">
         <v>74</v>
@@ -10403,7 +10405,7 @@
       </c>
       <c r="K318" s="7"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="6"/>
       <c r="B319" s="1" t="s">
         <v>75</v>
@@ -10422,7 +10424,7 @@
       </c>
       <c r="K319" s="7"/>
     </row>
-    <row r="320" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A320" s="6"/>
       <c r="B320" s="1">
         <v>603</v>
@@ -10444,7 +10446,7 @@
       </c>
       <c r="K320" s="7"/>
     </row>
-    <row r="321" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A321" s="6"/>
       <c r="B321" s="1">
         <v>604</v>
@@ -10463,7 +10465,7 @@
       </c>
       <c r="K321" s="7"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="6"/>
       <c r="B322" s="1" t="s">
         <v>578</v>
@@ -10482,7 +10484,7 @@
       </c>
       <c r="K322" s="7"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="6"/>
       <c r="B323" s="1" t="s">
         <v>580</v>
@@ -10501,7 +10503,7 @@
       </c>
       <c r="K323" s="7"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="6"/>
       <c r="B324" s="1" t="s">
         <v>582</v>
@@ -10520,7 +10522,7 @@
       </c>
       <c r="K324" s="7"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="6"/>
       <c r="B325" s="1" t="s">
         <v>584</v>
@@ -10539,7 +10541,7 @@
       </c>
       <c r="K325" s="7"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="6"/>
       <c r="B326" s="1" t="s">
         <v>586</v>
@@ -10558,7 +10560,7 @@
       </c>
       <c r="K326" s="7"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="6"/>
       <c r="B327" s="1" t="s">
         <v>588</v>
@@ -10577,7 +10579,7 @@
       </c>
       <c r="K327" s="7"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="6"/>
       <c r="B328" s="1" t="s">
         <v>589</v>
@@ -10596,7 +10598,7 @@
       </c>
       <c r="K328" s="7"/>
     </row>
-    <row r="329" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A329" s="6"/>
       <c r="B329" s="1">
         <v>605</v>
@@ -10618,7 +10620,7 @@
       </c>
       <c r="K329" s="7"/>
     </row>
-    <row r="330" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A330" s="6"/>
       <c r="B330" s="1" t="s">
         <v>76</v>
@@ -10637,7 +10639,7 @@
       </c>
       <c r="K330" s="7"/>
     </row>
-    <row r="331" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A331" s="6"/>
       <c r="B331" s="1">
         <v>606</v>
@@ -10659,7 +10661,7 @@
       </c>
       <c r="K331" s="7"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="6"/>
       <c r="B332" s="1" t="s">
         <v>597</v>
@@ -10675,7 +10677,7 @@
       </c>
       <c r="K332" s="7"/>
     </row>
-    <row r="333" spans="1:11" ht="203" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A333" s="6"/>
       <c r="B333" s="1" t="s">
         <v>599</v>
@@ -10691,7 +10693,7 @@
       </c>
       <c r="K333" s="7"/>
     </row>
-    <row r="334" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A334" s="6"/>
       <c r="B334" s="1" t="s">
         <v>601</v>
@@ -10707,7 +10709,7 @@
       </c>
       <c r="K334" s="7"/>
     </row>
-    <row r="335" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A335" s="6"/>
       <c r="B335" s="1" t="s">
         <v>603</v>
@@ -10726,7 +10728,7 @@
       </c>
       <c r="K335" s="7"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="6"/>
       <c r="B336" s="1" t="s">
         <v>605</v>
@@ -10745,7 +10747,7 @@
       </c>
       <c r="K336" s="7"/>
     </row>
-    <row r="337" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A337" s="6"/>
       <c r="B337" s="1" t="s">
         <v>607</v>
@@ -10764,7 +10766,7 @@
       </c>
       <c r="K337" s="7"/>
     </row>
-    <row r="338" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A338" s="6"/>
       <c r="B338" s="1" t="s">
         <v>609</v>
@@ -10783,7 +10785,7 @@
       </c>
       <c r="K338" s="7"/>
     </row>
-    <row r="339" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A339" s="6"/>
       <c r="B339" s="1" t="s">
         <v>611</v>
@@ -10802,7 +10804,7 @@
       </c>
       <c r="K339" s="7"/>
     </row>
-    <row r="340" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A340" s="6"/>
       <c r="B340" s="1" t="s">
         <v>613</v>
@@ -10821,7 +10823,7 @@
       </c>
       <c r="K340" s="7"/>
     </row>
-    <row r="341" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="6"/>
       <c r="B341" s="1" t="s">
         <v>615</v>
@@ -10840,7 +10842,7 @@
       </c>
       <c r="K341" s="7"/>
     </row>
-    <row r="342" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" s="6"/>
       <c r="B342" s="1" t="s">
         <v>617</v>
@@ -10859,7 +10861,7 @@
       </c>
       <c r="K342" s="7"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="6"/>
       <c r="B343" s="1" t="s">
         <v>619</v>
@@ -10878,7 +10880,7 @@
       </c>
       <c r="K343" s="7"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="6"/>
       <c r="B344" s="1" t="s">
         <v>621</v>
@@ -10897,7 +10899,7 @@
       </c>
       <c r="K344" s="7"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="6"/>
       <c r="B345" s="1" t="s">
         <v>623</v>
@@ -10916,7 +10918,7 @@
       </c>
       <c r="K345" s="7"/>
     </row>
-    <row r="346" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A346" s="6"/>
       <c r="B346" s="1" t="s">
         <v>625</v>
@@ -10932,7 +10934,7 @@
       </c>
       <c r="K346" s="7"/>
     </row>
-    <row r="347" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A347" s="6"/>
       <c r="B347" s="1" t="s">
         <v>626</v>
@@ -10954,7 +10956,7 @@
       </c>
       <c r="K347" s="7"/>
     </row>
-    <row r="348" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A348" s="6"/>
       <c r="B348" s="1" t="s">
         <v>629</v>
@@ -10976,7 +10978,7 @@
       </c>
       <c r="K348" s="7"/>
     </row>
-    <row r="349" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A349" s="6"/>
       <c r="B349" s="1" t="s">
         <v>631</v>
@@ -10998,7 +11000,7 @@
       </c>
       <c r="K349" s="7"/>
     </row>
-    <row r="350" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A350" s="6"/>
       <c r="B350" s="1" t="s">
         <v>633</v>
@@ -11020,7 +11022,7 @@
       </c>
       <c r="K350" s="7"/>
     </row>
-    <row r="351" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A351" s="6"/>
       <c r="B351" s="1" t="s">
         <v>635</v>
@@ -11042,7 +11044,7 @@
       </c>
       <c r="K351" s="7"/>
     </row>
-    <row r="352" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A352" s="6"/>
       <c r="B352" s="1" t="s">
         <v>637</v>
@@ -11064,7 +11066,7 @@
       </c>
       <c r="K352" s="7"/>
     </row>
-    <row r="353" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A353" s="6"/>
       <c r="B353" s="1" t="s">
         <v>639</v>
@@ -11086,7 +11088,7 @@
       </c>
       <c r="K353" s="7"/>
     </row>
-    <row r="354" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A354" s="6"/>
       <c r="B354" s="1" t="s">
         <v>641</v>
@@ -11108,7 +11110,7 @@
       </c>
       <c r="K354" s="7"/>
     </row>
-    <row r="355" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A355" s="6"/>
       <c r="B355" s="1" t="s">
         <v>643</v>
@@ -11130,7 +11132,7 @@
       </c>
       <c r="K355" s="7"/>
     </row>
-    <row r="356" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A356" s="6"/>
       <c r="B356" s="1" t="s">
         <v>645</v>
@@ -11152,7 +11154,7 @@
       </c>
       <c r="K356" s="7"/>
     </row>
-    <row r="357" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A357" s="6"/>
       <c r="B357" s="1" t="s">
         <v>647</v>
@@ -11174,7 +11176,7 @@
       </c>
       <c r="K357" s="7"/>
     </row>
-    <row r="358" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A358" s="6"/>
       <c r="B358" s="1" t="s">
         <v>650</v>
@@ -11190,7 +11192,7 @@
       </c>
       <c r="K358" s="7"/>
     </row>
-    <row r="359" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A359" s="6"/>
       <c r="B359" s="1" t="s">
         <v>651</v>
@@ -11212,7 +11214,7 @@
       </c>
       <c r="K359" s="7"/>
     </row>
-    <row r="360" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A360" s="6"/>
       <c r="B360" s="1" t="s">
         <v>653</v>
@@ -11234,7 +11236,7 @@
       </c>
       <c r="K360" s="7"/>
     </row>
-    <row r="361" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A361" s="6"/>
       <c r="B361" s="1" t="s">
         <v>654</v>
@@ -11256,7 +11258,7 @@
       </c>
       <c r="K361" s="7"/>
     </row>
-    <row r="362" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A362" s="6"/>
       <c r="B362" s="1" t="s">
         <v>655</v>
@@ -11278,7 +11280,7 @@
       </c>
       <c r="K362" s="7"/>
     </row>
-    <row r="363" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A363" s="6"/>
       <c r="B363" s="1" t="s">
         <v>656</v>
@@ -11300,7 +11302,7 @@
       </c>
       <c r="K363" s="7"/>
     </row>
-    <row r="364" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A364" s="6"/>
       <c r="B364" s="1" t="s">
         <v>657</v>
@@ -11322,7 +11324,7 @@
       </c>
       <c r="K364" s="7"/>
     </row>
-    <row r="365" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A365" s="6"/>
       <c r="B365" s="1" t="s">
         <v>658</v>
@@ -11344,7 +11346,7 @@
       </c>
       <c r="K365" s="7"/>
     </row>
-    <row r="366" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A366" s="6"/>
       <c r="B366" s="1" t="s">
         <v>659</v>
@@ -11366,7 +11368,7 @@
       </c>
       <c r="K366" s="7"/>
     </row>
-    <row r="367" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A367" s="6"/>
       <c r="B367" s="1" t="s">
         <v>660</v>
@@ -11388,7 +11390,7 @@
       </c>
       <c r="K367" s="7"/>
     </row>
-    <row r="368" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A368" s="6"/>
       <c r="B368" s="1" t="s">
         <v>661</v>
@@ -11410,7 +11412,7 @@
       </c>
       <c r="K368" s="7"/>
     </row>
-    <row r="369" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A369" s="6"/>
       <c r="B369" s="1" t="s">
         <v>662</v>
@@ -11432,7 +11434,7 @@
       </c>
       <c r="K369" s="7"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="6"/>
       <c r="B370" s="1" t="s">
         <v>664</v>
@@ -11448,7 +11450,7 @@
       </c>
       <c r="K370" s="7"/>
     </row>
-    <row r="371" spans="1:11" ht="203" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A371" s="6">
         <v>7</v>
       </c>
@@ -11466,7 +11468,7 @@
       </c>
       <c r="K371" s="7"/>
     </row>
-    <row r="372" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A372" s="6">
         <v>7.1</v>
       </c>
@@ -11487,7 +11489,7 @@
       </c>
       <c r="K372" s="7"/>
     </row>
-    <row r="373" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A373" s="6">
         <v>7.2</v>
       </c>
@@ -11511,7 +11513,7 @@
       </c>
       <c r="K373" s="7"/>
     </row>
-    <row r="374" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A374" s="6">
         <v>7.3</v>
       </c>
@@ -11535,7 +11537,7 @@
       </c>
       <c r="K374" s="7"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="6"/>
       <c r="B375" s="1" t="s">
         <v>674</v>
@@ -11551,7 +11553,7 @@
       </c>
       <c r="K375" s="7"/>
     </row>
-    <row r="376" spans="1:11" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A376" s="6"/>
       <c r="B376" s="1" t="s">
         <v>676</v>
@@ -11567,7 +11569,7 @@
       </c>
       <c r="K376" s="7"/>
     </row>
-    <row r="377" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A377" s="6"/>
       <c r="B377" s="1" t="s">
         <v>678</v>
@@ -11583,7 +11585,7 @@
       </c>
       <c r="K377" s="7"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="6"/>
       <c r="B378" s="1" t="s">
         <v>680</v>
@@ -11602,7 +11604,7 @@
       </c>
       <c r="K378" s="7"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="6"/>
       <c r="B379" s="1" t="s">
         <v>682</v>
@@ -11621,7 +11623,7 @@
       </c>
       <c r="K379" s="7"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="6"/>
       <c r="B380" s="1" t="s">
         <v>684</v>
@@ -11640,7 +11642,7 @@
       </c>
       <c r="K380" s="7"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="6"/>
       <c r="B381" s="1" t="s">
         <v>686</v>
@@ -11659,7 +11661,7 @@
       </c>
       <c r="K381" s="7"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="6"/>
       <c r="B382" s="1" t="s">
         <v>688</v>
@@ -11678,7 +11680,7 @@
       </c>
       <c r="K382" s="7"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="6"/>
       <c r="B383" s="1" t="s">
         <v>690</v>
@@ -11697,7 +11699,7 @@
       </c>
       <c r="K383" s="7"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="6"/>
       <c r="B384" s="1" t="s">
         <v>691</v>
@@ -11716,7 +11718,7 @@
       </c>
       <c r="K384" s="7"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="6"/>
       <c r="B385" s="1" t="s">
         <v>692</v>
@@ -11735,7 +11737,7 @@
       </c>
       <c r="K385" s="7"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="6"/>
       <c r="B386" s="1" t="s">
         <v>694</v>
@@ -11754,7 +11756,7 @@
       </c>
       <c r="K386" s="7"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="6"/>
       <c r="B387" s="1" t="s">
         <v>696</v>
@@ -11773,7 +11775,7 @@
       </c>
       <c r="K387" s="7"/>
     </row>
-    <row r="388" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A388" s="6"/>
       <c r="B388" s="1" t="s">
         <v>698</v>
@@ -11789,7 +11791,7 @@
       </c>
       <c r="K388" s="7"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="6"/>
       <c r="B389" s="1" t="s">
         <v>699</v>
@@ -11808,7 +11810,7 @@
       </c>
       <c r="K389" s="7"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="6"/>
       <c r="B390" s="1" t="s">
         <v>700</v>
@@ -11827,7 +11829,7 @@
       </c>
       <c r="K390" s="7"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="6"/>
       <c r="B391" s="1" t="s">
         <v>701</v>
@@ -11846,7 +11848,7 @@
       </c>
       <c r="K391" s="7"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="6"/>
       <c r="B392" s="1" t="s">
         <v>702</v>
@@ -11865,7 +11867,7 @@
       </c>
       <c r="K392" s="7"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="6"/>
       <c r="B393" s="1" t="s">
         <v>703</v>
@@ -11884,7 +11886,7 @@
       </c>
       <c r="K393" s="7"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="6"/>
       <c r="B394" s="1" t="s">
         <v>704</v>
@@ -11903,7 +11905,7 @@
       </c>
       <c r="K394" s="7"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="6"/>
       <c r="B395" s="1" t="s">
         <v>705</v>
@@ -11922,7 +11924,7 @@
       </c>
       <c r="K395" s="7"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="6"/>
       <c r="B396" s="1" t="s">
         <v>706</v>
@@ -11941,7 +11943,7 @@
       </c>
       <c r="K396" s="7"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="6"/>
       <c r="B397" s="1" t="s">
         <v>707</v>
@@ -11960,7 +11962,7 @@
       </c>
       <c r="K397" s="7"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="6"/>
       <c r="B398" s="1" t="s">
         <v>708</v>
@@ -11979,7 +11981,7 @@
       </c>
       <c r="K398" s="7"/>
     </row>
-    <row r="399" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A399" s="6"/>
       <c r="B399" s="1" t="s">
         <v>710</v>
@@ -11995,7 +11997,7 @@
       </c>
       <c r="K399" s="7"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="6"/>
       <c r="B400" s="1" t="s">
         <v>711</v>
@@ -12014,7 +12016,7 @@
       </c>
       <c r="K400" s="7"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="6"/>
       <c r="B401" s="1" t="s">
         <v>712</v>
@@ -12033,7 +12035,7 @@
       </c>
       <c r="K401" s="7"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="6"/>
       <c r="B402" s="1" t="s">
         <v>713</v>
@@ -12052,7 +12054,7 @@
       </c>
       <c r="K402" s="7"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="6"/>
       <c r="B403" s="1" t="s">
         <v>714</v>
@@ -12071,7 +12073,7 @@
       </c>
       <c r="K403" s="7"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="6"/>
       <c r="B404" s="1" t="s">
         <v>715</v>
@@ -12090,7 +12092,7 @@
       </c>
       <c r="K404" s="7"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="6"/>
       <c r="B405" s="1" t="s">
         <v>716</v>
@@ -12109,7 +12111,7 @@
       </c>
       <c r="K405" s="7"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="6"/>
       <c r="B406" s="1" t="s">
         <v>717</v>
@@ -12128,7 +12130,7 @@
       </c>
       <c r="K406" s="7"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="6"/>
       <c r="B407" s="1" t="s">
         <v>718</v>
@@ -12147,7 +12149,7 @@
       </c>
       <c r="K407" s="7"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="6"/>
       <c r="B408" s="1" t="s">
         <v>719</v>
@@ -12166,7 +12168,7 @@
       </c>
       <c r="K408" s="7"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="6"/>
       <c r="B409" s="1" t="s">
         <v>720</v>
@@ -12185,7 +12187,7 @@
       </c>
       <c r="K409" s="7"/>
     </row>
-    <row r="410" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A410" s="6"/>
       <c r="B410" s="1" t="s">
         <v>722</v>
@@ -12201,7 +12203,7 @@
       </c>
       <c r="K410" s="7"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="6"/>
       <c r="B411" s="1" t="s">
         <v>723</v>
@@ -12220,7 +12222,7 @@
       </c>
       <c r="K411" s="7"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="6"/>
       <c r="B412" s="1" t="s">
         <v>724</v>
@@ -12239,7 +12241,7 @@
       </c>
       <c r="K412" s="7"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="6"/>
       <c r="B413" s="1" t="s">
         <v>725</v>
@@ -12258,7 +12260,7 @@
       </c>
       <c r="K413" s="7"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="6"/>
       <c r="B414" s="1" t="s">
         <v>726</v>
@@ -12277,7 +12279,7 @@
       </c>
       <c r="K414" s="7"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="6"/>
       <c r="B415" s="1" t="s">
         <v>727</v>
@@ -12296,7 +12298,7 @@
       </c>
       <c r="K415" s="7"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="6"/>
       <c r="B416" s="1" t="s">
         <v>728</v>
@@ -12315,7 +12317,7 @@
       </c>
       <c r="K416" s="7"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="6"/>
       <c r="B417" s="1" t="s">
         <v>729</v>
@@ -12334,7 +12336,7 @@
       </c>
       <c r="K417" s="7"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="6"/>
       <c r="B418" s="1" t="s">
         <v>730</v>
@@ -12353,7 +12355,7 @@
       </c>
       <c r="K418" s="7"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="6"/>
       <c r="B419" s="1" t="s">
         <v>731</v>
@@ -12372,7 +12374,7 @@
       </c>
       <c r="K419" s="7"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="6"/>
       <c r="B420" s="1" t="s">
         <v>732</v>
@@ -12391,7 +12393,7 @@
       </c>
       <c r="K420" s="7"/>
     </row>
-    <row r="421" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A421" s="6"/>
       <c r="B421" s="1">
         <v>617</v>
@@ -12410,7 +12412,7 @@
       </c>
       <c r="K421" s="7"/>
     </row>
-    <row r="422" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A422" s="6"/>
       <c r="B422" s="1" t="s">
         <v>735</v>
@@ -12429,7 +12431,7 @@
       </c>
       <c r="K422" s="7"/>
     </row>
-    <row r="423" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A423" s="6"/>
       <c r="B423" s="1" t="s">
         <v>738</v>
@@ -12448,7 +12450,7 @@
       </c>
       <c r="K423" s="7"/>
     </row>
-    <row r="424" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A424" s="6"/>
       <c r="B424" s="1" t="s">
         <v>740</v>
@@ -12467,7 +12469,7 @@
       </c>
       <c r="K424" s="7"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="6"/>
       <c r="B425" s="1" t="s">
         <v>742</v>
@@ -12486,7 +12488,7 @@
       </c>
       <c r="K425" s="7"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="6"/>
       <c r="B426" s="1" t="s">
         <v>743</v>
@@ -12505,7 +12507,7 @@
       </c>
       <c r="K426" s="7"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="6"/>
       <c r="B427" s="1" t="s">
         <v>744</v>
@@ -12524,7 +12526,7 @@
       </c>
       <c r="K427" s="7"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="6"/>
       <c r="B428" s="1" t="s">
         <v>745</v>
@@ -12543,7 +12545,7 @@
       </c>
       <c r="K428" s="7"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="6"/>
       <c r="B429" s="1" t="s">
         <v>746</v>
@@ -12562,7 +12564,7 @@
       </c>
       <c r="K429" s="7"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="6"/>
       <c r="B430" s="1" t="s">
         <v>747</v>
@@ -12581,7 +12583,7 @@
       </c>
       <c r="K430" s="7"/>
     </row>
-    <row r="431" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A431" s="6"/>
       <c r="B431" s="1" t="s">
         <v>749</v>
@@ -12600,7 +12602,7 @@
       </c>
       <c r="K431" s="7"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="6"/>
       <c r="B432" s="1" t="s">
         <v>750</v>
@@ -12619,7 +12621,7 @@
       </c>
       <c r="K432" s="7"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="6"/>
       <c r="B433" s="1" t="s">
         <v>751</v>
@@ -12638,7 +12640,7 @@
       </c>
       <c r="K433" s="7"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="6"/>
       <c r="B434" s="1" t="s">
         <v>752</v>
@@ -12657,7 +12659,7 @@
       </c>
       <c r="K434" s="7"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="6"/>
       <c r="B435" s="1" t="s">
         <v>753</v>
@@ -12676,7 +12678,7 @@
       </c>
       <c r="K435" s="7"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="6"/>
       <c r="B436" s="1" t="s">
         <v>754</v>
@@ -12695,7 +12697,7 @@
       </c>
       <c r="K436" s="7"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="6"/>
       <c r="B437" s="1" t="s">
         <v>755</v>
@@ -12714,7 +12716,7 @@
       </c>
       <c r="K437" s="7"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="6"/>
       <c r="B438" s="1" t="s">
         <v>756</v>
@@ -12733,7 +12735,7 @@
       </c>
       <c r="K438" s="7"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="6"/>
       <c r="B439" s="1" t="s">
         <v>757</v>
@@ -12752,7 +12754,7 @@
       </c>
       <c r="K439" s="7"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="6"/>
       <c r="B440" s="1" t="s">
         <v>758</v>
@@ -12771,7 +12773,7 @@
       </c>
       <c r="K440" s="7"/>
     </row>
-    <row r="441" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A441" s="6"/>
       <c r="B441" s="1">
         <v>620</v>
@@ -12790,7 +12792,7 @@
       </c>
       <c r="K441" s="7"/>
     </row>
-    <row r="442" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A442" s="6"/>
       <c r="B442" s="1" t="s">
         <v>761</v>
@@ -12809,7 +12811,7 @@
       </c>
       <c r="K442" s="7"/>
     </row>
-    <row r="443" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A443" s="6"/>
       <c r="B443" s="1" t="s">
         <v>763</v>
@@ -12828,7 +12830,7 @@
       </c>
       <c r="K443" s="7"/>
     </row>
-    <row r="444" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A444" s="6"/>
       <c r="B444" s="1" t="s">
         <v>764</v>
@@ -12847,7 +12849,7 @@
       </c>
       <c r="K444" s="7"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="6"/>
       <c r="B445" s="1" t="s">
         <v>765</v>
@@ -12866,7 +12868,7 @@
       </c>
       <c r="K445" s="7"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="6"/>
       <c r="B446" s="1" t="s">
         <v>766</v>
@@ -12885,7 +12887,7 @@
       </c>
       <c r="K446" s="7"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="6"/>
       <c r="B447" s="1" t="s">
         <v>767</v>
@@ -12904,7 +12906,7 @@
       </c>
       <c r="K447" s="7"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="6"/>
       <c r="B448" s="1" t="s">
         <v>768</v>
@@ -12923,7 +12925,7 @@
       </c>
       <c r="K448" s="7"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="6"/>
       <c r="B449" s="1" t="s">
         <v>769</v>
@@ -12942,7 +12944,7 @@
       </c>
       <c r="K449" s="7"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="6"/>
       <c r="B450" s="1" t="s">
         <v>770</v>
@@ -12961,7 +12963,7 @@
       </c>
       <c r="K450" s="7"/>
     </row>
-    <row r="451" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A451" s="6"/>
       <c r="B451" s="1" t="s">
         <v>772</v>
@@ -12980,7 +12982,7 @@
       </c>
       <c r="K451" s="7"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="6"/>
       <c r="B452" s="1" t="s">
         <v>773</v>
@@ -12999,7 +13001,7 @@
       </c>
       <c r="K452" s="7"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="6"/>
       <c r="B453" s="1" t="s">
         <v>774</v>
@@ -13018,7 +13020,7 @@
       </c>
       <c r="K453" s="7"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="6"/>
       <c r="B454" s="1" t="s">
         <v>775</v>
@@ -13037,7 +13039,7 @@
       </c>
       <c r="K454" s="7"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="6"/>
       <c r="B455" s="1" t="s">
         <v>776</v>
@@ -13056,7 +13058,7 @@
       </c>
       <c r="K455" s="7"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="6"/>
       <c r="B456" s="1" t="s">
         <v>777</v>
@@ -13075,7 +13077,7 @@
       </c>
       <c r="K456" s="7"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="6"/>
       <c r="B457" s="1" t="s">
         <v>778</v>
@@ -13094,7 +13096,7 @@
       </c>
       <c r="K457" s="7"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="6"/>
       <c r="B458" s="1" t="s">
         <v>779</v>
@@ -13113,7 +13115,7 @@
       </c>
       <c r="K458" s="7"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="6"/>
       <c r="B459" s="1" t="s">
         <v>780</v>
@@ -13132,7 +13134,7 @@
       </c>
       <c r="K459" s="7"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="6"/>
       <c r="B460" s="1" t="s">
         <v>781</v>
@@ -13151,7 +13153,7 @@
       </c>
       <c r="K460" s="7"/>
     </row>
-    <row r="461" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A461" s="6"/>
       <c r="B461" s="1">
         <v>623</v>
@@ -13170,7 +13172,7 @@
       </c>
       <c r="K461" s="7"/>
     </row>
-    <row r="462" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A462" s="6"/>
       <c r="B462" s="1" t="s">
         <v>784</v>
@@ -13189,7 +13191,7 @@
       </c>
       <c r="K462" s="7"/>
     </row>
-    <row r="463" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A463" s="6"/>
       <c r="B463" s="1" t="s">
         <v>786</v>
@@ -13208,7 +13210,7 @@
       </c>
       <c r="K463" s="7"/>
     </row>
-    <row r="464" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A464" s="6"/>
       <c r="B464" s="1" t="s">
         <v>787</v>
@@ -13227,7 +13229,7 @@
       </c>
       <c r="K464" s="7"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="6"/>
       <c r="B465" s="1" t="s">
         <v>788</v>
@@ -13246,7 +13248,7 @@
       </c>
       <c r="K465" s="7"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="6"/>
       <c r="B466" s="1" t="s">
         <v>789</v>
@@ -13265,7 +13267,7 @@
       </c>
       <c r="K466" s="7"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="6"/>
       <c r="B467" s="1" t="s">
         <v>790</v>
@@ -13284,7 +13286,7 @@
       </c>
       <c r="K467" s="7"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="6"/>
       <c r="B468" s="1" t="s">
         <v>791</v>
@@ -13303,7 +13305,7 @@
       </c>
       <c r="K468" s="7"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="6"/>
       <c r="B469" s="1" t="s">
         <v>792</v>
@@ -13322,7 +13324,7 @@
       </c>
       <c r="K469" s="7"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="6"/>
       <c r="B470" s="1" t="s">
         <v>793</v>
@@ -13341,7 +13343,7 @@
       </c>
       <c r="K470" s="7"/>
     </row>
-    <row r="471" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A471" s="6"/>
       <c r="B471" s="1" t="s">
         <v>795</v>
@@ -13360,7 +13362,7 @@
       </c>
       <c r="K471" s="7"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="6"/>
       <c r="B472" s="1" t="s">
         <v>796</v>
@@ -13379,7 +13381,7 @@
       </c>
       <c r="K472" s="7"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="6"/>
       <c r="B473" s="1" t="s">
         <v>797</v>
@@ -13398,7 +13400,7 @@
       </c>
       <c r="K473" s="7"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="6"/>
       <c r="B474" s="1" t="s">
         <v>798</v>
@@ -13417,7 +13419,7 @@
       </c>
       <c r="K474" s="7"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="6"/>
       <c r="B475" s="1" t="s">
         <v>799</v>
@@ -13436,7 +13438,7 @@
       </c>
       <c r="K475" s="7"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="6"/>
       <c r="B476" s="1" t="s">
         <v>800</v>
@@ -13455,7 +13457,7 @@
       </c>
       <c r="K476" s="7"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="6"/>
       <c r="B477" s="1" t="s">
         <v>801</v>
@@ -13474,7 +13476,7 @@
       </c>
       <c r="K477" s="7"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="6"/>
       <c r="B478" s="1" t="s">
         <v>802</v>
@@ -13493,7 +13495,7 @@
       </c>
       <c r="K478" s="7"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="6"/>
       <c r="B479" s="1" t="s">
         <v>803</v>
@@ -13512,7 +13514,7 @@
       </c>
       <c r="K479" s="7"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="6"/>
       <c r="B480" s="1" t="s">
         <v>804</v>
@@ -13531,7 +13533,7 @@
       </c>
       <c r="K480" s="7"/>
     </row>
-    <row r="481" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A481" s="6"/>
       <c r="B481" s="1">
         <v>626</v>
@@ -13550,7 +13552,7 @@
       </c>
       <c r="K481" s="7"/>
     </row>
-    <row r="482" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A482" s="6"/>
       <c r="B482" s="1" t="s">
         <v>807</v>
@@ -13569,7 +13571,7 @@
       </c>
       <c r="K482" s="7"/>
     </row>
-    <row r="483" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A483" s="6"/>
       <c r="B483" s="1" t="s">
         <v>809</v>
@@ -13588,7 +13590,7 @@
       </c>
       <c r="K483" s="7"/>
     </row>
-    <row r="484" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A484" s="6"/>
       <c r="B484" s="1" t="s">
         <v>810</v>
@@ -13607,7 +13609,7 @@
       </c>
       <c r="K484" s="7"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="6"/>
       <c r="B485" s="1" t="s">
         <v>811</v>
@@ -13626,7 +13628,7 @@
       </c>
       <c r="K485" s="7"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="6"/>
       <c r="B486" s="1" t="s">
         <v>812</v>
@@ -13645,7 +13647,7 @@
       </c>
       <c r="K486" s="7"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="6"/>
       <c r="B487" s="1" t="s">
         <v>813</v>
@@ -13664,7 +13666,7 @@
       </c>
       <c r="K487" s="7"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="6"/>
       <c r="B488" s="1" t="s">
         <v>814</v>
@@ -13683,7 +13685,7 @@
       </c>
       <c r="K488" s="7"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="6"/>
       <c r="B489" s="1" t="s">
         <v>815</v>
@@ -13702,7 +13704,7 @@
       </c>
       <c r="K489" s="7"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="6"/>
       <c r="B490" s="1" t="s">
         <v>816</v>
@@ -13721,7 +13723,7 @@
       </c>
       <c r="K490" s="7"/>
     </row>
-    <row r="491" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A491" s="6"/>
       <c r="B491" s="1" t="s">
         <v>818</v>
@@ -13740,7 +13742,7 @@
       </c>
       <c r="K491" s="7"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="6"/>
       <c r="B492" s="1" t="s">
         <v>819</v>
@@ -13759,7 +13761,7 @@
       </c>
       <c r="K492" s="7"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="6"/>
       <c r="B493" s="1" t="s">
         <v>820</v>
@@ -13778,7 +13780,7 @@
       </c>
       <c r="K493" s="7"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="6"/>
       <c r="B494" s="1" t="s">
         <v>821</v>
@@ -13797,7 +13799,7 @@
       </c>
       <c r="K494" s="7"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="6"/>
       <c r="B495" s="1" t="s">
         <v>822</v>
@@ -13816,7 +13818,7 @@
       </c>
       <c r="K495" s="7"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="6"/>
       <c r="B496" s="1" t="s">
         <v>823</v>
@@ -13835,7 +13837,7 @@
       </c>
       <c r="K496" s="7"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="6"/>
       <c r="B497" s="1" t="s">
         <v>824</v>
@@ -13854,7 +13856,7 @@
       </c>
       <c r="K497" s="7"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="6"/>
       <c r="B498" s="1" t="s">
         <v>825</v>
@@ -13873,7 +13875,7 @@
       </c>
       <c r="K498" s="7"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="6"/>
       <c r="B499" s="1" t="s">
         <v>826</v>
@@ -13892,7 +13894,7 @@
       </c>
       <c r="K499" s="7"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="6"/>
       <c r="B500" s="1" t="s">
         <v>827</v>
@@ -13911,7 +13913,7 @@
       </c>
       <c r="K500" s="7"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="6"/>
       <c r="B501" s="1" t="s">
         <v>829</v>
@@ -13927,7 +13929,7 @@
       </c>
       <c r="K501" s="7"/>
     </row>
-    <row r="502" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A502" s="6">
         <v>8</v>
       </c>
@@ -13945,7 +13947,7 @@
       </c>
       <c r="K502" s="7"/>
     </row>
-    <row r="503" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A503" s="6">
         <v>8.1</v>
       </c>
@@ -13966,7 +13968,7 @@
       </c>
       <c r="K503" s="7"/>
     </row>
-    <row r="504" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A504" s="6">
         <v>8.1999999999999993</v>
       </c>
@@ -13987,7 +13989,7 @@
       </c>
       <c r="K504" s="7"/>
     </row>
-    <row r="505" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A505" s="6">
         <v>8.4</v>
       </c>
@@ -14008,7 +14010,7 @@
       </c>
       <c r="K505" s="7"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="6">
         <v>8.5</v>
       </c>
@@ -14029,7 +14031,7 @@
       </c>
       <c r="K506" s="7"/>
     </row>
-    <row r="507" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A507" s="6">
         <v>8.6</v>
       </c>
@@ -14050,7 +14052,7 @@
       </c>
       <c r="K507" s="7"/>
     </row>
-    <row r="508" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A508" s="6"/>
       <c r="B508" s="1" t="s">
         <v>840</v>
@@ -14066,7 +14068,7 @@
       </c>
       <c r="K508" s="7"/>
     </row>
-    <row r="509" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A509" s="6">
         <v>8.6999999999999993</v>
       </c>
@@ -14087,7 +14089,7 @@
       </c>
       <c r="K509" s="7"/>
     </row>
-    <row r="510" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A510" s="6">
         <v>8.8000000000000007</v>
       </c>
@@ -14108,7 +14110,7 @@
       </c>
       <c r="K510" s="7"/>
     </row>
-    <row r="511" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A511" s="6">
         <v>8.9</v>
       </c>
@@ -14129,7 +14131,7 @@
       </c>
       <c r="K511" s="7"/>
     </row>
-    <row r="512" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A512" s="6">
         <v>8.1</v>
       </c>
@@ -14150,7 +14152,7 @@
       </c>
       <c r="K512" s="7"/>
     </row>
-    <row r="513" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A513" s="6">
         <v>8.11</v>
       </c>
@@ -14171,7 +14173,7 @@
       </c>
       <c r="K513" s="7"/>
     </row>
-    <row r="514" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A514" s="6"/>
       <c r="B514" s="1" t="s">
         <v>847</v>
@@ -14190,7 +14192,7 @@
       </c>
       <c r="K514" s="7"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="6"/>
       <c r="B515" s="1" t="s">
         <v>849</v>
@@ -14206,7 +14208,7 @@
       </c>
       <c r="K515" s="7"/>
     </row>
-    <row r="516" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A516" s="6"/>
       <c r="B516" s="1" t="s">
         <v>851</v>
@@ -14222,7 +14224,7 @@
       </c>
       <c r="K516" s="7"/>
     </row>
-    <row r="517" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A517" s="6"/>
       <c r="B517" s="1" t="s">
         <v>853</v>
@@ -14238,7 +14240,7 @@
       </c>
       <c r="K517" s="7"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="6"/>
       <c r="B518" s="1" t="s">
         <v>855</v>
@@ -14257,7 +14259,7 @@
       </c>
       <c r="K518" s="7"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="6"/>
       <c r="B519" s="1" t="s">
         <v>857</v>
@@ -14276,7 +14278,7 @@
       </c>
       <c r="K519" s="7"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="6"/>
       <c r="B520" s="1" t="s">
         <v>859</v>
@@ -14295,7 +14297,7 @@
       </c>
       <c r="K520" s="7"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="6"/>
       <c r="B521" s="1" t="s">
         <v>861</v>
@@ -14314,7 +14316,7 @@
       </c>
       <c r="K521" s="7"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="6"/>
       <c r="B522" s="1" t="s">
         <v>863</v>
@@ -14333,7 +14335,7 @@
       </c>
       <c r="K522" s="7"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="6"/>
       <c r="B523" s="1" t="s">
         <v>865</v>
@@ -14352,7 +14354,7 @@
       </c>
       <c r="K523" s="7"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="6"/>
       <c r="B524" s="1" t="s">
         <v>866</v>
@@ -14371,7 +14373,7 @@
       </c>
       <c r="K524" s="7"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="6"/>
       <c r="B525" s="1" t="s">
         <v>867</v>
@@ -14390,7 +14392,7 @@
       </c>
       <c r="K525" s="7"/>
     </row>
-    <row r="526" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A526" s="6"/>
       <c r="B526" s="1">
         <v>702</v>
@@ -14409,7 +14411,7 @@
       </c>
       <c r="K526" s="7"/>
     </row>
-    <row r="527" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A527" s="6"/>
       <c r="B527" s="1">
         <v>703</v>
@@ -14428,7 +14430,7 @@
       </c>
       <c r="K527" s="7"/>
     </row>
-    <row r="528" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A528" s="6"/>
       <c r="B528" s="1">
         <v>704</v>
@@ -14447,7 +14449,7 @@
       </c>
       <c r="K528" s="7"/>
     </row>
-    <row r="529" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A529" s="6"/>
       <c r="B529" s="1" t="s">
         <v>873</v>
@@ -14466,7 +14468,7 @@
       </c>
       <c r="K529" s="7"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="6"/>
       <c r="B530" s="1" t="s">
         <v>876</v>
@@ -14485,7 +14487,7 @@
       </c>
       <c r="K530" s="7"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="6"/>
       <c r="B531" s="1" t="s">
         <v>878</v>
@@ -14504,7 +14506,7 @@
       </c>
       <c r="K531" s="7"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="6"/>
       <c r="B532" s="1" t="s">
         <v>880</v>
@@ -14523,7 +14525,7 @@
       </c>
       <c r="K532" s="7"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="6"/>
       <c r="B533" s="1" t="s">
         <v>882</v>
@@ -14542,7 +14544,7 @@
       </c>
       <c r="K533" s="7"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="6"/>
       <c r="B534" s="1" t="s">
         <v>884</v>
@@ -14561,7 +14563,7 @@
       </c>
       <c r="K534" s="7"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="6"/>
       <c r="B535" s="1" t="s">
         <v>886</v>
@@ -14580,7 +14582,7 @@
       </c>
       <c r="K535" s="7"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="6"/>
       <c r="B536" s="1" t="s">
         <v>888</v>
@@ -14599,7 +14601,7 @@
       </c>
       <c r="K536" s="7"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="6"/>
       <c r="B537" s="1" t="s">
         <v>890</v>
@@ -14618,7 +14620,7 @@
       </c>
       <c r="K537" s="7"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="6"/>
       <c r="B538" s="1" t="s">
         <v>892</v>
@@ -14637,7 +14639,7 @@
       </c>
       <c r="K538" s="7"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="6"/>
       <c r="B539" s="1" t="s">
         <v>893</v>
@@ -14656,7 +14658,7 @@
       </c>
       <c r="K539" s="7"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="6"/>
       <c r="B540" s="1" t="s">
         <v>894</v>
@@ -14675,7 +14677,7 @@
       </c>
       <c r="K540" s="7"/>
     </row>
-    <row r="541" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A541" s="6"/>
       <c r="B541" s="1">
         <v>706</v>
@@ -14697,7 +14699,7 @@
       </c>
       <c r="K541" s="7"/>
     </row>
-    <row r="542" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A542" s="6"/>
       <c r="B542" s="1">
         <v>707</v>
@@ -14719,7 +14721,7 @@
       </c>
       <c r="K542" s="7"/>
     </row>
-    <row r="543" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A543" s="6"/>
       <c r="B543" s="1">
         <v>708</v>
@@ -14741,7 +14743,7 @@
       </c>
       <c r="K543" s="7"/>
     </row>
-    <row r="544" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A544" s="6"/>
       <c r="B544" s="1" t="s">
         <v>902</v>
@@ -14760,7 +14762,7 @@
       </c>
       <c r="K544" s="7"/>
     </row>
-    <row r="545" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A545" s="6"/>
       <c r="B545" s="1">
         <v>709</v>
@@ -14782,7 +14784,7 @@
       </c>
       <c r="K545" s="7"/>
     </row>
-    <row r="546" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A546" s="6"/>
       <c r="B546" s="1">
         <v>710</v>
@@ -14804,7 +14806,7 @@
       </c>
       <c r="K546" s="7"/>
     </row>
-    <row r="547" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A547" s="6"/>
       <c r="B547" s="1" t="s">
         <v>910</v>
@@ -14823,7 +14825,7 @@
       </c>
       <c r="K547" s="7"/>
     </row>
-    <row r="548" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A548" s="6"/>
       <c r="B548" s="1" t="s">
         <v>913</v>
@@ -14839,7 +14841,7 @@
       </c>
       <c r="K548" s="7"/>
     </row>
-    <row r="549" spans="1:11" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:11" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A549" s="6"/>
       <c r="B549" s="1" t="s">
         <v>916</v>
@@ -14855,7 +14857,7 @@
       </c>
       <c r="K549" s="7"/>
     </row>
-    <row r="550" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A550" s="6"/>
       <c r="B550" s="1">
         <v>711</v>
@@ -14874,7 +14876,7 @@
       </c>
       <c r="K550" s="7"/>
     </row>
-    <row r="551" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A551" s="6"/>
       <c r="B551" s="1">
         <v>712</v>
@@ -14893,7 +14895,7 @@
       </c>
       <c r="K551" s="7"/>
     </row>
-    <row r="552" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A552" s="6"/>
       <c r="B552" s="1">
         <v>713</v>
@@ -14912,7 +14914,7 @@
       </c>
       <c r="K552" s="7"/>
     </row>
-    <row r="553" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A553" s="6"/>
       <c r="B553" s="1">
         <v>714</v>
@@ -14931,7 +14933,7 @@
       </c>
       <c r="K553" s="7"/>
     </row>
-    <row r="554" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A554" s="6"/>
       <c r="B554" s="1">
         <v>715</v>
@@ -14950,7 +14952,7 @@
       </c>
       <c r="K554" s="7"/>
     </row>
-    <row r="555" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A555" s="6"/>
       <c r="B555" s="1">
         <v>716</v>
@@ -14969,7 +14971,7 @@
       </c>
       <c r="K555" s="7"/>
     </row>
-    <row r="556" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A556" s="6"/>
       <c r="B556" s="1">
         <v>717</v>
@@ -14988,7 +14990,7 @@
       </c>
       <c r="K556" s="7"/>
     </row>
-    <row r="557" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A557" s="6"/>
       <c r="B557" s="1">
         <v>718</v>
@@ -15007,7 +15009,7 @@
       </c>
       <c r="K557" s="7"/>
     </row>
-    <row r="558" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A558" s="6"/>
       <c r="B558" s="1">
         <v>719</v>
@@ -15026,7 +15028,7 @@
       </c>
       <c r="K558" s="7"/>
     </row>
-    <row r="559" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A559" s="6"/>
       <c r="B559" s="1">
         <v>720</v>
@@ -15045,7 +15047,7 @@
       </c>
       <c r="K559" s="7"/>
     </row>
-    <row r="560" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A560" s="6"/>
       <c r="B560" s="1">
         <v>721</v>
@@ -15064,7 +15066,7 @@
       </c>
       <c r="K560" s="7"/>
     </row>
-    <row r="561" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A561" s="6"/>
       <c r="B561" s="1">
         <v>722</v>
@@ -15083,7 +15085,7 @@
       </c>
       <c r="K561" s="7"/>
     </row>
-    <row r="562" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A562" s="6"/>
       <c r="B562" s="1">
         <v>723</v>
@@ -15102,7 +15104,7 @@
       </c>
       <c r="K562" s="7"/>
     </row>
-    <row r="563" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A563" s="6"/>
       <c r="B563" s="1">
         <v>724</v>
@@ -15121,7 +15123,7 @@
       </c>
       <c r="K563" s="7"/>
     </row>
-    <row r="564" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A564" s="6"/>
       <c r="B564" s="1">
         <v>725</v>
@@ -15140,7 +15142,7 @@
       </c>
       <c r="K564" s="7"/>
     </row>
-    <row r="565" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A565" s="6"/>
       <c r="B565" s="1">
         <v>726</v>
@@ -15159,7 +15161,7 @@
       </c>
       <c r="K565" s="7"/>
     </row>
-    <row r="566" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A566" s="6"/>
       <c r="B566" s="1">
         <v>727</v>
@@ -15178,7 +15180,7 @@
       </c>
       <c r="K566" s="7"/>
     </row>
-    <row r="567" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A567" s="6"/>
       <c r="B567" s="1">
         <v>728</v>
@@ -15197,7 +15199,7 @@
       </c>
       <c r="K567" s="7"/>
     </row>
-    <row r="568" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A568" s="6"/>
       <c r="B568" s="1">
         <v>729</v>
@@ -15216,7 +15218,7 @@
       </c>
       <c r="K568" s="7"/>
     </row>
-    <row r="569" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A569" s="6"/>
       <c r="B569" s="1">
         <v>730</v>
@@ -15235,7 +15237,7 @@
       </c>
       <c r="K569" s="7"/>
     </row>
-    <row r="570" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A570" s="6"/>
       <c r="B570" s="1">
         <v>731</v>
@@ -15254,7 +15256,7 @@
       </c>
       <c r="K570" s="7"/>
     </row>
-    <row r="571" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A571" s="6"/>
       <c r="B571" s="1">
         <v>732</v>
@@ -15273,7 +15275,7 @@
       </c>
       <c r="K571" s="7"/>
     </row>
-    <row r="572" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A572" s="6"/>
       <c r="B572" s="1">
         <v>733</v>
@@ -15292,7 +15294,7 @@
       </c>
       <c r="K572" s="7"/>
     </row>
-    <row r="573" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A573" s="6"/>
       <c r="B573" s="1">
         <v>734</v>
@@ -15311,7 +15313,7 @@
       </c>
       <c r="K573" s="7"/>
     </row>
-    <row r="574" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A574" s="6"/>
       <c r="B574" s="1" t="s">
         <v>944</v>
@@ -15330,7 +15332,7 @@
       </c>
       <c r="K574" s="7"/>
     </row>
-    <row r="575" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A575" s="6"/>
       <c r="B575" s="1" t="s">
         <v>946</v>
@@ -15346,7 +15348,7 @@
       </c>
       <c r="K575" s="7"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="6"/>
       <c r="B576" s="1" t="s">
         <v>948</v>
@@ -15362,7 +15364,7 @@
       </c>
       <c r="K576" s="7"/>
     </row>
-    <row r="577" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A577" s="6"/>
       <c r="B577" s="1">
         <v>801</v>
@@ -15381,7 +15383,7 @@
       </c>
       <c r="K577" s="7"/>
     </row>
-    <row r="578" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A578" s="6"/>
       <c r="B578" s="1" t="s">
         <v>952</v>
@@ -15400,7 +15402,7 @@
       </c>
       <c r="K578" s="7"/>
     </row>
-    <row r="579" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A579" s="6"/>
       <c r="B579" s="1">
         <v>802</v>
@@ -15419,7 +15421,7 @@
       </c>
       <c r="K579" s="7"/>
     </row>
-    <row r="580" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A580" s="6"/>
       <c r="B580" s="1" t="s">
         <v>957</v>
@@ -15435,7 +15437,7 @@
       </c>
       <c r="K580" s="7"/>
     </row>
-    <row r="581" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A581" s="6"/>
       <c r="B581" s="1" t="s">
         <v>960</v>
@@ -15451,7 +15453,7 @@
       </c>
       <c r="K581" s="7"/>
     </row>
-    <row r="582" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A582" s="6"/>
       <c r="B582" s="1">
         <v>803</v>
@@ -15470,7 +15472,7 @@
       </c>
       <c r="K582" s="7"/>
     </row>
-    <row r="583" spans="1:11" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:11" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A583" s="6"/>
       <c r="B583" s="1" t="s">
         <v>963</v>
@@ -15486,7 +15488,7 @@
       </c>
       <c r="K583" s="7"/>
     </row>
-    <row r="584" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A584" s="6"/>
       <c r="B584" s="1" t="s">
         <v>965</v>
@@ -15502,7 +15504,7 @@
       </c>
       <c r="K584" s="7"/>
     </row>
-    <row r="585" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A585" s="6"/>
       <c r="B585" s="1">
         <v>804</v>
@@ -15521,7 +15523,7 @@
       </c>
       <c r="K585" s="7"/>
     </row>
-    <row r="586" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A586" s="6"/>
       <c r="B586" s="1">
         <v>805</v>
@@ -15540,7 +15542,7 @@
       </c>
       <c r="K586" s="7"/>
     </row>
-    <row r="587" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A587" s="6"/>
       <c r="B587" s="1">
         <v>806</v>
@@ -15559,7 +15561,7 @@
       </c>
       <c r="K587" s="7"/>
     </row>
-    <row r="588" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A588" s="6"/>
       <c r="B588" s="1">
         <v>807</v>
@@ -15578,7 +15580,7 @@
       </c>
       <c r="K588" s="7"/>
     </row>
-    <row r="589" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A589" s="6"/>
       <c r="B589" s="1">
         <v>808</v>
@@ -15597,7 +15599,7 @@
       </c>
       <c r="K589" s="7"/>
     </row>
-    <row r="590" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A590" s="6"/>
       <c r="B590" s="1">
         <v>809</v>
@@ -15616,7 +15618,7 @@
       </c>
       <c r="K590" s="7"/>
     </row>
-    <row r="591" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A591" s="6"/>
       <c r="B591" s="1">
         <v>810</v>
@@ -15635,7 +15637,7 @@
       </c>
       <c r="K591" s="7"/>
     </row>
-    <row r="592" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A592" s="6"/>
       <c r="B592" s="1">
         <v>811</v>
@@ -15654,7 +15656,7 @@
       </c>
       <c r="K592" s="7"/>
     </row>
-    <row r="593" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A593" s="6">
         <v>9</v>
       </c>
@@ -15672,7 +15674,7 @@
       </c>
       <c r="K593" s="7"/>
     </row>
-    <row r="594" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A594" s="6">
         <v>9.1</v>
       </c>
@@ -15693,7 +15695,7 @@
       </c>
       <c r="K594" s="7"/>
     </row>
-    <row r="595" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A595" s="6" t="s">
         <v>1060</v>
       </c>
@@ -15714,7 +15716,7 @@
       </c>
       <c r="K595" s="7"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="6"/>
       <c r="B596" s="1" t="s">
         <v>981</v>
@@ -15730,7 +15732,7 @@
       </c>
       <c r="K596" s="7"/>
     </row>
-    <row r="597" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A597" s="6"/>
       <c r="B597" s="1" t="s">
         <v>983</v>
@@ -15746,7 +15748,7 @@
       </c>
       <c r="K597" s="7"/>
     </row>
-    <row r="598" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A598" s="6">
         <v>9.1999999999999993</v>
       </c>
@@ -15767,7 +15769,7 @@
       </c>
       <c r="K598" s="7"/>
     </row>
-    <row r="599" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A599" s="6" t="s">
         <v>1061</v>
       </c>
@@ -15788,7 +15790,7 @@
       </c>
       <c r="K599" s="7"/>
     </row>
-    <row r="600" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A600" s="6"/>
       <c r="B600" s="1" t="s">
         <v>840</v>
@@ -15804,7 +15806,7 @@
       </c>
       <c r="K600" s="7"/>
     </row>
-    <row r="601" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A601" s="6">
         <v>9.3000000000000007</v>
       </c>
@@ -15825,7 +15827,7 @@
       </c>
       <c r="K601" s="7"/>
     </row>
-    <row r="602" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A602" s="6"/>
       <c r="B602" s="1">
         <v>815</v>
@@ -15844,7 +15846,7 @@
       </c>
       <c r="K602" s="7"/>
     </row>
-    <row r="603" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A603" s="6"/>
       <c r="B603" s="1">
         <v>816</v>
@@ -15863,7 +15865,7 @@
       </c>
       <c r="K603" s="7"/>
     </row>
-    <row r="604" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A604" s="6"/>
       <c r="B604" s="1">
         <v>817</v>
@@ -15882,7 +15884,7 @@
       </c>
       <c r="K604" s="7"/>
     </row>
-    <row r="605" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A605" s="6">
         <v>9.4</v>
       </c>
@@ -15903,7 +15905,7 @@
       </c>
       <c r="K605" s="7"/>
     </row>
-    <row r="606" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A606" s="6"/>
       <c r="B606" s="1">
         <v>819</v>
@@ -15922,7 +15924,7 @@
       </c>
       <c r="K606" s="7"/>
     </row>
-    <row r="607" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A607" s="6">
         <v>9.5</v>
       </c>
@@ -15943,7 +15945,7 @@
       </c>
       <c r="K607" s="7"/>
     </row>
-    <row r="608" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A608" s="6"/>
       <c r="B608" s="1">
         <v>821</v>
@@ -15962,7 +15964,7 @@
       </c>
       <c r="K608" s="7"/>
     </row>
-    <row r="609" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A609" s="6">
         <v>9.6</v>
       </c>
@@ -15983,7 +15985,7 @@
       </c>
       <c r="K609" s="7"/>
     </row>
-    <row r="610" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A610" s="6">
         <v>9.6999999999999993</v>
       </c>
@@ -16004,7 +16006,7 @@
       </c>
       <c r="K610" s="7"/>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A611" s="6"/>
       <c r="B611" s="1" t="s">
         <v>998</v>
@@ -16020,7 +16022,7 @@
       </c>
       <c r="K611" s="7"/>
     </row>
-    <row r="612" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A612" s="6"/>
       <c r="B612" s="1" t="s">
         <v>1000</v>
@@ -16036,7 +16038,7 @@
       </c>
       <c r="K612" s="7"/>
     </row>
-    <row r="613" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A613" s="6"/>
       <c r="B613" s="1">
         <v>824</v>
@@ -16055,7 +16057,7 @@
       </c>
       <c r="K613" s="7"/>
     </row>
-    <row r="614" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A614" s="6"/>
       <c r="B614" s="1" t="s">
         <v>840</v>
@@ -16071,7 +16073,7 @@
       </c>
       <c r="K614" s="7"/>
     </row>
-    <row r="615" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A615" s="6">
         <v>9.9</v>
       </c>
@@ -16092,7 +16094,7 @@
       </c>
       <c r="K615" s="7"/>
     </row>
-    <row r="616" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A616" s="6"/>
       <c r="B616" s="1">
         <v>826</v>
@@ -16111,7 +16113,7 @@
       </c>
       <c r="K616" s="7"/>
     </row>
-    <row r="617" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A617" s="6">
         <v>9.1</v>
       </c>
@@ -16132,7 +16134,7 @@
       </c>
       <c r="K617" s="7"/>
     </row>
-    <row r="618" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A618" s="6"/>
       <c r="B618" s="1">
         <v>828</v>
@@ -16151,7 +16153,7 @@
       </c>
       <c r="K618" s="7"/>
     </row>
-    <row r="619" spans="1:13" ht="203" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A619" s="6"/>
       <c r="B619" s="1" t="s">
         <v>1008</v>
@@ -16190,7 +16192,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="620" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A620" s="6"/>
       <c r="B620" s="1" t="s">
         <v>1010</v>
@@ -16229,7 +16231,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="621" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A621" s="6">
         <v>9.11</v>
       </c>
@@ -16250,7 +16252,7 @@
       </c>
       <c r="K621" s="7"/>
     </row>
-    <row r="622" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A622" s="6"/>
       <c r="B622" s="1" t="s">
         <v>840</v>
@@ -16266,7 +16268,7 @@
       </c>
       <c r="K622" s="7"/>
     </row>
-    <row r="623" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A623" s="6"/>
       <c r="B623" s="1">
         <v>830</v>
@@ -16285,7 +16287,7 @@
       </c>
       <c r="K623" s="7"/>
     </row>
-    <row r="624" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A624" s="6">
         <v>9.1199999999999992</v>
       </c>
@@ -16306,7 +16308,7 @@
       </c>
       <c r="K624" s="7"/>
     </row>
-    <row r="625" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A625" s="6"/>
       <c r="B625" s="1">
         <v>831</v>
@@ -16325,7 +16327,7 @@
       </c>
       <c r="K625" s="7"/>
     </row>
-    <row r="626" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A626" s="6">
         <v>9.1300000000000008</v>
       </c>
@@ -16346,7 +16348,7 @@
       </c>
       <c r="K626" s="7"/>
     </row>
-    <row r="627" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A627" s="6"/>
       <c r="B627" s="1">
         <v>832</v>
@@ -16365,7 +16367,7 @@
       </c>
       <c r="K627" s="7"/>
     </row>
-    <row r="628" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A628" s="6">
         <v>9.14</v>
       </c>
@@ -16386,7 +16388,7 @@
       </c>
       <c r="K628" s="7"/>
     </row>
-    <row r="629" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A629" s="6"/>
       <c r="B629" s="1" t="s">
         <v>1029</v>
@@ -16402,7 +16404,7 @@
       </c>
       <c r="K629" s="7"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="8"/>
       <c r="B630" s="9">
         <v>901</v>

--- a/South Sudan resilience/data/South Sudan panel survey codebook.xlsx
+++ b/South Sudan resilience/data/South Sudan panel survey codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan.killian\Documents\South Sudan panels\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JACK.PAYNE\Documents\PMES\SouthSudan_panels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D443416A-5FFB-4E3B-96A9-27153FAF88E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065FF804-D9B4-4498-9C54-9DF02A20C803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38715" yWindow="150" windowWidth="18840" windowHeight="15330" xr2:uid="{3672C4AD-8C80-43DB-9BF6-4EF82E7197B0}"/>
+    <workbookView xWindow="4910" yWindow="0" windowWidth="14290" windowHeight="10200" xr2:uid="{3672C4AD-8C80-43DB-9BF6-4EF82E7197B0}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="2" r:id="rId1"/>
@@ -3880,26 +3880,26 @@
   <dimension ref="A1:M630"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B265" sqref="B265"/>
+      <pane ySplit="1" topLeftCell="A620" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F621" sqref="F621"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.26953125" style="3" customWidth="1"/>
     <col min="2" max="2" width="33" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.90625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="58.5546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="17.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.90625" style="1"/>
+    <col min="10" max="10" width="58.54296875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>1031</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>86</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1.1000000000000001</v>
       </c>
@@ -3990,7 +3990,7 @@
       </c>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>97</v>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>83</v>
       </c>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2.6</v>
       </c>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2.7</v>
       </c>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2.8</v>
       </c>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>1</v>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2.1</v>
       </c>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>1062</v>
       </c>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>2.9</v>
       </c>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2.12</v>
       </c>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>115</v>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="1">
         <v>301</v>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="1">
         <v>302</v>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="1">
         <v>303</v>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="1">
         <v>304</v>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="1">
         <v>305</v>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="1">
         <v>306</v>
@@ -4318,7 +4318,7 @@
       </c>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="1">
         <v>307</v>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="1">
         <v>308</v>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
         <v>133</v>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" s="1">
         <v>309</v>
@@ -4403,7 +4403,7 @@
       </c>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" s="1" t="s">
         <v>138</v>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="1">
         <v>310</v>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="1">
         <v>311</v>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" s="1">
         <v>312</v>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="1">
         <v>313</v>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="B31" s="1">
         <v>314</v>
@@ -4520,7 +4520,7 @@
       </c>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
         <v>150</v>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="1">
         <v>315</v>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>3</v>
       </c>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>3.1</v>
       </c>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>1063</v>
       </c>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>1066</v>
       </c>
@@ -4642,7 +4642,7 @@
       </c>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>1067</v>
       </c>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>1068</v>
       </c>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="K39" s="7"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>1069</v>
       </c>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="K40" s="7"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>1070</v>
       </c>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="K41" s="7"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>1071</v>
       </c>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="K42" s="7"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>1072</v>
       </c>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>1073</v>
       </c>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>1074</v>
       </c>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>1075</v>
       </c>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>1076</v>
       </c>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>1077</v>
       </c>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>1078</v>
       </c>
@@ -4894,7 +4894,7 @@
       </c>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>1065</v>
       </c>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K50" s="7"/>
     </row>
-    <row r="51" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>1079</v>
       </c>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="K51" s="7"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>1080</v>
       </c>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="K52" s="7"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>1081</v>
       </c>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="K53" s="7"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>1082</v>
       </c>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="K54" s="7"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>1064</v>
       </c>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="K55" s="7"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>1083</v>
       </c>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="K56" s="7"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>1084</v>
       </c>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="K57" s="7"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="6"/>
       <c r="B58" s="1" t="s">
         <v>1036</v>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="K58" s="7"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <v>3.2</v>
       </c>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>1085</v>
       </c>
@@ -5120,7 +5120,7 @@
       </c>
       <c r="K60" s="7"/>
     </row>
-    <row r="61" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>1089</v>
       </c>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="K61" s="7"/>
     </row>
-    <row r="62" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>1092</v>
       </c>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="K62" s="7"/>
     </row>
-    <row r="63" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>1093</v>
       </c>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="K63" s="7"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>1094</v>
       </c>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="K64" s="7"/>
     </row>
-    <row r="65" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>1095</v>
       </c>
@@ -5240,7 +5240,7 @@
       </c>
       <c r="K65" s="7"/>
     </row>
-    <row r="66" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>1088</v>
       </c>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="K66" s="7"/>
     </row>
-    <row r="67" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>1090</v>
       </c>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="K67" s="7"/>
     </row>
-    <row r="68" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>1096</v>
       </c>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="K68" s="7"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>1097</v>
       </c>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="K69" s="7"/>
     </row>
-    <row r="70" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>1098</v>
       </c>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="K70" s="7"/>
     </row>
-    <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>1099</v>
       </c>
@@ -5384,7 +5384,7 @@
       </c>
       <c r="K71" s="7"/>
     </row>
-    <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>1091</v>
       </c>
@@ -5408,7 +5408,7 @@
       </c>
       <c r="K72" s="7"/>
     </row>
-    <row r="73" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>1100</v>
       </c>
@@ -5432,7 +5432,7 @@
       </c>
       <c r="K73" s="7"/>
     </row>
-    <row r="74" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>1087</v>
       </c>
@@ -5456,7 +5456,7 @@
       </c>
       <c r="K74" s="7"/>
     </row>
-    <row r="75" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>1101</v>
       </c>
@@ -5480,7 +5480,7 @@
       </c>
       <c r="K75" s="7"/>
     </row>
-    <row r="76" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>1102</v>
       </c>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="K76" s="7"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>1103</v>
       </c>
@@ -5528,7 +5528,7 @@
       </c>
       <c r="K77" s="7"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>1104</v>
       </c>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="K78" s="7"/>
     </row>
-    <row r="79" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>1086</v>
       </c>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="K79" s="7"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>1105</v>
       </c>
@@ -5600,7 +5600,7 @@
       </c>
       <c r="K80" s="7"/>
     </row>
-    <row r="81" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="6"/>
       <c r="B81" s="1" t="s">
         <v>204</v>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="K81" s="7"/>
     </row>
-    <row r="82" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A82" s="6"/>
       <c r="B82" s="1" t="s">
         <v>206</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="K82" s="7"/>
     </row>
-    <row r="83" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A83" s="6"/>
       <c r="B83" s="1">
         <v>422</v>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="K83" s="7"/>
     </row>
-    <row r="84" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A84" s="6"/>
       <c r="B84" s="1">
         <v>423</v>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="K84" s="7"/>
     </row>
-    <row r="85" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A85" s="6"/>
       <c r="B85" s="1">
         <v>424</v>
@@ -5692,7 +5692,7 @@
       </c>
       <c r="K85" s="7"/>
     </row>
-    <row r="86" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A86" s="6"/>
       <c r="B86" s="1">
         <v>425</v>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="K86" s="7"/>
     </row>
-    <row r="87" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A87" s="6"/>
       <c r="B87" s="1">
         <v>426</v>
@@ -5730,7 +5730,7 @@
       </c>
       <c r="K87" s="7"/>
     </row>
-    <row r="88" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A88" s="6"/>
       <c r="B88" s="1">
         <v>427</v>
@@ -5749,7 +5749,7 @@
       </c>
       <c r="K88" s="7"/>
     </row>
-    <row r="89" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A89" s="6"/>
       <c r="B89" s="1">
         <v>428</v>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="K89" s="7"/>
     </row>
-    <row r="90" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A90" s="6"/>
       <c r="B90" s="1">
         <v>429</v>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="K90" s="7"/>
     </row>
-    <row r="91" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A91" s="6"/>
       <c r="B91" s="1" t="s">
         <v>216</v>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="K91" s="7"/>
     </row>
-    <row r="92" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>1107</v>
       </c>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="K92" s="7"/>
     </row>
-    <row r="93" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>1107</v>
       </c>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="K93" s="7"/>
     </row>
-    <row r="94" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>1107</v>
       </c>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="K94" s="7"/>
     </row>
-    <row r="95" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>1107</v>
       </c>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="K95" s="7"/>
     </row>
-    <row r="96" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>1107</v>
       </c>
@@ -5914,7 +5914,7 @@
       </c>
       <c r="K96" s="7"/>
     </row>
-    <row r="97" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>1107</v>
       </c>
@@ -5938,7 +5938,7 @@
       </c>
       <c r="K97" s="7"/>
     </row>
-    <row r="98" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
         <v>1107</v>
       </c>
@@ -5956,7 +5956,7 @@
       </c>
       <c r="K98" s="7"/>
     </row>
-    <row r="99" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>1107</v>
       </c>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="K99" s="7"/>
     </row>
-    <row r="100" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="K100" s="7"/>
     </row>
-    <row r="101" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="K101" s="7"/>
     </row>
-    <row r="102" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="K102" s="7"/>
     </row>
-    <row r="103" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="K103" s="7"/>
     </row>
-    <row r="104" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6094,7 +6094,7 @@
       </c>
       <c r="K104" s="7"/>
     </row>
-    <row r="105" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="K105" s="7"/>
     </row>
-    <row r="106" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="K106" s="7"/>
     </row>
-    <row r="107" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="K107" s="7"/>
     </row>
-    <row r="108" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6184,7 +6184,7 @@
       </c>
       <c r="K108" s="7"/>
     </row>
-    <row r="109" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6208,7 +6208,7 @@
       </c>
       <c r="K109" s="7"/>
     </row>
-    <row r="110" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="K110" s="7"/>
     </row>
-    <row r="111" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6253,7 +6253,7 @@
       </c>
       <c r="K111" s="7"/>
     </row>
-    <row r="112" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="K112" s="7"/>
     </row>
-    <row r="113" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A113" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="K113" s="7"/>
     </row>
-    <row r="114" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="K114" s="7"/>
     </row>
-    <row r="115" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A115" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6346,7 +6346,7 @@
       </c>
       <c r="K115" s="7"/>
     </row>
-    <row r="116" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A116" s="6" t="s">
         <v>1107</v>
       </c>
@@ -6370,7 +6370,7 @@
       </c>
       <c r="K116" s="7"/>
     </row>
-    <row r="117" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="6"/>
       <c r="B117" s="1" t="s">
         <v>253</v>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="K117" s="7"/>
     </row>
-    <row r="118" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="6"/>
       <c r="B118" s="1">
         <v>455</v>
@@ -6408,7 +6408,7 @@
       </c>
       <c r="K118" s="7"/>
     </row>
-    <row r="119" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A119" s="6"/>
       <c r="B119" s="1">
         <v>456</v>
@@ -6430,7 +6430,7 @@
       </c>
       <c r="K119" s="7"/>
     </row>
-    <row r="120" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A120" s="6"/>
       <c r="B120" s="1">
         <v>457</v>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="K120" s="7"/>
     </row>
-    <row r="121" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A121" s="6"/>
       <c r="B121" s="1">
         <v>458</v>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="K121" s="7"/>
     </row>
-    <row r="122" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A122" s="6"/>
       <c r="B122" s="1">
         <v>459</v>
@@ -6493,7 +6493,7 @@
       </c>
       <c r="K122" s="7"/>
     </row>
-    <row r="123" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A123" s="6"/>
       <c r="B123" s="1">
         <v>460</v>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="K123" s="7"/>
     </row>
-    <row r="124" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="6"/>
       <c r="B124" s="1">
         <v>461</v>
@@ -6534,7 +6534,7 @@
       </c>
       <c r="K124" s="7"/>
     </row>
-    <row r="125" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A125" s="6"/>
       <c r="B125" s="1">
         <v>462</v>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="K125" s="7"/>
     </row>
-    <row r="126" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A126" s="6"/>
       <c r="B126" s="1">
         <v>463</v>
@@ -6578,7 +6578,7 @@
       </c>
       <c r="K126" s="7"/>
     </row>
-    <row r="127" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A127" s="6"/>
       <c r="B127" s="1">
         <v>464</v>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="K127" s="7"/>
     </row>
-    <row r="128" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A128" s="6"/>
       <c r="B128" s="1">
         <v>465</v>
@@ -6619,7 +6619,7 @@
       </c>
       <c r="K128" s="7"/>
     </row>
-    <row r="129" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A129" s="6"/>
       <c r="B129" s="1">
         <v>466</v>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="K129" s="7"/>
     </row>
-    <row r="130" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A130" s="6"/>
       <c r="B130" s="1" t="s">
         <v>271</v>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="K130" s="7"/>
     </row>
-    <row r="131" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A131" s="6"/>
       <c r="B131" s="1">
         <v>468</v>
@@ -6682,7 +6682,7 @@
       </c>
       <c r="K131" s="7"/>
     </row>
-    <row r="132" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A132" s="6"/>
       <c r="B132" s="1">
         <v>469</v>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="K132" s="7"/>
     </row>
-    <row r="133" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A133" s="6"/>
       <c r="B133" s="1">
         <v>470</v>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="K133" s="7"/>
     </row>
-    <row r="134" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A134" s="6"/>
       <c r="B134" s="1">
         <v>471</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="K134" s="7"/>
     </row>
-    <row r="135" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A135" s="6"/>
       <c r="B135" s="1">
         <v>472</v>
@@ -6767,7 +6767,7 @@
       </c>
       <c r="K135" s="7"/>
     </row>
-    <row r="136" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A136" s="6"/>
       <c r="B136" s="1">
         <v>473</v>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="K136" s="7"/>
     </row>
-    <row r="137" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A137" s="6"/>
       <c r="B137" s="1">
         <v>474</v>
@@ -6808,7 +6808,7 @@
       </c>
       <c r="K137" s="7"/>
     </row>
-    <row r="138" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A138" s="6"/>
       <c r="B138" s="1">
         <v>475</v>
@@ -6830,7 +6830,7 @@
       </c>
       <c r="K138" s="7"/>
     </row>
-    <row r="139" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A139" s="6"/>
       <c r="B139" s="1">
         <v>476</v>
@@ -6852,7 +6852,7 @@
       </c>
       <c r="K139" s="7"/>
     </row>
-    <row r="140" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A140" s="6"/>
       <c r="B140" s="1">
         <v>477</v>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="K140" s="7"/>
     </row>
-    <row r="141" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A141" s="6"/>
       <c r="B141" s="1">
         <v>478</v>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="K141" s="7"/>
     </row>
-    <row r="142" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A142" s="6"/>
       <c r="B142" s="1">
         <v>479</v>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="K142" s="7"/>
     </row>
-    <row r="143" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="6"/>
       <c r="B143" s="1">
         <v>480</v>
@@ -6934,7 +6934,7 @@
       </c>
       <c r="K143" s="7"/>
     </row>
-    <row r="144" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A144" s="6"/>
       <c r="B144" s="1">
         <v>481</v>
@@ -6956,7 +6956,7 @@
       </c>
       <c r="K144" s="7"/>
     </row>
-    <row r="145" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A145" s="6"/>
       <c r="B145" s="1">
         <v>482</v>
@@ -6975,7 +6975,7 @@
       </c>
       <c r="K145" s="7"/>
     </row>
-    <row r="146" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A146" s="6"/>
       <c r="B146" s="1">
         <v>483</v>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="K146" s="7"/>
     </row>
-    <row r="147" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="6"/>
       <c r="B147" s="1">
         <v>484</v>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="K147" s="7"/>
     </row>
-    <row r="148" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A148" s="6"/>
       <c r="B148" s="1">
         <v>485</v>
@@ -7038,7 +7038,7 @@
       </c>
       <c r="K148" s="7"/>
     </row>
-    <row r="149" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A149" s="6"/>
       <c r="B149" s="1">
         <v>486</v>
@@ -7060,7 +7060,7 @@
       </c>
       <c r="K149" s="7"/>
     </row>
-    <row r="150" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A150" s="6"/>
       <c r="B150" s="1" t="s">
         <v>299</v>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="K150" s="7"/>
     </row>
-    <row r="151" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A151" s="6"/>
       <c r="B151" s="1" t="s">
         <v>302</v>
@@ -7095,7 +7095,7 @@
       </c>
       <c r="K151" s="7"/>
     </row>
-    <row r="152" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>1042</v>
       </c>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="K152" s="7"/>
     </row>
-    <row r="153" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A153" s="6" t="s">
         <v>1043</v>
       </c>
@@ -7137,7 +7137,7 @@
       </c>
       <c r="K153" s="7"/>
     </row>
-    <row r="154" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A154" s="6" t="s">
         <v>1044</v>
       </c>
@@ -7158,7 +7158,7 @@
       </c>
       <c r="K154" s="7"/>
     </row>
-    <row r="155" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A155" s="6" t="s">
         <v>1045</v>
       </c>
@@ -7179,7 +7179,7 @@
       </c>
       <c r="K155" s="7"/>
     </row>
-    <row r="156" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A156" s="6" t="s">
         <v>1046</v>
       </c>
@@ -7200,7 +7200,7 @@
       </c>
       <c r="K156" s="7"/>
     </row>
-    <row r="157" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>1047</v>
       </c>
@@ -7221,7 +7221,7 @@
       </c>
       <c r="K157" s="7"/>
     </row>
-    <row r="158" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>1048</v>
       </c>
@@ -7242,7 +7242,7 @@
       </c>
       <c r="K158" s="7"/>
     </row>
-    <row r="159" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>1049</v>
       </c>
@@ -7263,7 +7263,7 @@
       </c>
       <c r="K159" s="7"/>
     </row>
-    <row r="160" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="6"/>
       <c r="B160" s="1" t="s">
         <v>314</v>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="K160" s="7"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" s="6"/>
       <c r="B161" s="1" t="s">
         <v>316</v>
@@ -7298,7 +7298,7 @@
       </c>
       <c r="K161" s="7"/>
     </row>
-    <row r="162" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A162" s="6"/>
       <c r="B162" s="1" t="s">
         <v>318</v>
@@ -7314,7 +7314,7 @@
       </c>
       <c r="K162" s="7"/>
     </row>
-    <row r="163" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A163" s="6"/>
       <c r="B163" s="1" t="s">
         <v>320</v>
@@ -7330,7 +7330,7 @@
       </c>
       <c r="K163" s="7"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" s="6"/>
       <c r="B164" s="1" t="s">
         <v>323</v>
@@ -7349,7 +7349,7 @@
       </c>
       <c r="K164" s="7"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" s="6"/>
       <c r="B165" s="1" t="s">
         <v>326</v>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="K165" s="7"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" s="6"/>
       <c r="B166" s="1" t="s">
         <v>328</v>
@@ -7387,7 +7387,7 @@
       </c>
       <c r="K166" s="7"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" s="6"/>
       <c r="B167" s="1" t="s">
         <v>330</v>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="K167" s="7"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" s="6"/>
       <c r="B168" s="1" t="s">
         <v>332</v>
@@ -7425,7 +7425,7 @@
       </c>
       <c r="K168" s="7"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" s="6"/>
       <c r="B169" s="1" t="s">
         <v>334</v>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="K169" s="7"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" s="6"/>
       <c r="B170" s="1" t="s">
         <v>336</v>
@@ -7463,7 +7463,7 @@
       </c>
       <c r="K170" s="7"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" s="6"/>
       <c r="B171" s="1" t="s">
         <v>338</v>
@@ -7482,7 +7482,7 @@
       </c>
       <c r="K171" s="7"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" s="6"/>
       <c r="B172" s="1" t="s">
         <v>340</v>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="K172" s="7"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" s="6"/>
       <c r="B173" s="1" t="s">
         <v>342</v>
@@ -7520,7 +7520,7 @@
       </c>
       <c r="K173" s="7"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174" s="6"/>
       <c r="B174" s="1" t="s">
         <v>344</v>
@@ -7539,7 +7539,7 @@
       </c>
       <c r="K174" s="7"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175" s="6"/>
       <c r="B175" s="1" t="s">
         <v>346</v>
@@ -7558,7 +7558,7 @@
       </c>
       <c r="K175" s="7"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" s="6"/>
       <c r="B176" s="1" t="s">
         <v>348</v>
@@ -7577,7 +7577,7 @@
       </c>
       <c r="K176" s="7"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" s="6"/>
       <c r="B177" s="1" t="s">
         <v>350</v>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="K177" s="7"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" s="6"/>
       <c r="B178" s="1" t="s">
         <v>352</v>
@@ -7615,7 +7615,7 @@
       </c>
       <c r="K178" s="7"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" s="6"/>
       <c r="B179" s="1" t="s">
         <v>354</v>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="K179" s="7"/>
     </row>
-    <row r="180" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A180" s="6"/>
       <c r="B180" s="1" t="s">
         <v>356</v>
@@ -7650,7 +7650,7 @@
       </c>
       <c r="K180" s="7"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" s="6"/>
       <c r="B181" s="1" t="s">
         <v>358</v>
@@ -7672,7 +7672,7 @@
       </c>
       <c r="K181" s="7"/>
     </row>
-    <row r="182" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="6"/>
       <c r="B182" s="1" t="s">
         <v>360</v>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="K182" s="7"/>
     </row>
-    <row r="183" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A183" s="6"/>
       <c r="B183" s="1" t="s">
         <v>362</v>
@@ -7716,7 +7716,7 @@
       </c>
       <c r="K183" s="7"/>
     </row>
-    <row r="184" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A184" s="6"/>
       <c r="B184" s="1" t="s">
         <v>364</v>
@@ -7738,7 +7738,7 @@
       </c>
       <c r="K184" s="7"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A185" s="6"/>
       <c r="B185" s="1" t="s">
         <v>366</v>
@@ -7760,7 +7760,7 @@
       </c>
       <c r="K185" s="7"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A186" s="6"/>
       <c r="B186" s="1" t="s">
         <v>368</v>
@@ -7782,7 +7782,7 @@
       </c>
       <c r="K186" s="7"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A187" s="6"/>
       <c r="B187" s="1" t="s">
         <v>370</v>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="K187" s="7"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188" s="6"/>
       <c r="B188" s="1" t="s">
         <v>372</v>
@@ -7826,7 +7826,7 @@
       </c>
       <c r="K188" s="7"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189" s="6"/>
       <c r="B189" s="1" t="s">
         <v>374</v>
@@ -7848,7 +7848,7 @@
       </c>
       <c r="K189" s="7"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A190" s="6"/>
       <c r="B190" s="1" t="s">
         <v>376</v>
@@ -7870,7 +7870,7 @@
       </c>
       <c r="K190" s="7"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A191" s="6"/>
       <c r="B191" s="1" t="s">
         <v>378</v>
@@ -7892,7 +7892,7 @@
       </c>
       <c r="K191" s="7"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A192" s="6"/>
       <c r="B192" s="1" t="s">
         <v>380</v>
@@ -7914,7 +7914,7 @@
       </c>
       <c r="K192" s="7"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A193" s="6"/>
       <c r="B193" s="1" t="s">
         <v>382</v>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="K193" s="7"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194" s="6"/>
       <c r="B194" s="1" t="s">
         <v>384</v>
@@ -7958,7 +7958,7 @@
       </c>
       <c r="K194" s="7"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195" s="6"/>
       <c r="B195" s="1" t="s">
         <v>386</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="K195" s="7"/>
     </row>
-    <row r="196" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A196" s="6"/>
       <c r="B196" s="1" t="s">
         <v>388</v>
@@ -8002,7 +8002,7 @@
       </c>
       <c r="K196" s="7"/>
     </row>
-    <row r="197" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A197" s="6"/>
       <c r="B197" s="1" t="s">
         <v>391</v>
@@ -8018,7 +8018,7 @@
       </c>
       <c r="K197" s="7"/>
     </row>
-    <row r="198" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="6"/>
       <c r="B198" s="1" t="s">
         <v>393</v>
@@ -8040,7 +8040,7 @@
       </c>
       <c r="K198" s="7"/>
     </row>
-    <row r="199" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A199" s="6"/>
       <c r="B199" s="1" t="s">
         <v>394</v>
@@ -8062,7 +8062,7 @@
       </c>
       <c r="K199" s="7"/>
     </row>
-    <row r="200" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A200" s="6"/>
       <c r="B200" s="1" t="s">
         <v>395</v>
@@ -8084,7 +8084,7 @@
       </c>
       <c r="K200" s="7"/>
     </row>
-    <row r="201" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A201" s="6"/>
       <c r="B201" s="1" t="s">
         <v>396</v>
@@ -8106,7 +8106,7 @@
       </c>
       <c r="K201" s="7"/>
     </row>
-    <row r="202" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A202" s="6"/>
       <c r="B202" s="1" t="s">
         <v>397</v>
@@ -8128,7 +8128,7 @@
       </c>
       <c r="K202" s="7"/>
     </row>
-    <row r="203" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A203" s="6"/>
       <c r="B203" s="1" t="s">
         <v>398</v>
@@ -8150,7 +8150,7 @@
       </c>
       <c r="K203" s="7"/>
     </row>
-    <row r="204" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A204" s="6"/>
       <c r="B204" s="1" t="s">
         <v>399</v>
@@ -8172,7 +8172,7 @@
       </c>
       <c r="K204" s="7"/>
     </row>
-    <row r="205" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A205" s="6"/>
       <c r="B205" s="1" t="s">
         <v>400</v>
@@ -8194,7 +8194,7 @@
       </c>
       <c r="K205" s="7"/>
     </row>
-    <row r="206" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A206" s="6"/>
       <c r="B206" s="1" t="s">
         <v>401</v>
@@ -8216,7 +8216,7 @@
       </c>
       <c r="K206" s="7"/>
     </row>
-    <row r="207" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" s="6"/>
       <c r="B207" s="1" t="s">
         <v>402</v>
@@ -8238,7 +8238,7 @@
       </c>
       <c r="K207" s="7"/>
     </row>
-    <row r="208" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A208" s="6"/>
       <c r="B208" s="1" t="s">
         <v>403</v>
@@ -8260,7 +8260,7 @@
       </c>
       <c r="K208" s="7"/>
     </row>
-    <row r="209" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A209" s="6"/>
       <c r="B209" s="1" t="s">
         <v>404</v>
@@ -8282,7 +8282,7 @@
       </c>
       <c r="K209" s="7"/>
     </row>
-    <row r="210" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A210" s="6"/>
       <c r="B210" s="1" t="s">
         <v>405</v>
@@ -8304,7 +8304,7 @@
       </c>
       <c r="K210" s="7"/>
     </row>
-    <row r="211" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A211" s="6"/>
       <c r="B211" s="1" t="s">
         <v>406</v>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="K211" s="7"/>
     </row>
-    <row r="212" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A212" s="6"/>
       <c r="B212" s="1" t="s">
         <v>407</v>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="K212" s="7"/>
     </row>
-    <row r="213" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="6"/>
       <c r="B213" s="1" t="s">
         <v>408</v>
@@ -8370,7 +8370,7 @@
       </c>
       <c r="K213" s="7"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A214" s="6"/>
       <c r="B214" s="1" t="s">
         <v>410</v>
@@ -8386,7 +8386,7 @@
       </c>
       <c r="K214" s="7"/>
     </row>
-    <row r="215" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A215" s="6">
         <v>5</v>
       </c>
@@ -8404,7 +8404,7 @@
       </c>
       <c r="K215" s="7"/>
     </row>
-    <row r="216" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A216" s="6">
         <v>5.3</v>
       </c>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="K216" s="7"/>
     </row>
-    <row r="217" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A217" s="6">
         <v>5.5</v>
       </c>
@@ -8446,7 +8446,7 @@
       </c>
       <c r="K217" s="7"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A218" s="6"/>
       <c r="B218" s="1" t="s">
         <v>417</v>
@@ -8465,7 +8465,7 @@
       </c>
       <c r="K218" s="7"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A219" s="6"/>
       <c r="B219" s="1" t="s">
         <v>419</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="K219" s="7"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A220" s="6"/>
       <c r="B220" s="1" t="s">
         <v>421</v>
@@ -8503,7 +8503,7 @@
       </c>
       <c r="K220" s="7"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A221" s="6"/>
       <c r="B221" s="1" t="s">
         <v>423</v>
@@ -8522,7 +8522,7 @@
       </c>
       <c r="K221" s="7"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A222" s="6"/>
       <c r="B222" s="1" t="s">
         <v>425</v>
@@ -8541,7 +8541,7 @@
       </c>
       <c r="K222" s="7"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A223" s="6"/>
       <c r="B223" s="1" t="s">
         <v>427</v>
@@ -8560,7 +8560,7 @@
       </c>
       <c r="K223" s="7"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A224" s="6"/>
       <c r="B224" s="1" t="s">
         <v>429</v>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="K224" s="7"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A225" s="6"/>
       <c r="B225" s="1" t="s">
         <v>431</v>
@@ -8598,7 +8598,7 @@
       </c>
       <c r="K225" s="7"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A226" s="6"/>
       <c r="B226" s="1" t="s">
         <v>433</v>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="K226" s="7"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A227" s="6"/>
       <c r="B227" s="1" t="s">
         <v>435</v>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="K227" s="7"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A228" s="6"/>
       <c r="B228" s="1" t="s">
         <v>437</v>
@@ -8655,7 +8655,7 @@
       </c>
       <c r="K228" s="7"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A229" s="6"/>
       <c r="B229" s="1" t="s">
         <v>439</v>
@@ -8674,7 +8674,7 @@
       </c>
       <c r="K229" s="7"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A230" s="6"/>
       <c r="B230" s="1" t="s">
         <v>441</v>
@@ -8693,7 +8693,7 @@
       </c>
       <c r="K230" s="7"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A231" s="6"/>
       <c r="B231" s="1" t="s">
         <v>443</v>
@@ -8712,7 +8712,7 @@
       </c>
       <c r="K231" s="7"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A232" s="6"/>
       <c r="B232" s="1" t="s">
         <v>445</v>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="K232" s="7"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A233" s="6"/>
       <c r="B233" s="1" t="s">
         <v>447</v>
@@ -8750,7 +8750,7 @@
       </c>
       <c r="K233" s="7"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A234" s="6"/>
       <c r="B234" s="1" t="s">
         <v>449</v>
@@ -8769,7 +8769,7 @@
       </c>
       <c r="K234" s="7"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A235" s="6"/>
       <c r="B235" s="1" t="s">
         <v>451</v>
@@ -8788,7 +8788,7 @@
       </c>
       <c r="K235" s="7"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A236" s="6"/>
       <c r="B236" s="1" t="s">
         <v>453</v>
@@ -8807,7 +8807,7 @@
       </c>
       <c r="K236" s="7"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A237" s="6"/>
       <c r="B237" s="1" t="s">
         <v>455</v>
@@ -8826,7 +8826,7 @@
       </c>
       <c r="K237" s="7"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A238" s="6"/>
       <c r="B238" s="1" t="s">
         <v>457</v>
@@ -8845,7 +8845,7 @@
       </c>
       <c r="K238" s="7"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A239" s="6"/>
       <c r="B239" s="1" t="s">
         <v>459</v>
@@ -8864,7 +8864,7 @@
       </c>
       <c r="K239" s="7"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A240" s="6"/>
       <c r="B240" s="1" t="s">
         <v>460</v>
@@ -8883,7 +8883,7 @@
       </c>
       <c r="K240" s="7"/>
     </row>
-    <row r="241" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A241" s="6"/>
       <c r="B241" s="1">
         <v>506</v>
@@ -8902,7 +8902,7 @@
       </c>
       <c r="K241" s="7"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A242" s="6"/>
       <c r="B242" s="1" t="s">
         <v>464</v>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="K242" s="7"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A243" s="6"/>
       <c r="B243" s="1" t="s">
         <v>466</v>
@@ -8940,7 +8940,7 @@
       </c>
       <c r="K243" s="7"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A244" s="6"/>
       <c r="B244" s="1" t="s">
         <v>468</v>
@@ -8959,7 +8959,7 @@
       </c>
       <c r="K244" s="7"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A245" s="6"/>
       <c r="B245" s="1" t="s">
         <v>470</v>
@@ -8978,7 +8978,7 @@
       </c>
       <c r="K245" s="7"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A246" s="6"/>
       <c r="B246" s="1" t="s">
         <v>472</v>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="K246" s="7"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A247" s="6"/>
       <c r="B247" s="1" t="s">
         <v>474</v>
@@ -9016,7 +9016,7 @@
       </c>
       <c r="K247" s="7"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A248" s="6"/>
       <c r="B248" s="1" t="s">
         <v>476</v>
@@ -9035,7 +9035,7 @@
       </c>
       <c r="K248" s="7"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A249" s="6"/>
       <c r="B249" s="1" t="s">
         <v>478</v>
@@ -9054,7 +9054,7 @@
       </c>
       <c r="K249" s="7"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A250" s="6"/>
       <c r="B250" s="1" t="s">
         <v>480</v>
@@ -9073,7 +9073,7 @@
       </c>
       <c r="K250" s="7"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A251" s="6"/>
       <c r="B251" s="1" t="s">
         <v>481</v>
@@ -9092,7 +9092,7 @@
       </c>
       <c r="K251" s="7"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A252" s="6"/>
       <c r="B252" s="1" t="s">
         <v>482</v>
@@ -9111,7 +9111,7 @@
       </c>
       <c r="K252" s="7"/>
     </row>
-    <row r="253" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A253" s="6"/>
       <c r="B253" s="1">
         <v>507</v>
@@ -9130,7 +9130,7 @@
       </c>
       <c r="K253" s="7"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A254" s="6"/>
       <c r="B254" s="1" t="s">
         <v>485</v>
@@ -9149,7 +9149,7 @@
       </c>
       <c r="K254" s="7"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A255" s="6"/>
       <c r="B255" s="1" t="s">
         <v>487</v>
@@ -9168,7 +9168,7 @@
       </c>
       <c r="K255" s="7"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A256" s="6"/>
       <c r="B256" s="1" t="s">
         <v>489</v>
@@ -9187,7 +9187,7 @@
       </c>
       <c r="K256" s="7"/>
     </row>
-    <row r="257" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A257" s="6"/>
       <c r="B257" s="1" t="s">
         <v>491</v>
@@ -9206,7 +9206,7 @@
       </c>
       <c r="K257" s="7"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A258" s="6"/>
       <c r="B258" s="1" t="s">
         <v>493</v>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="K258" s="7"/>
     </row>
-    <row r="259" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A259" s="6"/>
       <c r="B259" s="1" t="s">
         <v>495</v>
@@ -9244,10 +9244,8 @@
       </c>
       <c r="K259" s="7"/>
     </row>
-    <row r="260" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A260" s="6">
-        <v>5.4</v>
-      </c>
+    <row r="260" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A260" s="6"/>
       <c r="B260" s="1">
         <v>508</v>
       </c>
@@ -9265,7 +9263,7 @@
       </c>
       <c r="K260" s="7"/>
     </row>
-    <row r="261" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A261" s="6">
         <v>5.5</v>
       </c>
@@ -9289,7 +9287,7 @@
       </c>
       <c r="K261" s="7"/>
     </row>
-    <row r="262" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A262" s="6" t="s">
         <v>1050</v>
       </c>
@@ -9310,7 +9308,7 @@
       </c>
       <c r="K262" s="7"/>
     </row>
-    <row r="263" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A263" s="6">
         <v>5.6</v>
       </c>
@@ -9334,7 +9332,7 @@
       </c>
       <c r="K263" s="7"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A264" s="6"/>
       <c r="B264" s="1" t="s">
         <v>505</v>
@@ -9350,7 +9348,7 @@
       </c>
       <c r="K264" s="7"/>
     </row>
-    <row r="265" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A265" s="6">
         <v>6</v>
       </c>
@@ -9368,7 +9366,7 @@
       </c>
       <c r="K265" s="7"/>
     </row>
-    <row r="266" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A266" s="6">
         <v>6.1</v>
       </c>
@@ -9389,7 +9387,7 @@
       </c>
       <c r="K266" s="7"/>
     </row>
-    <row r="267" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A267" s="6">
         <v>6.2</v>
       </c>
@@ -9410,7 +9408,7 @@
       </c>
       <c r="K267" s="7"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A268" s="6" t="s">
         <v>1051</v>
       </c>
@@ -9431,7 +9429,7 @@
       </c>
       <c r="K268" s="7"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A269" s="6" t="s">
         <v>1052</v>
       </c>
@@ -9452,7 +9450,7 @@
       </c>
       <c r="K269" s="7"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A270" s="6" t="s">
         <v>1053</v>
       </c>
@@ -9473,7 +9471,7 @@
       </c>
       <c r="K270" s="7"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A271" s="6" t="s">
         <v>1054</v>
       </c>
@@ -9494,7 +9492,7 @@
       </c>
       <c r="K271" s="7"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A272" s="6" t="s">
         <v>1055</v>
       </c>
@@ -9515,7 +9513,7 @@
       </c>
       <c r="K272" s="7"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A273" s="6" t="s">
         <v>1056</v>
       </c>
@@ -9536,7 +9534,7 @@
       </c>
       <c r="K273" s="7"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A274" s="6" t="s">
         <v>1057</v>
       </c>
@@ -9557,7 +9555,7 @@
       </c>
       <c r="K274" s="7"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A275" s="6" t="s">
         <v>1058</v>
       </c>
@@ -9578,7 +9576,7 @@
       </c>
       <c r="K275" s="7"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A276" s="6" t="s">
         <v>1059</v>
       </c>
@@ -9599,7 +9597,7 @@
       </c>
       <c r="K276" s="7"/>
     </row>
-    <row r="277" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A277" s="6">
         <v>6.3</v>
       </c>
@@ -9623,7 +9621,7 @@
       </c>
       <c r="K277" s="7"/>
     </row>
-    <row r="278" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A278" s="6"/>
       <c r="B278" s="1">
         <v>514</v>
@@ -9645,7 +9643,7 @@
       </c>
       <c r="K278" s="7"/>
     </row>
-    <row r="279" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A279" s="6"/>
       <c r="B279" s="1">
         <v>515</v>
@@ -9667,7 +9665,7 @@
       </c>
       <c r="K279" s="7"/>
     </row>
-    <row r="280" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A280" s="6"/>
       <c r="B280" s="1">
         <v>516</v>
@@ -9689,7 +9687,7 @@
       </c>
       <c r="K280" s="7"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A281" s="6"/>
       <c r="B281" s="1" t="s">
         <v>525</v>
@@ -9705,7 +9703,7 @@
       </c>
       <c r="K281" s="7"/>
     </row>
-    <row r="282" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A282" s="6"/>
       <c r="B282" s="1" t="s">
         <v>527</v>
@@ -9721,7 +9719,7 @@
       </c>
       <c r="K282" s="7"/>
     </row>
-    <row r="283" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A283" s="6"/>
       <c r="B283" s="1">
         <v>517</v>
@@ -9740,7 +9738,7 @@
       </c>
       <c r="K283" s="7"/>
     </row>
-    <row r="284" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A284" s="6"/>
       <c r="B284" s="1" t="s">
         <v>530</v>
@@ -9759,7 +9757,7 @@
       </c>
       <c r="K284" s="7"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A285" s="6"/>
       <c r="B285" s="1" t="s">
         <v>533</v>
@@ -9778,7 +9776,7 @@
       </c>
       <c r="K285" s="7"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A286" s="6"/>
       <c r="B286" s="1" t="s">
         <v>534</v>
@@ -9797,7 +9795,7 @@
       </c>
       <c r="K286" s="7"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A287" s="6"/>
       <c r="B287" s="1" t="s">
         <v>536</v>
@@ -9816,7 +9814,7 @@
       </c>
       <c r="K287" s="7"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A288" s="6"/>
       <c r="B288" s="1" t="s">
         <v>538</v>
@@ -9835,7 +9833,7 @@
       </c>
       <c r="K288" s="7"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A289" s="6"/>
       <c r="B289" s="1" t="s">
         <v>540</v>
@@ -9854,7 +9852,7 @@
       </c>
       <c r="K289" s="7"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A290" s="6"/>
       <c r="B290" s="1" t="s">
         <v>542</v>
@@ -9873,7 +9871,7 @@
       </c>
       <c r="K290" s="7"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A291" s="6"/>
       <c r="B291" s="1" t="s">
         <v>544</v>
@@ -9892,7 +9890,7 @@
       </c>
       <c r="K291" s="7"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A292" s="6"/>
       <c r="B292" s="1" t="s">
         <v>546</v>
@@ -9911,7 +9909,7 @@
       </c>
       <c r="K292" s="7"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A293" s="6"/>
       <c r="B293" s="1" t="s">
         <v>547</v>
@@ -9930,7 +9928,7 @@
       </c>
       <c r="K293" s="7"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A294" s="6"/>
       <c r="B294" s="1" t="s">
         <v>548</v>
@@ -9949,7 +9947,7 @@
       </c>
       <c r="K294" s="7"/>
     </row>
-    <row r="295" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A295" s="6"/>
       <c r="B295" s="1">
         <v>519</v>
@@ -9971,7 +9969,7 @@
       </c>
       <c r="K295" s="7"/>
     </row>
-    <row r="296" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A296" s="6"/>
       <c r="B296" s="1">
         <v>520</v>
@@ -9993,7 +9991,7 @@
       </c>
       <c r="K296" s="7"/>
     </row>
-    <row r="297" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A297" s="6"/>
       <c r="B297" s="1" t="s">
         <v>554</v>
@@ -10012,7 +10010,7 @@
       </c>
       <c r="K297" s="7"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A298" s="6"/>
       <c r="B298" s="1" t="s">
         <v>556</v>
@@ -10028,7 +10026,7 @@
       </c>
       <c r="K298" s="7"/>
     </row>
-    <row r="299" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A299" s="6"/>
       <c r="B299" s="1" t="s">
         <v>558</v>
@@ -10044,7 +10042,7 @@
       </c>
       <c r="K299" s="7"/>
     </row>
-    <row r="300" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A300" s="6"/>
       <c r="B300" s="1">
         <v>601</v>
@@ -10063,7 +10061,7 @@
       </c>
       <c r="K300" s="7"/>
     </row>
-    <row r="301" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A301" s="6"/>
       <c r="B301" s="1">
         <v>602</v>
@@ -10082,7 +10080,7 @@
       </c>
       <c r="K301" s="7"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A302" s="6"/>
       <c r="B302" s="1" t="s">
         <v>58</v>
@@ -10101,7 +10099,7 @@
       </c>
       <c r="K302" s="7"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A303" s="6"/>
       <c r="B303" s="1" t="s">
         <v>59</v>
@@ -10120,7 +10118,7 @@
       </c>
       <c r="K303" s="7"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A304" s="6"/>
       <c r="B304" s="1" t="s">
         <v>60</v>
@@ -10139,7 +10137,7 @@
       </c>
       <c r="K304" s="7"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A305" s="6"/>
       <c r="B305" s="1" t="s">
         <v>61</v>
@@ -10158,7 +10156,7 @@
       </c>
       <c r="K305" s="7"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A306" s="6"/>
       <c r="B306" s="1" t="s">
         <v>62</v>
@@ -10177,7 +10175,7 @@
       </c>
       <c r="K306" s="7"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A307" s="6"/>
       <c r="B307" s="1" t="s">
         <v>63</v>
@@ -10196,7 +10194,7 @@
       </c>
       <c r="K307" s="7"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A308" s="6"/>
       <c r="B308" s="1" t="s">
         <v>64</v>
@@ -10215,7 +10213,7 @@
       </c>
       <c r="K308" s="7"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A309" s="6"/>
       <c r="B309" s="1" t="s">
         <v>65</v>
@@ -10234,7 +10232,7 @@
       </c>
       <c r="K309" s="7"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A310" s="6"/>
       <c r="B310" s="1" t="s">
         <v>66</v>
@@ -10253,7 +10251,7 @@
       </c>
       <c r="K310" s="7"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A311" s="6"/>
       <c r="B311" s="1" t="s">
         <v>67</v>
@@ -10272,7 +10270,7 @@
       </c>
       <c r="K311" s="7"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A312" s="6"/>
       <c r="B312" s="1" t="s">
         <v>68</v>
@@ -10291,7 +10289,7 @@
       </c>
       <c r="K312" s="7"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A313" s="6"/>
       <c r="B313" s="1" t="s">
         <v>69</v>
@@ -10310,7 +10308,7 @@
       </c>
       <c r="K313" s="7"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A314" s="6"/>
       <c r="B314" s="1" t="s">
         <v>70</v>
@@ -10329,7 +10327,7 @@
       </c>
       <c r="K314" s="7"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A315" s="6"/>
       <c r="B315" s="1" t="s">
         <v>71</v>
@@ -10348,7 +10346,7 @@
       </c>
       <c r="K315" s="7"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A316" s="6"/>
       <c r="B316" s="1" t="s">
         <v>72</v>
@@ -10367,7 +10365,7 @@
       </c>
       <c r="K316" s="7"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A317" s="6"/>
       <c r="B317" s="1" t="s">
         <v>73</v>
@@ -10386,7 +10384,7 @@
       </c>
       <c r="K317" s="7"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A318" s="6"/>
       <c r="B318" s="1" t="s">
         <v>74</v>
@@ -10405,7 +10403,7 @@
       </c>
       <c r="K318" s="7"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A319" s="6"/>
       <c r="B319" s="1" t="s">
         <v>75</v>
@@ -10424,7 +10422,7 @@
       </c>
       <c r="K319" s="7"/>
     </row>
-    <row r="320" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A320" s="6"/>
       <c r="B320" s="1">
         <v>603</v>
@@ -10446,7 +10444,7 @@
       </c>
       <c r="K320" s="7"/>
     </row>
-    <row r="321" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A321" s="6"/>
       <c r="B321" s="1">
         <v>604</v>
@@ -10465,7 +10463,7 @@
       </c>
       <c r="K321" s="7"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A322" s="6"/>
       <c r="B322" s="1" t="s">
         <v>578</v>
@@ -10484,7 +10482,7 @@
       </c>
       <c r="K322" s="7"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A323" s="6"/>
       <c r="B323" s="1" t="s">
         <v>580</v>
@@ -10503,7 +10501,7 @@
       </c>
       <c r="K323" s="7"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A324" s="6"/>
       <c r="B324" s="1" t="s">
         <v>582</v>
@@ -10522,7 +10520,7 @@
       </c>
       <c r="K324" s="7"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A325" s="6"/>
       <c r="B325" s="1" t="s">
         <v>584</v>
@@ -10541,7 +10539,7 @@
       </c>
       <c r="K325" s="7"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A326" s="6"/>
       <c r="B326" s="1" t="s">
         <v>586</v>
@@ -10560,7 +10558,7 @@
       </c>
       <c r="K326" s="7"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A327" s="6"/>
       <c r="B327" s="1" t="s">
         <v>588</v>
@@ -10579,7 +10577,7 @@
       </c>
       <c r="K327" s="7"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A328" s="6"/>
       <c r="B328" s="1" t="s">
         <v>589</v>
@@ -10598,7 +10596,7 @@
       </c>
       <c r="K328" s="7"/>
     </row>
-    <row r="329" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A329" s="6"/>
       <c r="B329" s="1">
         <v>605</v>
@@ -10620,7 +10618,7 @@
       </c>
       <c r="K329" s="7"/>
     </row>
-    <row r="330" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A330" s="6"/>
       <c r="B330" s="1" t="s">
         <v>76</v>
@@ -10639,7 +10637,7 @@
       </c>
       <c r="K330" s="7"/>
     </row>
-    <row r="331" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A331" s="6"/>
       <c r="B331" s="1">
         <v>606</v>
@@ -10661,7 +10659,7 @@
       </c>
       <c r="K331" s="7"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A332" s="6"/>
       <c r="B332" s="1" t="s">
         <v>597</v>
@@ -10677,7 +10675,7 @@
       </c>
       <c r="K332" s="7"/>
     </row>
-    <row r="333" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" ht="203" x14ac:dyDescent="0.35">
       <c r="A333" s="6"/>
       <c r="B333" s="1" t="s">
         <v>599</v>
@@ -10693,7 +10691,7 @@
       </c>
       <c r="K333" s="7"/>
     </row>
-    <row r="334" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A334" s="6"/>
       <c r="B334" s="1" t="s">
         <v>601</v>
@@ -10709,7 +10707,7 @@
       </c>
       <c r="K334" s="7"/>
     </row>
-    <row r="335" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A335" s="6"/>
       <c r="B335" s="1" t="s">
         <v>603</v>
@@ -10728,7 +10726,7 @@
       </c>
       <c r="K335" s="7"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A336" s="6"/>
       <c r="B336" s="1" t="s">
         <v>605</v>
@@ -10747,7 +10745,7 @@
       </c>
       <c r="K336" s="7"/>
     </row>
-    <row r="337" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A337" s="6"/>
       <c r="B337" s="1" t="s">
         <v>607</v>
@@ -10766,7 +10764,7 @@
       </c>
       <c r="K337" s="7"/>
     </row>
-    <row r="338" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A338" s="6"/>
       <c r="B338" s="1" t="s">
         <v>609</v>
@@ -10785,7 +10783,7 @@
       </c>
       <c r="K338" s="7"/>
     </row>
-    <row r="339" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A339" s="6"/>
       <c r="B339" s="1" t="s">
         <v>611</v>
@@ -10804,7 +10802,7 @@
       </c>
       <c r="K339" s="7"/>
     </row>
-    <row r="340" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A340" s="6"/>
       <c r="B340" s="1" t="s">
         <v>613</v>
@@ -10823,7 +10821,7 @@
       </c>
       <c r="K340" s="7"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A341" s="6"/>
       <c r="B341" s="1" t="s">
         <v>615</v>
@@ -10842,7 +10840,7 @@
       </c>
       <c r="K341" s="7"/>
     </row>
-    <row r="342" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A342" s="6"/>
       <c r="B342" s="1" t="s">
         <v>617</v>
@@ -10861,7 +10859,7 @@
       </c>
       <c r="K342" s="7"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A343" s="6"/>
       <c r="B343" s="1" t="s">
         <v>619</v>
@@ -10880,7 +10878,7 @@
       </c>
       <c r="K343" s="7"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A344" s="6"/>
       <c r="B344" s="1" t="s">
         <v>621</v>
@@ -10899,7 +10897,7 @@
       </c>
       <c r="K344" s="7"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A345" s="6"/>
       <c r="B345" s="1" t="s">
         <v>623</v>
@@ -10918,7 +10916,7 @@
       </c>
       <c r="K345" s="7"/>
     </row>
-    <row r="346" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A346" s="6"/>
       <c r="B346" s="1" t="s">
         <v>625</v>
@@ -10934,7 +10932,7 @@
       </c>
       <c r="K346" s="7"/>
     </row>
-    <row r="347" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A347" s="6"/>
       <c r="B347" s="1" t="s">
         <v>626</v>
@@ -10956,7 +10954,7 @@
       </c>
       <c r="K347" s="7"/>
     </row>
-    <row r="348" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A348" s="6"/>
       <c r="B348" s="1" t="s">
         <v>629</v>
@@ -10978,7 +10976,7 @@
       </c>
       <c r="K348" s="7"/>
     </row>
-    <row r="349" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A349" s="6"/>
       <c r="B349" s="1" t="s">
         <v>631</v>
@@ -11000,7 +10998,7 @@
       </c>
       <c r="K349" s="7"/>
     </row>
-    <row r="350" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A350" s="6"/>
       <c r="B350" s="1" t="s">
         <v>633</v>
@@ -11022,7 +11020,7 @@
       </c>
       <c r="K350" s="7"/>
     </row>
-    <row r="351" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A351" s="6"/>
       <c r="B351" s="1" t="s">
         <v>635</v>
@@ -11044,7 +11042,7 @@
       </c>
       <c r="K351" s="7"/>
     </row>
-    <row r="352" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A352" s="6"/>
       <c r="B352" s="1" t="s">
         <v>637</v>
@@ -11066,7 +11064,7 @@
       </c>
       <c r="K352" s="7"/>
     </row>
-    <row r="353" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A353" s="6"/>
       <c r="B353" s="1" t="s">
         <v>639</v>
@@ -11088,7 +11086,7 @@
       </c>
       <c r="K353" s="7"/>
     </row>
-    <row r="354" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A354" s="6"/>
       <c r="B354" s="1" t="s">
         <v>641</v>
@@ -11110,7 +11108,7 @@
       </c>
       <c r="K354" s="7"/>
     </row>
-    <row r="355" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A355" s="6"/>
       <c r="B355" s="1" t="s">
         <v>643</v>
@@ -11132,7 +11130,7 @@
       </c>
       <c r="K355" s="7"/>
     </row>
-    <row r="356" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A356" s="6"/>
       <c r="B356" s="1" t="s">
         <v>645</v>
@@ -11154,7 +11152,7 @@
       </c>
       <c r="K356" s="7"/>
     </row>
-    <row r="357" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A357" s="6"/>
       <c r="B357" s="1" t="s">
         <v>647</v>
@@ -11176,7 +11174,7 @@
       </c>
       <c r="K357" s="7"/>
     </row>
-    <row r="358" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A358" s="6"/>
       <c r="B358" s="1" t="s">
         <v>650</v>
@@ -11192,7 +11190,7 @@
       </c>
       <c r="K358" s="7"/>
     </row>
-    <row r="359" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A359" s="6"/>
       <c r="B359" s="1" t="s">
         <v>651</v>
@@ -11214,7 +11212,7 @@
       </c>
       <c r="K359" s="7"/>
     </row>
-    <row r="360" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A360" s="6"/>
       <c r="B360" s="1" t="s">
         <v>653</v>
@@ -11236,7 +11234,7 @@
       </c>
       <c r="K360" s="7"/>
     </row>
-    <row r="361" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A361" s="6"/>
       <c r="B361" s="1" t="s">
         <v>654</v>
@@ -11258,7 +11256,7 @@
       </c>
       <c r="K361" s="7"/>
     </row>
-    <row r="362" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A362" s="6"/>
       <c r="B362" s="1" t="s">
         <v>655</v>
@@ -11280,7 +11278,7 @@
       </c>
       <c r="K362" s="7"/>
     </row>
-    <row r="363" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A363" s="6"/>
       <c r="B363" s="1" t="s">
         <v>656</v>
@@ -11302,7 +11300,7 @@
       </c>
       <c r="K363" s="7"/>
     </row>
-    <row r="364" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A364" s="6"/>
       <c r="B364" s="1" t="s">
         <v>657</v>
@@ -11324,7 +11322,7 @@
       </c>
       <c r="K364" s="7"/>
     </row>
-    <row r="365" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A365" s="6"/>
       <c r="B365" s="1" t="s">
         <v>658</v>
@@ -11346,7 +11344,7 @@
       </c>
       <c r="K365" s="7"/>
     </row>
-    <row r="366" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A366" s="6"/>
       <c r="B366" s="1" t="s">
         <v>659</v>
@@ -11368,7 +11366,7 @@
       </c>
       <c r="K366" s="7"/>
     </row>
-    <row r="367" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A367" s="6"/>
       <c r="B367" s="1" t="s">
         <v>660</v>
@@ -11390,7 +11388,7 @@
       </c>
       <c r="K367" s="7"/>
     </row>
-    <row r="368" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A368" s="6"/>
       <c r="B368" s="1" t="s">
         <v>661</v>
@@ -11412,7 +11410,7 @@
       </c>
       <c r="K368" s="7"/>
     </row>
-    <row r="369" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A369" s="6"/>
       <c r="B369" s="1" t="s">
         <v>662</v>
@@ -11434,7 +11432,7 @@
       </c>
       <c r="K369" s="7"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A370" s="6"/>
       <c r="B370" s="1" t="s">
         <v>664</v>
@@ -11450,7 +11448,7 @@
       </c>
       <c r="K370" s="7"/>
     </row>
-    <row r="371" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" ht="203" x14ac:dyDescent="0.35">
       <c r="A371" s="6">
         <v>7</v>
       </c>
@@ -11468,7 +11466,7 @@
       </c>
       <c r="K371" s="7"/>
     </row>
-    <row r="372" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A372" s="6">
         <v>7.1</v>
       </c>
@@ -11489,7 +11487,7 @@
       </c>
       <c r="K372" s="7"/>
     </row>
-    <row r="373" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A373" s="6">
         <v>7.2</v>
       </c>
@@ -11513,7 +11511,7 @@
       </c>
       <c r="K373" s="7"/>
     </row>
-    <row r="374" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A374" s="6">
         <v>7.3</v>
       </c>
@@ -11537,7 +11535,7 @@
       </c>
       <c r="K374" s="7"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A375" s="6"/>
       <c r="B375" s="1" t="s">
         <v>674</v>
@@ -11553,7 +11551,7 @@
       </c>
       <c r="K375" s="7"/>
     </row>
-    <row r="376" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A376" s="6"/>
       <c r="B376" s="1" t="s">
         <v>676</v>
@@ -11569,7 +11567,7 @@
       </c>
       <c r="K376" s="7"/>
     </row>
-    <row r="377" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A377" s="6"/>
       <c r="B377" s="1" t="s">
         <v>678</v>
@@ -11585,7 +11583,7 @@
       </c>
       <c r="K377" s="7"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A378" s="6"/>
       <c r="B378" s="1" t="s">
         <v>680</v>
@@ -11604,7 +11602,7 @@
       </c>
       <c r="K378" s="7"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A379" s="6"/>
       <c r="B379" s="1" t="s">
         <v>682</v>
@@ -11623,7 +11621,7 @@
       </c>
       <c r="K379" s="7"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A380" s="6"/>
       <c r="B380" s="1" t="s">
         <v>684</v>
@@ -11642,7 +11640,7 @@
       </c>
       <c r="K380" s="7"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A381" s="6"/>
       <c r="B381" s="1" t="s">
         <v>686</v>
@@ -11661,7 +11659,7 @@
       </c>
       <c r="K381" s="7"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A382" s="6"/>
       <c r="B382" s="1" t="s">
         <v>688</v>
@@ -11680,7 +11678,7 @@
       </c>
       <c r="K382" s="7"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A383" s="6"/>
       <c r="B383" s="1" t="s">
         <v>690</v>
@@ -11699,7 +11697,7 @@
       </c>
       <c r="K383" s="7"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A384" s="6"/>
       <c r="B384" s="1" t="s">
         <v>691</v>
@@ -11718,7 +11716,7 @@
       </c>
       <c r="K384" s="7"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A385" s="6"/>
       <c r="B385" s="1" t="s">
         <v>692</v>
@@ -11737,7 +11735,7 @@
       </c>
       <c r="K385" s="7"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A386" s="6"/>
       <c r="B386" s="1" t="s">
         <v>694</v>
@@ -11756,7 +11754,7 @@
       </c>
       <c r="K386" s="7"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A387" s="6"/>
       <c r="B387" s="1" t="s">
         <v>696</v>
@@ -11775,7 +11773,7 @@
       </c>
       <c r="K387" s="7"/>
     </row>
-    <row r="388" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A388" s="6"/>
       <c r="B388" s="1" t="s">
         <v>698</v>
@@ -11791,7 +11789,7 @@
       </c>
       <c r="K388" s="7"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A389" s="6"/>
       <c r="B389" s="1" t="s">
         <v>699</v>
@@ -11810,7 +11808,7 @@
       </c>
       <c r="K389" s="7"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A390" s="6"/>
       <c r="B390" s="1" t="s">
         <v>700</v>
@@ -11829,7 +11827,7 @@
       </c>
       <c r="K390" s="7"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A391" s="6"/>
       <c r="B391" s="1" t="s">
         <v>701</v>
@@ -11848,7 +11846,7 @@
       </c>
       <c r="K391" s="7"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A392" s="6"/>
       <c r="B392" s="1" t="s">
         <v>702</v>
@@ -11867,7 +11865,7 @@
       </c>
       <c r="K392" s="7"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A393" s="6"/>
       <c r="B393" s="1" t="s">
         <v>703</v>
@@ -11886,7 +11884,7 @@
       </c>
       <c r="K393" s="7"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A394" s="6"/>
       <c r="B394" s="1" t="s">
         <v>704</v>
@@ -11905,7 +11903,7 @@
       </c>
       <c r="K394" s="7"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A395" s="6"/>
       <c r="B395" s="1" t="s">
         <v>705</v>
@@ -11924,7 +11922,7 @@
       </c>
       <c r="K395" s="7"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A396" s="6"/>
       <c r="B396" s="1" t="s">
         <v>706</v>
@@ -11943,7 +11941,7 @@
       </c>
       <c r="K396" s="7"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A397" s="6"/>
       <c r="B397" s="1" t="s">
         <v>707</v>
@@ -11962,7 +11960,7 @@
       </c>
       <c r="K397" s="7"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A398" s="6"/>
       <c r="B398" s="1" t="s">
         <v>708</v>
@@ -11981,7 +11979,7 @@
       </c>
       <c r="K398" s="7"/>
     </row>
-    <row r="399" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A399" s="6"/>
       <c r="B399" s="1" t="s">
         <v>710</v>
@@ -11997,7 +11995,7 @@
       </c>
       <c r="K399" s="7"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A400" s="6"/>
       <c r="B400" s="1" t="s">
         <v>711</v>
@@ -12016,7 +12014,7 @@
       </c>
       <c r="K400" s="7"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A401" s="6"/>
       <c r="B401" s="1" t="s">
         <v>712</v>
@@ -12035,7 +12033,7 @@
       </c>
       <c r="K401" s="7"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A402" s="6"/>
       <c r="B402" s="1" t="s">
         <v>713</v>
@@ -12054,7 +12052,7 @@
       </c>
       <c r="K402" s="7"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A403" s="6"/>
       <c r="B403" s="1" t="s">
         <v>714</v>
@@ -12073,7 +12071,7 @@
       </c>
       <c r="K403" s="7"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A404" s="6"/>
       <c r="B404" s="1" t="s">
         <v>715</v>
@@ -12092,7 +12090,7 @@
       </c>
       <c r="K404" s="7"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A405" s="6"/>
       <c r="B405" s="1" t="s">
         <v>716</v>
@@ -12111,7 +12109,7 @@
       </c>
       <c r="K405" s="7"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A406" s="6"/>
       <c r="B406" s="1" t="s">
         <v>717</v>
@@ -12130,7 +12128,7 @@
       </c>
       <c r="K406" s="7"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A407" s="6"/>
       <c r="B407" s="1" t="s">
         <v>718</v>
@@ -12149,7 +12147,7 @@
       </c>
       <c r="K407" s="7"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A408" s="6"/>
       <c r="B408" s="1" t="s">
         <v>719</v>
@@ -12168,7 +12166,7 @@
       </c>
       <c r="K408" s="7"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A409" s="6"/>
       <c r="B409" s="1" t="s">
         <v>720</v>
@@ -12187,7 +12185,7 @@
       </c>
       <c r="K409" s="7"/>
     </row>
-    <row r="410" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A410" s="6"/>
       <c r="B410" s="1" t="s">
         <v>722</v>
@@ -12203,7 +12201,7 @@
       </c>
       <c r="K410" s="7"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A411" s="6"/>
       <c r="B411" s="1" t="s">
         <v>723</v>
@@ -12222,7 +12220,7 @@
       </c>
       <c r="K411" s="7"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A412" s="6"/>
       <c r="B412" s="1" t="s">
         <v>724</v>
@@ -12241,7 +12239,7 @@
       </c>
       <c r="K412" s="7"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A413" s="6"/>
       <c r="B413" s="1" t="s">
         <v>725</v>
@@ -12260,7 +12258,7 @@
       </c>
       <c r="K413" s="7"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A414" s="6"/>
       <c r="B414" s="1" t="s">
         <v>726</v>
@@ -12279,7 +12277,7 @@
       </c>
       <c r="K414" s="7"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A415" s="6"/>
       <c r="B415" s="1" t="s">
         <v>727</v>
@@ -12298,7 +12296,7 @@
       </c>
       <c r="K415" s="7"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A416" s="6"/>
       <c r="B416" s="1" t="s">
         <v>728</v>
@@ -12317,7 +12315,7 @@
       </c>
       <c r="K416" s="7"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A417" s="6"/>
       <c r="B417" s="1" t="s">
         <v>729</v>
@@ -12336,7 +12334,7 @@
       </c>
       <c r="K417" s="7"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A418" s="6"/>
       <c r="B418" s="1" t="s">
         <v>730</v>
@@ -12355,7 +12353,7 @@
       </c>
       <c r="K418" s="7"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A419" s="6"/>
       <c r="B419" s="1" t="s">
         <v>731</v>
@@ -12374,7 +12372,7 @@
       </c>
       <c r="K419" s="7"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A420" s="6"/>
       <c r="B420" s="1" t="s">
         <v>732</v>
@@ -12393,7 +12391,7 @@
       </c>
       <c r="K420" s="7"/>
     </row>
-    <row r="421" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A421" s="6"/>
       <c r="B421" s="1">
         <v>617</v>
@@ -12412,7 +12410,7 @@
       </c>
       <c r="K421" s="7"/>
     </row>
-    <row r="422" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A422" s="6"/>
       <c r="B422" s="1" t="s">
         <v>735</v>
@@ -12431,7 +12429,7 @@
       </c>
       <c r="K422" s="7"/>
     </row>
-    <row r="423" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A423" s="6"/>
       <c r="B423" s="1" t="s">
         <v>738</v>
@@ -12450,7 +12448,7 @@
       </c>
       <c r="K423" s="7"/>
     </row>
-    <row r="424" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A424" s="6"/>
       <c r="B424" s="1" t="s">
         <v>740</v>
@@ -12469,7 +12467,7 @@
       </c>
       <c r="K424" s="7"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A425" s="6"/>
       <c r="B425" s="1" t="s">
         <v>742</v>
@@ -12488,7 +12486,7 @@
       </c>
       <c r="K425" s="7"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A426" s="6"/>
       <c r="B426" s="1" t="s">
         <v>743</v>
@@ -12507,7 +12505,7 @@
       </c>
       <c r="K426" s="7"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A427" s="6"/>
       <c r="B427" s="1" t="s">
         <v>744</v>
@@ -12526,7 +12524,7 @@
       </c>
       <c r="K427" s="7"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A428" s="6"/>
       <c r="B428" s="1" t="s">
         <v>745</v>
@@ -12545,7 +12543,7 @@
       </c>
       <c r="K428" s="7"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A429" s="6"/>
       <c r="B429" s="1" t="s">
         <v>746</v>
@@ -12564,7 +12562,7 @@
       </c>
       <c r="K429" s="7"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A430" s="6"/>
       <c r="B430" s="1" t="s">
         <v>747</v>
@@ -12583,7 +12581,7 @@
       </c>
       <c r="K430" s="7"/>
     </row>
-    <row r="431" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A431" s="6"/>
       <c r="B431" s="1" t="s">
         <v>749</v>
@@ -12602,7 +12600,7 @@
       </c>
       <c r="K431" s="7"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A432" s="6"/>
       <c r="B432" s="1" t="s">
         <v>750</v>
@@ -12621,7 +12619,7 @@
       </c>
       <c r="K432" s="7"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A433" s="6"/>
       <c r="B433" s="1" t="s">
         <v>751</v>
@@ -12640,7 +12638,7 @@
       </c>
       <c r="K433" s="7"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A434" s="6"/>
       <c r="B434" s="1" t="s">
         <v>752</v>
@@ -12659,7 +12657,7 @@
       </c>
       <c r="K434" s="7"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A435" s="6"/>
       <c r="B435" s="1" t="s">
         <v>753</v>
@@ -12678,7 +12676,7 @@
       </c>
       <c r="K435" s="7"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A436" s="6"/>
       <c r="B436" s="1" t="s">
         <v>754</v>
@@ -12697,7 +12695,7 @@
       </c>
       <c r="K436" s="7"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A437" s="6"/>
       <c r="B437" s="1" t="s">
         <v>755</v>
@@ -12716,7 +12714,7 @@
       </c>
       <c r="K437" s="7"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A438" s="6"/>
       <c r="B438" s="1" t="s">
         <v>756</v>
@@ -12735,7 +12733,7 @@
       </c>
       <c r="K438" s="7"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A439" s="6"/>
       <c r="B439" s="1" t="s">
         <v>757</v>
@@ -12754,7 +12752,7 @@
       </c>
       <c r="K439" s="7"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A440" s="6"/>
       <c r="B440" s="1" t="s">
         <v>758</v>
@@ -12773,7 +12771,7 @@
       </c>
       <c r="K440" s="7"/>
     </row>
-    <row r="441" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A441" s="6"/>
       <c r="B441" s="1">
         <v>620</v>
@@ -12792,7 +12790,7 @@
       </c>
       <c r="K441" s="7"/>
     </row>
-    <row r="442" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A442" s="6"/>
       <c r="B442" s="1" t="s">
         <v>761</v>
@@ -12811,7 +12809,7 @@
       </c>
       <c r="K442" s="7"/>
     </row>
-    <row r="443" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A443" s="6"/>
       <c r="B443" s="1" t="s">
         <v>763</v>
@@ -12830,7 +12828,7 @@
       </c>
       <c r="K443" s="7"/>
     </row>
-    <row r="444" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A444" s="6"/>
       <c r="B444" s="1" t="s">
         <v>764</v>
@@ -12849,7 +12847,7 @@
       </c>
       <c r="K444" s="7"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A445" s="6"/>
       <c r="B445" s="1" t="s">
         <v>765</v>
@@ -12868,7 +12866,7 @@
       </c>
       <c r="K445" s="7"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A446" s="6"/>
       <c r="B446" s="1" t="s">
         <v>766</v>
@@ -12887,7 +12885,7 @@
       </c>
       <c r="K446" s="7"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A447" s="6"/>
       <c r="B447" s="1" t="s">
         <v>767</v>
@@ -12906,7 +12904,7 @@
       </c>
       <c r="K447" s="7"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A448" s="6"/>
       <c r="B448" s="1" t="s">
         <v>768</v>
@@ -12925,7 +12923,7 @@
       </c>
       <c r="K448" s="7"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A449" s="6"/>
       <c r="B449" s="1" t="s">
         <v>769</v>
@@ -12944,7 +12942,7 @@
       </c>
       <c r="K449" s="7"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A450" s="6"/>
       <c r="B450" s="1" t="s">
         <v>770</v>
@@ -12963,7 +12961,7 @@
       </c>
       <c r="K450" s="7"/>
     </row>
-    <row r="451" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A451" s="6"/>
       <c r="B451" s="1" t="s">
         <v>772</v>
@@ -12982,7 +12980,7 @@
       </c>
       <c r="K451" s="7"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A452" s="6"/>
       <c r="B452" s="1" t="s">
         <v>773</v>
@@ -13001,7 +12999,7 @@
       </c>
       <c r="K452" s="7"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A453" s="6"/>
       <c r="B453" s="1" t="s">
         <v>774</v>
@@ -13020,7 +13018,7 @@
       </c>
       <c r="K453" s="7"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A454" s="6"/>
       <c r="B454" s="1" t="s">
         <v>775</v>
@@ -13039,7 +13037,7 @@
       </c>
       <c r="K454" s="7"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A455" s="6"/>
       <c r="B455" s="1" t="s">
         <v>776</v>
@@ -13058,7 +13056,7 @@
       </c>
       <c r="K455" s="7"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A456" s="6"/>
       <c r="B456" s="1" t="s">
         <v>777</v>
@@ -13077,7 +13075,7 @@
       </c>
       <c r="K456" s="7"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A457" s="6"/>
       <c r="B457" s="1" t="s">
         <v>778</v>
@@ -13096,7 +13094,7 @@
       </c>
       <c r="K457" s="7"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A458" s="6"/>
       <c r="B458" s="1" t="s">
         <v>779</v>
@@ -13115,7 +13113,7 @@
       </c>
       <c r="K458" s="7"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A459" s="6"/>
       <c r="B459" s="1" t="s">
         <v>780</v>
@@ -13134,7 +13132,7 @@
       </c>
       <c r="K459" s="7"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A460" s="6"/>
       <c r="B460" s="1" t="s">
         <v>781</v>
@@ -13153,7 +13151,7 @@
       </c>
       <c r="K460" s="7"/>
     </row>
-    <row r="461" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A461" s="6"/>
       <c r="B461" s="1">
         <v>623</v>
@@ -13172,7 +13170,7 @@
       </c>
       <c r="K461" s="7"/>
     </row>
-    <row r="462" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A462" s="6"/>
       <c r="B462" s="1" t="s">
         <v>784</v>
@@ -13191,7 +13189,7 @@
       </c>
       <c r="K462" s="7"/>
     </row>
-    <row r="463" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A463" s="6"/>
       <c r="B463" s="1" t="s">
         <v>786</v>
@@ -13210,7 +13208,7 @@
       </c>
       <c r="K463" s="7"/>
     </row>
-    <row r="464" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A464" s="6"/>
       <c r="B464" s="1" t="s">
         <v>787</v>
@@ -13229,7 +13227,7 @@
       </c>
       <c r="K464" s="7"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A465" s="6"/>
       <c r="B465" s="1" t="s">
         <v>788</v>
@@ -13248,7 +13246,7 @@
       </c>
       <c r="K465" s="7"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A466" s="6"/>
       <c r="B466" s="1" t="s">
         <v>789</v>
@@ -13267,7 +13265,7 @@
       </c>
       <c r="K466" s="7"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A467" s="6"/>
       <c r="B467" s="1" t="s">
         <v>790</v>
@@ -13286,7 +13284,7 @@
       </c>
       <c r="K467" s="7"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A468" s="6"/>
       <c r="B468" s="1" t="s">
         <v>791</v>
@@ -13305,7 +13303,7 @@
       </c>
       <c r="K468" s="7"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A469" s="6"/>
       <c r="B469" s="1" t="s">
         <v>792</v>
@@ -13324,7 +13322,7 @@
       </c>
       <c r="K469" s="7"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A470" s="6"/>
       <c r="B470" s="1" t="s">
         <v>793</v>
@@ -13343,7 +13341,7 @@
       </c>
       <c r="K470" s="7"/>
     </row>
-    <row r="471" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A471" s="6"/>
       <c r="B471" s="1" t="s">
         <v>795</v>
@@ -13362,7 +13360,7 @@
       </c>
       <c r="K471" s="7"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A472" s="6"/>
       <c r="B472" s="1" t="s">
         <v>796</v>
@@ -13381,7 +13379,7 @@
       </c>
       <c r="K472" s="7"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A473" s="6"/>
       <c r="B473" s="1" t="s">
         <v>797</v>
@@ -13400,7 +13398,7 @@
       </c>
       <c r="K473" s="7"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A474" s="6"/>
       <c r="B474" s="1" t="s">
         <v>798</v>
@@ -13419,7 +13417,7 @@
       </c>
       <c r="K474" s="7"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A475" s="6"/>
       <c r="B475" s="1" t="s">
         <v>799</v>
@@ -13438,7 +13436,7 @@
       </c>
       <c r="K475" s="7"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A476" s="6"/>
       <c r="B476" s="1" t="s">
         <v>800</v>
@@ -13457,7 +13455,7 @@
       </c>
       <c r="K476" s="7"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A477" s="6"/>
       <c r="B477" s="1" t="s">
         <v>801</v>
@@ -13476,7 +13474,7 @@
       </c>
       <c r="K477" s="7"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A478" s="6"/>
       <c r="B478" s="1" t="s">
         <v>802</v>
@@ -13495,7 +13493,7 @@
       </c>
       <c r="K478" s="7"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A479" s="6"/>
       <c r="B479" s="1" t="s">
         <v>803</v>
@@ -13514,7 +13512,7 @@
       </c>
       <c r="K479" s="7"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A480" s="6"/>
       <c r="B480" s="1" t="s">
         <v>804</v>
@@ -13533,7 +13531,7 @@
       </c>
       <c r="K480" s="7"/>
     </row>
-    <row r="481" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A481" s="6"/>
       <c r="B481" s="1">
         <v>626</v>
@@ -13552,7 +13550,7 @@
       </c>
       <c r="K481" s="7"/>
     </row>
-    <row r="482" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A482" s="6"/>
       <c r="B482" s="1" t="s">
         <v>807</v>
@@ -13571,7 +13569,7 @@
       </c>
       <c r="K482" s="7"/>
     </row>
-    <row r="483" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A483" s="6"/>
       <c r="B483" s="1" t="s">
         <v>809</v>
@@ -13590,7 +13588,7 @@
       </c>
       <c r="K483" s="7"/>
     </row>
-    <row r="484" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A484" s="6"/>
       <c r="B484" s="1" t="s">
         <v>810</v>
@@ -13609,7 +13607,7 @@
       </c>
       <c r="K484" s="7"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A485" s="6"/>
       <c r="B485" s="1" t="s">
         <v>811</v>
@@ -13628,7 +13626,7 @@
       </c>
       <c r="K485" s="7"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A486" s="6"/>
       <c r="B486" s="1" t="s">
         <v>812</v>
@@ -13647,7 +13645,7 @@
       </c>
       <c r="K486" s="7"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A487" s="6"/>
       <c r="B487" s="1" t="s">
         <v>813</v>
@@ -13666,7 +13664,7 @@
       </c>
       <c r="K487" s="7"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A488" s="6"/>
       <c r="B488" s="1" t="s">
         <v>814</v>
@@ -13685,7 +13683,7 @@
       </c>
       <c r="K488" s="7"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A489" s="6"/>
       <c r="B489" s="1" t="s">
         <v>815</v>
@@ -13704,7 +13702,7 @@
       </c>
       <c r="K489" s="7"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A490" s="6"/>
       <c r="B490" s="1" t="s">
         <v>816</v>
@@ -13723,7 +13721,7 @@
       </c>
       <c r="K490" s="7"/>
     </row>
-    <row r="491" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A491" s="6"/>
       <c r="B491" s="1" t="s">
         <v>818</v>
@@ -13742,7 +13740,7 @@
       </c>
       <c r="K491" s="7"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A492" s="6"/>
       <c r="B492" s="1" t="s">
         <v>819</v>
@@ -13761,7 +13759,7 @@
       </c>
       <c r="K492" s="7"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A493" s="6"/>
       <c r="B493" s="1" t="s">
         <v>820</v>
@@ -13780,7 +13778,7 @@
       </c>
       <c r="K493" s="7"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A494" s="6"/>
       <c r="B494" s="1" t="s">
         <v>821</v>
@@ -13799,7 +13797,7 @@
       </c>
       <c r="K494" s="7"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A495" s="6"/>
       <c r="B495" s="1" t="s">
         <v>822</v>
@@ -13818,7 +13816,7 @@
       </c>
       <c r="K495" s="7"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A496" s="6"/>
       <c r="B496" s="1" t="s">
         <v>823</v>
@@ -13837,7 +13835,7 @@
       </c>
       <c r="K496" s="7"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A497" s="6"/>
       <c r="B497" s="1" t="s">
         <v>824</v>
@@ -13856,7 +13854,7 @@
       </c>
       <c r="K497" s="7"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A498" s="6"/>
       <c r="B498" s="1" t="s">
         <v>825</v>
@@ -13875,7 +13873,7 @@
       </c>
       <c r="K498" s="7"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A499" s="6"/>
       <c r="B499" s="1" t="s">
         <v>826</v>
@@ -13894,7 +13892,7 @@
       </c>
       <c r="K499" s="7"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A500" s="6"/>
       <c r="B500" s="1" t="s">
         <v>827</v>
@@ -13913,7 +13911,7 @@
       </c>
       <c r="K500" s="7"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A501" s="6"/>
       <c r="B501" s="1" t="s">
         <v>829</v>
@@ -13929,7 +13927,7 @@
       </c>
       <c r="K501" s="7"/>
     </row>
-    <row r="502" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A502" s="6">
         <v>8</v>
       </c>
@@ -13947,7 +13945,7 @@
       </c>
       <c r="K502" s="7"/>
     </row>
-    <row r="503" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A503" s="6">
         <v>8.1</v>
       </c>
@@ -13968,7 +13966,7 @@
       </c>
       <c r="K503" s="7"/>
     </row>
-    <row r="504" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A504" s="6">
         <v>8.1999999999999993</v>
       </c>
@@ -13989,7 +13987,7 @@
       </c>
       <c r="K504" s="7"/>
     </row>
-    <row r="505" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A505" s="6">
         <v>8.4</v>
       </c>
@@ -14010,7 +14008,7 @@
       </c>
       <c r="K505" s="7"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A506" s="6">
         <v>8.5</v>
       </c>
@@ -14031,7 +14029,7 @@
       </c>
       <c r="K506" s="7"/>
     </row>
-    <row r="507" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A507" s="6">
         <v>8.6</v>
       </c>
@@ -14052,7 +14050,7 @@
       </c>
       <c r="K507" s="7"/>
     </row>
-    <row r="508" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A508" s="6"/>
       <c r="B508" s="1" t="s">
         <v>840</v>
@@ -14068,7 +14066,7 @@
       </c>
       <c r="K508" s="7"/>
     </row>
-    <row r="509" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A509" s="6">
         <v>8.6999999999999993</v>
       </c>
@@ -14089,7 +14087,7 @@
       </c>
       <c r="K509" s="7"/>
     </row>
-    <row r="510" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A510" s="6">
         <v>8.8000000000000007</v>
       </c>
@@ -14110,7 +14108,7 @@
       </c>
       <c r="K510" s="7"/>
     </row>
-    <row r="511" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A511" s="6">
         <v>8.9</v>
       </c>
@@ -14131,7 +14129,7 @@
       </c>
       <c r="K511" s="7"/>
     </row>
-    <row r="512" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A512" s="6">
         <v>8.1</v>
       </c>
@@ -14152,7 +14150,7 @@
       </c>
       <c r="K512" s="7"/>
     </row>
-    <row r="513" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A513" s="6">
         <v>8.11</v>
       </c>
@@ -14173,7 +14171,7 @@
       </c>
       <c r="K513" s="7"/>
     </row>
-    <row r="514" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A514" s="6"/>
       <c r="B514" s="1" t="s">
         <v>847</v>
@@ -14192,7 +14190,7 @@
       </c>
       <c r="K514" s="7"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A515" s="6"/>
       <c r="B515" s="1" t="s">
         <v>849</v>
@@ -14208,7 +14206,7 @@
       </c>
       <c r="K515" s="7"/>
     </row>
-    <row r="516" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A516" s="6"/>
       <c r="B516" s="1" t="s">
         <v>851</v>
@@ -14224,7 +14222,7 @@
       </c>
       <c r="K516" s="7"/>
     </row>
-    <row r="517" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A517" s="6"/>
       <c r="B517" s="1" t="s">
         <v>853</v>
@@ -14240,7 +14238,7 @@
       </c>
       <c r="K517" s="7"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A518" s="6"/>
       <c r="B518" s="1" t="s">
         <v>855</v>
@@ -14259,7 +14257,7 @@
       </c>
       <c r="K518" s="7"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A519" s="6"/>
       <c r="B519" s="1" t="s">
         <v>857</v>
@@ -14278,7 +14276,7 @@
       </c>
       <c r="K519" s="7"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A520" s="6"/>
       <c r="B520" s="1" t="s">
         <v>859</v>
@@ -14297,7 +14295,7 @@
       </c>
       <c r="K520" s="7"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A521" s="6"/>
       <c r="B521" s="1" t="s">
         <v>861</v>
@@ -14316,7 +14314,7 @@
       </c>
       <c r="K521" s="7"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A522" s="6"/>
       <c r="B522" s="1" t="s">
         <v>863</v>
@@ -14335,7 +14333,7 @@
       </c>
       <c r="K522" s="7"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A523" s="6"/>
       <c r="B523" s="1" t="s">
         <v>865</v>
@@ -14354,7 +14352,7 @@
       </c>
       <c r="K523" s="7"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A524" s="6"/>
       <c r="B524" s="1" t="s">
         <v>866</v>
@@ -14373,7 +14371,7 @@
       </c>
       <c r="K524" s="7"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A525" s="6"/>
       <c r="B525" s="1" t="s">
         <v>867</v>
@@ -14392,7 +14390,7 @@
       </c>
       <c r="K525" s="7"/>
     </row>
-    <row r="526" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A526" s="6"/>
       <c r="B526" s="1">
         <v>702</v>
@@ -14411,7 +14409,7 @@
       </c>
       <c r="K526" s="7"/>
     </row>
-    <row r="527" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A527" s="6"/>
       <c r="B527" s="1">
         <v>703</v>
@@ -14430,7 +14428,7 @@
       </c>
       <c r="K527" s="7"/>
     </row>
-    <row r="528" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A528" s="6"/>
       <c r="B528" s="1">
         <v>704</v>
@@ -14449,7 +14447,7 @@
       </c>
       <c r="K528" s="7"/>
     </row>
-    <row r="529" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A529" s="6"/>
       <c r="B529" s="1" t="s">
         <v>873</v>
@@ -14468,7 +14466,7 @@
       </c>
       <c r="K529" s="7"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A530" s="6"/>
       <c r="B530" s="1" t="s">
         <v>876</v>
@@ -14487,7 +14485,7 @@
       </c>
       <c r="K530" s="7"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A531" s="6"/>
       <c r="B531" s="1" t="s">
         <v>878</v>
@@ -14506,7 +14504,7 @@
       </c>
       <c r="K531" s="7"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A532" s="6"/>
       <c r="B532" s="1" t="s">
         <v>880</v>
@@ -14525,7 +14523,7 @@
       </c>
       <c r="K532" s="7"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A533" s="6"/>
       <c r="B533" s="1" t="s">
         <v>882</v>
@@ -14544,7 +14542,7 @@
       </c>
       <c r="K533" s="7"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A534" s="6"/>
       <c r="B534" s="1" t="s">
         <v>884</v>
@@ -14563,7 +14561,7 @@
       </c>
       <c r="K534" s="7"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A535" s="6"/>
       <c r="B535" s="1" t="s">
         <v>886</v>
@@ -14582,7 +14580,7 @@
       </c>
       <c r="K535" s="7"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A536" s="6"/>
       <c r="B536" s="1" t="s">
         <v>888</v>
@@ -14601,7 +14599,7 @@
       </c>
       <c r="K536" s="7"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A537" s="6"/>
       <c r="B537" s="1" t="s">
         <v>890</v>
@@ -14620,7 +14618,7 @@
       </c>
       <c r="K537" s="7"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A538" s="6"/>
       <c r="B538" s="1" t="s">
         <v>892</v>
@@ -14639,7 +14637,7 @@
       </c>
       <c r="K538" s="7"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A539" s="6"/>
       <c r="B539" s="1" t="s">
         <v>893</v>
@@ -14658,7 +14656,7 @@
       </c>
       <c r="K539" s="7"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A540" s="6"/>
       <c r="B540" s="1" t="s">
         <v>894</v>
@@ -14677,7 +14675,7 @@
       </c>
       <c r="K540" s="7"/>
     </row>
-    <row r="541" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A541" s="6"/>
       <c r="B541" s="1">
         <v>706</v>
@@ -14699,7 +14697,7 @@
       </c>
       <c r="K541" s="7"/>
     </row>
-    <row r="542" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A542" s="6"/>
       <c r="B542" s="1">
         <v>707</v>
@@ -14721,7 +14719,7 @@
       </c>
       <c r="K542" s="7"/>
     </row>
-    <row r="543" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A543" s="6"/>
       <c r="B543" s="1">
         <v>708</v>
@@ -14743,7 +14741,7 @@
       </c>
       <c r="K543" s="7"/>
     </row>
-    <row r="544" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A544" s="6"/>
       <c r="B544" s="1" t="s">
         <v>902</v>
@@ -14762,7 +14760,7 @@
       </c>
       <c r="K544" s="7"/>
     </row>
-    <row r="545" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A545" s="6"/>
       <c r="B545" s="1">
         <v>709</v>
@@ -14784,7 +14782,7 @@
       </c>
       <c r="K545" s="7"/>
     </row>
-    <row r="546" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A546" s="6"/>
       <c r="B546" s="1">
         <v>710</v>
@@ -14806,7 +14804,7 @@
       </c>
       <c r="K546" s="7"/>
     </row>
-    <row r="547" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A547" s="6"/>
       <c r="B547" s="1" t="s">
         <v>910</v>
@@ -14825,7 +14823,7 @@
       </c>
       <c r="K547" s="7"/>
     </row>
-    <row r="548" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A548" s="6"/>
       <c r="B548" s="1" t="s">
         <v>913</v>
@@ -14841,7 +14839,7 @@
       </c>
       <c r="K548" s="7"/>
     </row>
-    <row r="549" spans="1:11" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A549" s="6"/>
       <c r="B549" s="1" t="s">
         <v>916</v>
@@ -14857,7 +14855,7 @@
       </c>
       <c r="K549" s="7"/>
     </row>
-    <row r="550" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A550" s="6"/>
       <c r="B550" s="1">
         <v>711</v>
@@ -14876,7 +14874,7 @@
       </c>
       <c r="K550" s="7"/>
     </row>
-    <row r="551" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A551" s="6"/>
       <c r="B551" s="1">
         <v>712</v>
@@ -14895,7 +14893,7 @@
       </c>
       <c r="K551" s="7"/>
     </row>
-    <row r="552" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A552" s="6"/>
       <c r="B552" s="1">
         <v>713</v>
@@ -14914,7 +14912,7 @@
       </c>
       <c r="K552" s="7"/>
     </row>
-    <row r="553" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A553" s="6"/>
       <c r="B553" s="1">
         <v>714</v>
@@ -14933,7 +14931,7 @@
       </c>
       <c r="K553" s="7"/>
     </row>
-    <row r="554" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A554" s="6"/>
       <c r="B554" s="1">
         <v>715</v>
@@ -14952,7 +14950,7 @@
       </c>
       <c r="K554" s="7"/>
     </row>
-    <row r="555" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A555" s="6"/>
       <c r="B555" s="1">
         <v>716</v>
@@ -14971,7 +14969,7 @@
       </c>
       <c r="K555" s="7"/>
     </row>
-    <row r="556" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A556" s="6"/>
       <c r="B556" s="1">
         <v>717</v>
@@ -14990,7 +14988,7 @@
       </c>
       <c r="K556" s="7"/>
     </row>
-    <row r="557" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A557" s="6"/>
       <c r="B557" s="1">
         <v>718</v>
@@ -15009,7 +15007,7 @@
       </c>
       <c r="K557" s="7"/>
     </row>
-    <row r="558" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A558" s="6"/>
       <c r="B558" s="1">
         <v>719</v>
@@ -15028,7 +15026,7 @@
       </c>
       <c r="K558" s="7"/>
     </row>
-    <row r="559" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A559" s="6"/>
       <c r="B559" s="1">
         <v>720</v>
@@ -15047,7 +15045,7 @@
       </c>
       <c r="K559" s="7"/>
     </row>
-    <row r="560" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A560" s="6"/>
       <c r="B560" s="1">
         <v>721</v>
@@ -15066,7 +15064,7 @@
       </c>
       <c r="K560" s="7"/>
     </row>
-    <row r="561" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A561" s="6"/>
       <c r="B561" s="1">
         <v>722</v>
@@ -15085,7 +15083,7 @@
       </c>
       <c r="K561" s="7"/>
     </row>
-    <row r="562" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A562" s="6"/>
       <c r="B562" s="1">
         <v>723</v>
@@ -15104,7 +15102,7 @@
       </c>
       <c r="K562" s="7"/>
     </row>
-    <row r="563" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A563" s="6"/>
       <c r="B563" s="1">
         <v>724</v>
@@ -15123,7 +15121,7 @@
       </c>
       <c r="K563" s="7"/>
     </row>
-    <row r="564" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A564" s="6"/>
       <c r="B564" s="1">
         <v>725</v>
@@ -15142,7 +15140,7 @@
       </c>
       <c r="K564" s="7"/>
     </row>
-    <row r="565" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A565" s="6"/>
       <c r="B565" s="1">
         <v>726</v>
@@ -15161,7 +15159,7 @@
       </c>
       <c r="K565" s="7"/>
     </row>
-    <row r="566" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A566" s="6"/>
       <c r="B566" s="1">
         <v>727</v>
@@ -15180,7 +15178,7 @@
       </c>
       <c r="K566" s="7"/>
     </row>
-    <row r="567" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A567" s="6"/>
       <c r="B567" s="1">
         <v>728</v>
@@ -15199,7 +15197,7 @@
       </c>
       <c r="K567" s="7"/>
     </row>
-    <row r="568" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A568" s="6"/>
       <c r="B568" s="1">
         <v>729</v>
@@ -15218,7 +15216,7 @@
       </c>
       <c r="K568" s="7"/>
     </row>
-    <row r="569" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A569" s="6"/>
       <c r="B569" s="1">
         <v>730</v>
@@ -15237,7 +15235,7 @@
       </c>
       <c r="K569" s="7"/>
     </row>
-    <row r="570" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A570" s="6"/>
       <c r="B570" s="1">
         <v>731</v>
@@ -15256,7 +15254,7 @@
       </c>
       <c r="K570" s="7"/>
     </row>
-    <row r="571" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A571" s="6"/>
       <c r="B571" s="1">
         <v>732</v>
@@ -15275,7 +15273,7 @@
       </c>
       <c r="K571" s="7"/>
     </row>
-    <row r="572" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A572" s="6"/>
       <c r="B572" s="1">
         <v>733</v>
@@ -15294,7 +15292,7 @@
       </c>
       <c r="K572" s="7"/>
     </row>
-    <row r="573" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A573" s="6"/>
       <c r="B573" s="1">
         <v>734</v>
@@ -15313,7 +15311,7 @@
       </c>
       <c r="K573" s="7"/>
     </row>
-    <row r="574" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A574" s="6"/>
       <c r="B574" s="1" t="s">
         <v>944</v>
@@ -15332,7 +15330,7 @@
       </c>
       <c r="K574" s="7"/>
     </row>
-    <row r="575" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A575" s="6"/>
       <c r="B575" s="1" t="s">
         <v>946</v>
@@ -15348,7 +15346,7 @@
       </c>
       <c r="K575" s="7"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A576" s="6"/>
       <c r="B576" s="1" t="s">
         <v>948</v>
@@ -15364,7 +15362,7 @@
       </c>
       <c r="K576" s="7"/>
     </row>
-    <row r="577" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A577" s="6"/>
       <c r="B577" s="1">
         <v>801</v>
@@ -15383,7 +15381,7 @@
       </c>
       <c r="K577" s="7"/>
     </row>
-    <row r="578" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A578" s="6"/>
       <c r="B578" s="1" t="s">
         <v>952</v>
@@ -15402,7 +15400,7 @@
       </c>
       <c r="K578" s="7"/>
     </row>
-    <row r="579" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A579" s="6"/>
       <c r="B579" s="1">
         <v>802</v>
@@ -15421,7 +15419,7 @@
       </c>
       <c r="K579" s="7"/>
     </row>
-    <row r="580" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A580" s="6"/>
       <c r="B580" s="1" t="s">
         <v>957</v>
@@ -15437,7 +15435,7 @@
       </c>
       <c r="K580" s="7"/>
     </row>
-    <row r="581" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A581" s="6"/>
       <c r="B581" s="1" t="s">
         <v>960</v>
@@ -15453,7 +15451,7 @@
       </c>
       <c r="K581" s="7"/>
     </row>
-    <row r="582" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A582" s="6"/>
       <c r="B582" s="1">
         <v>803</v>
@@ -15472,7 +15470,7 @@
       </c>
       <c r="K582" s="7"/>
     </row>
-    <row r="583" spans="1:11" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" ht="348" x14ac:dyDescent="0.35">
       <c r="A583" s="6"/>
       <c r="B583" s="1" t="s">
         <v>963</v>
@@ -15488,7 +15486,7 @@
       </c>
       <c r="K583" s="7"/>
     </row>
-    <row r="584" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A584" s="6"/>
       <c r="B584" s="1" t="s">
         <v>965</v>
@@ -15504,7 +15502,7 @@
       </c>
       <c r="K584" s="7"/>
     </row>
-    <row r="585" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A585" s="6"/>
       <c r="B585" s="1">
         <v>804</v>
@@ -15523,7 +15521,7 @@
       </c>
       <c r="K585" s="7"/>
     </row>
-    <row r="586" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A586" s="6"/>
       <c r="B586" s="1">
         <v>805</v>
@@ -15542,7 +15540,7 @@
       </c>
       <c r="K586" s="7"/>
     </row>
-    <row r="587" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A587" s="6"/>
       <c r="B587" s="1">
         <v>806</v>
@@ -15561,7 +15559,7 @@
       </c>
       <c r="K587" s="7"/>
     </row>
-    <row r="588" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A588" s="6"/>
       <c r="B588" s="1">
         <v>807</v>
@@ -15580,7 +15578,7 @@
       </c>
       <c r="K588" s="7"/>
     </row>
-    <row r="589" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A589" s="6"/>
       <c r="B589" s="1">
         <v>808</v>
@@ -15599,7 +15597,7 @@
       </c>
       <c r="K589" s="7"/>
     </row>
-    <row r="590" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A590" s="6"/>
       <c r="B590" s="1">
         <v>809</v>
@@ -15618,7 +15616,7 @@
       </c>
       <c r="K590" s="7"/>
     </row>
-    <row r="591" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A591" s="6"/>
       <c r="B591" s="1">
         <v>810</v>
@@ -15637,7 +15635,7 @@
       </c>
       <c r="K591" s="7"/>
     </row>
-    <row r="592" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A592" s="6"/>
       <c r="B592" s="1">
         <v>811</v>
@@ -15656,7 +15654,7 @@
       </c>
       <c r="K592" s="7"/>
     </row>
-    <row r="593" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A593" s="6">
         <v>9</v>
       </c>
@@ -15674,7 +15672,7 @@
       </c>
       <c r="K593" s="7"/>
     </row>
-    <row r="594" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A594" s="6">
         <v>9.1</v>
       </c>
@@ -15695,7 +15693,7 @@
       </c>
       <c r="K594" s="7"/>
     </row>
-    <row r="595" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A595" s="6" t="s">
         <v>1060</v>
       </c>
@@ -15716,7 +15714,7 @@
       </c>
       <c r="K595" s="7"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A596" s="6"/>
       <c r="B596" s="1" t="s">
         <v>981</v>
@@ -15732,7 +15730,7 @@
       </c>
       <c r="K596" s="7"/>
     </row>
-    <row r="597" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A597" s="6"/>
       <c r="B597" s="1" t="s">
         <v>983</v>
@@ -15748,7 +15746,7 @@
       </c>
       <c r="K597" s="7"/>
     </row>
-    <row r="598" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A598" s="6">
         <v>9.1999999999999993</v>
       </c>
@@ -15769,7 +15767,7 @@
       </c>
       <c r="K598" s="7"/>
     </row>
-    <row r="599" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A599" s="6" t="s">
         <v>1061</v>
       </c>
@@ -15790,7 +15788,7 @@
       </c>
       <c r="K599" s="7"/>
     </row>
-    <row r="600" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A600" s="6"/>
       <c r="B600" s="1" t="s">
         <v>840</v>
@@ -15806,7 +15804,7 @@
       </c>
       <c r="K600" s="7"/>
     </row>
-    <row r="601" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A601" s="6">
         <v>9.3000000000000007</v>
       </c>
@@ -15827,7 +15825,7 @@
       </c>
       <c r="K601" s="7"/>
     </row>
-    <row r="602" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A602" s="6"/>
       <c r="B602" s="1">
         <v>815</v>
@@ -15846,7 +15844,7 @@
       </c>
       <c r="K602" s="7"/>
     </row>
-    <row r="603" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A603" s="6"/>
       <c r="B603" s="1">
         <v>816</v>
@@ -15865,7 +15863,7 @@
       </c>
       <c r="K603" s="7"/>
     </row>
-    <row r="604" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A604" s="6"/>
       <c r="B604" s="1">
         <v>817</v>
@@ -15884,7 +15882,7 @@
       </c>
       <c r="K604" s="7"/>
     </row>
-    <row r="605" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A605" s="6">
         <v>9.4</v>
       </c>
@@ -15905,7 +15903,7 @@
       </c>
       <c r="K605" s="7"/>
     </row>
-    <row r="606" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A606" s="6"/>
       <c r="B606" s="1">
         <v>819</v>
@@ -15924,7 +15922,7 @@
       </c>
       <c r="K606" s="7"/>
     </row>
-    <row r="607" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A607" s="6">
         <v>9.5</v>
       </c>
@@ -15945,7 +15943,7 @@
       </c>
       <c r="K607" s="7"/>
     </row>
-    <row r="608" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A608" s="6"/>
       <c r="B608" s="1">
         <v>821</v>
@@ -15964,7 +15962,7 @@
       </c>
       <c r="K608" s="7"/>
     </row>
-    <row r="609" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A609" s="6">
         <v>9.6</v>
       </c>
@@ -15985,7 +15983,7 @@
       </c>
       <c r="K609" s="7"/>
     </row>
-    <row r="610" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A610" s="6">
         <v>9.6999999999999993</v>
       </c>
@@ -16006,7 +16004,7 @@
       </c>
       <c r="K610" s="7"/>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A611" s="6"/>
       <c r="B611" s="1" t="s">
         <v>998</v>
@@ -16022,7 +16020,7 @@
       </c>
       <c r="K611" s="7"/>
     </row>
-    <row r="612" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A612" s="6"/>
       <c r="B612" s="1" t="s">
         <v>1000</v>
@@ -16038,7 +16036,7 @@
       </c>
       <c r="K612" s="7"/>
     </row>
-    <row r="613" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A613" s="6"/>
       <c r="B613" s="1">
         <v>824</v>
@@ -16057,7 +16055,7 @@
       </c>
       <c r="K613" s="7"/>
     </row>
-    <row r="614" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A614" s="6"/>
       <c r="B614" s="1" t="s">
         <v>840</v>
@@ -16073,7 +16071,7 @@
       </c>
       <c r="K614" s="7"/>
     </row>
-    <row r="615" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A615" s="6">
         <v>9.9</v>
       </c>
@@ -16094,7 +16092,7 @@
       </c>
       <c r="K615" s="7"/>
     </row>
-    <row r="616" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A616" s="6"/>
       <c r="B616" s="1">
         <v>826</v>
@@ -16113,7 +16111,7 @@
       </c>
       <c r="K616" s="7"/>
     </row>
-    <row r="617" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A617" s="6">
         <v>9.1</v>
       </c>
@@ -16134,7 +16132,7 @@
       </c>
       <c r="K617" s="7"/>
     </row>
-    <row r="618" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A618" s="6"/>
       <c r="B618" s="1">
         <v>828</v>
@@ -16153,7 +16151,7 @@
       </c>
       <c r="K618" s="7"/>
     </row>
-    <row r="619" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:13" ht="203" x14ac:dyDescent="0.35">
       <c r="A619" s="6"/>
       <c r="B619" s="1" t="s">
         <v>1008</v>
@@ -16192,7 +16190,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="620" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A620" s="6"/>
       <c r="B620" s="1" t="s">
         <v>1010</v>
@@ -16231,7 +16229,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="621" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A621" s="6">
         <v>9.11</v>
       </c>
@@ -16252,7 +16250,7 @@
       </c>
       <c r="K621" s="7"/>
     </row>
-    <row r="622" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A622" s="6"/>
       <c r="B622" s="1" t="s">
         <v>840</v>
@@ -16268,7 +16266,7 @@
       </c>
       <c r="K622" s="7"/>
     </row>
-    <row r="623" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A623" s="6"/>
       <c r="B623" s="1">
         <v>830</v>
@@ -16287,7 +16285,7 @@
       </c>
       <c r="K623" s="7"/>
     </row>
-    <row r="624" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A624" s="6">
         <v>9.1199999999999992</v>
       </c>
@@ -16308,7 +16306,7 @@
       </c>
       <c r="K624" s="7"/>
     </row>
-    <row r="625" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A625" s="6"/>
       <c r="B625" s="1">
         <v>831</v>
@@ -16327,7 +16325,7 @@
       </c>
       <c r="K625" s="7"/>
     </row>
-    <row r="626" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A626" s="6">
         <v>9.1300000000000008</v>
       </c>
@@ -16348,7 +16346,7 @@
       </c>
       <c r="K626" s="7"/>
     </row>
-    <row r="627" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A627" s="6"/>
       <c r="B627" s="1">
         <v>832</v>
@@ -16367,7 +16365,7 @@
       </c>
       <c r="K627" s="7"/>
     </row>
-    <row r="628" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A628" s="6">
         <v>9.14</v>
       </c>
@@ -16388,7 +16386,7 @@
       </c>
       <c r="K628" s="7"/>
     </row>
-    <row r="629" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A629" s="6"/>
       <c r="B629" s="1" t="s">
         <v>1029</v>
@@ -16404,7 +16402,7 @@
       </c>
       <c r="K629" s="7"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A630" s="8"/>
       <c r="B630" s="9">
         <v>901</v>

--- a/South Sudan resilience/data/South Sudan panel survey codebook.xlsx
+++ b/South Sudan resilience/data/South Sudan panel survey codebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JACK.PAYNE\Documents\PMES\SouthSudan_panels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065FF804-D9B4-4498-9C54-9DF02A20C803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F478DA-CCCB-4997-86FB-6615075E9CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4910" yWindow="0" windowWidth="14290" windowHeight="10200" xr2:uid="{3672C4AD-8C80-43DB-9BF6-4EF82E7197B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3672C4AD-8C80-43DB-9BF6-4EF82E7197B0}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="2" r:id="rId1"/>
@@ -3881,7 +3881,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A620" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F621" sqref="F621"/>
+      <selection pane="bottomLeft" activeCell="J623" sqref="J623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="K150" s="7"/>
     </row>
-    <row r="151" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="174" x14ac:dyDescent="0.35">
       <c r="A151" s="6"/>
       <c r="B151" s="1" t="s">
         <v>302</v>
@@ -8002,7 +8002,7 @@
       </c>
       <c r="K196" s="7"/>
     </row>
-    <row r="197" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A197" s="6"/>
       <c r="B197" s="1" t="s">
         <v>391</v>
